--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="417">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1168,9 +1168,6 @@
     <t>0681 Z</t>
   </si>
   <si>
-    <t>20351--</t>
-  </si>
-  <si>
     <t>20365--</t>
   </si>
   <si>
@@ -1259,6 +1256,43 @@
   </si>
   <si>
     <t>ENTRADAS DEL MES DE      M A Y O              2 0 2 2</t>
+  </si>
+  <si>
+    <t>AGRO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AGROPECUARIA EL TOPETE  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   250</t>
+    </r>
+  </si>
+  <si>
+    <t>T-46</t>
+  </si>
+  <si>
+    <t>T-47</t>
+  </si>
+  <si>
+    <t>T-48</t>
+  </si>
+  <si>
+    <t>20351--6775</t>
+  </si>
+  <si>
+    <t>20351--6776--NC-251</t>
+  </si>
+  <si>
+    <t>20365--10871--nc-518</t>
   </si>
 </sst>
 </file>
@@ -4092,8 +4126,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFCCFF33"/>
@@ -26535,7 +26569,7 @@
         <v>226</v>
       </c>
       <c r="U23" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V23" s="481">
         <v>4640</v>
@@ -26608,7 +26642,7 @@
         <v>226</v>
       </c>
       <c r="U24" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V24" s="481">
         <v>0</v>
@@ -26681,7 +26715,7 @@
         <v>228</v>
       </c>
       <c r="U25" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V25" s="481">
         <v>4640</v>
@@ -26754,7 +26788,7 @@
         <v>228</v>
       </c>
       <c r="U26" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V26" s="481">
         <v>0</v>
@@ -26827,7 +26861,7 @@
         <v>262</v>
       </c>
       <c r="U27" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V27" s="481">
         <v>4640</v>
@@ -26900,7 +26934,7 @@
         <v>262</v>
       </c>
       <c r="U28" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V28" s="481">
         <v>0</v>
@@ -26974,7 +27008,7 @@
         <v>261</v>
       </c>
       <c r="U29" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V29" s="481">
         <v>4640</v>
@@ -27047,7 +27081,7 @@
         <v>261</v>
       </c>
       <c r="U30" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V30" s="481">
         <v>0</v>
@@ -27120,7 +27154,7 @@
         <v>260</v>
       </c>
       <c r="U31" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V31" s="481">
         <v>4640</v>
@@ -27193,7 +27227,7 @@
         <v>260</v>
       </c>
       <c r="U32" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V32" s="481">
         <v>0</v>
@@ -27267,7 +27301,7 @@
         <v>259</v>
       </c>
       <c r="U33" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V33" s="481">
         <v>4640</v>
@@ -27340,7 +27374,7 @@
         <v>259</v>
       </c>
       <c r="U34" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V34" s="481">
         <v>0</v>
@@ -27413,7 +27447,7 @@
         <v>249</v>
       </c>
       <c r="U35" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V35" s="481">
         <v>4640</v>
@@ -27486,7 +27520,7 @@
         <v>249</v>
       </c>
       <c r="U36" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V36" s="481">
         <v>0</v>
@@ -27559,7 +27593,7 @@
         <v>271</v>
       </c>
       <c r="U37" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V37" s="481">
         <v>4640</v>
@@ -27632,7 +27666,7 @@
         <v>271</v>
       </c>
       <c r="U38" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V38" s="481">
         <v>0</v>
@@ -27705,7 +27739,7 @@
         <v>304</v>
       </c>
       <c r="U39" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V39" s="481">
         <v>4640</v>
@@ -27778,7 +27812,7 @@
         <v>304</v>
       </c>
       <c r="U40" s="480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V40" s="481">
         <v>0</v>
@@ -35663,20 +35697,20 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="O24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="310" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -36483,7 +36517,7 @@
         <v>44661</v>
       </c>
       <c r="H14" s="410" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I14" s="411">
         <v>22455</v>
@@ -36544,7 +36578,7 @@
         <v>44661</v>
       </c>
       <c r="H15" s="410" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I15" s="411">
         <v>6355</v>
@@ -36605,7 +36639,7 @@
         <v>44662</v>
       </c>
       <c r="H16" s="410" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I16" s="411">
         <v>21410</v>
@@ -36666,7 +36700,7 @@
         <v>44662</v>
       </c>
       <c r="H17" s="410" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I17" s="411">
         <f>5815-116.3</f>
@@ -36789,7 +36823,7 @@
         <v>44664</v>
       </c>
       <c r="H19" s="410" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I19" s="411">
         <f>24990-1124.55</f>
@@ -36855,7 +36889,7 @@
         <v>44664</v>
       </c>
       <c r="H20" s="410" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I20" s="411">
         <v>5695</v>
@@ -36920,7 +36954,7 @@
         <v>44665</v>
       </c>
       <c r="H21" s="410" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I21" s="411">
         <v>22950</v>
@@ -36985,7 +37019,7 @@
         <v>44665</v>
       </c>
       <c r="H22" s="410" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I22" s="411">
         <v>5715</v>
@@ -37050,7 +37084,7 @@
         <v>44668</v>
       </c>
       <c r="H23" s="410" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I23" s="411">
         <f>23990-119.95</f>
@@ -37116,7 +37150,7 @@
         <v>44668</v>
       </c>
       <c r="H24" s="410" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I24" s="411">
         <f>6665-133.3</f>
@@ -37181,8 +37215,8 @@
       <c r="G25" s="62">
         <v>44670</v>
       </c>
-      <c r="H25" s="410" t="s">
-        <v>379</v>
+      <c r="H25" s="446" t="s">
+        <v>414</v>
       </c>
       <c r="I25" s="411">
         <v>24940</v>
@@ -37200,8 +37234,12 @@
         <f t="shared" si="1"/>
         <v>885370</v>
       </c>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
+      <c r="O25" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="418">
+        <v>44684</v>
+      </c>
       <c r="Q25" s="79">
         <v>27328</v>
       </c>
@@ -37219,7 +37257,7 @@
       <c r="W25" s="53"/>
       <c r="X25" s="70"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
         <v>342</v>
       </c>
@@ -37242,15 +37280,16 @@
       <c r="G26" s="62">
         <v>44670</v>
       </c>
-      <c r="H26" s="410" t="s">
-        <v>379</v>
+      <c r="H26" s="446" t="s">
+        <v>415</v>
       </c>
       <c r="I26" s="411">
-        <v>6390</v>
+        <f>6390-130.41</f>
+        <v>6259.59</v>
       </c>
       <c r="J26" s="45">
         <f t="shared" si="0"/>
-        <v>6390</v>
+        <v>6259.59</v>
       </c>
       <c r="K26" s="76">
         <v>35.5</v>
@@ -37259,10 +37298,14 @@
       <c r="M26" s="65"/>
       <c r="N26" s="48">
         <f t="shared" si="1"/>
-        <v>226845</v>
-      </c>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
+        <v>222215.44500000001</v>
+      </c>
+      <c r="O26" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="418">
+        <v>44684</v>
+      </c>
       <c r="Q26" s="79">
         <v>0</v>
       </c>
@@ -37280,7 +37323,7 @@
       <c r="W26" s="53"/>
       <c r="X26" s="70"/>
     </row>
-    <row r="27" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
         <v>295</v>
       </c>
@@ -37288,7 +37331,7 @@
         <v>72</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D27" s="60">
         <v>50</v>
@@ -37303,15 +37346,16 @@
       <c r="G27" s="62">
         <v>44672</v>
       </c>
-      <c r="H27" s="410" t="s">
-        <v>380</v>
+      <c r="H27" s="446" t="s">
+        <v>416</v>
       </c>
       <c r="I27" s="411">
-        <v>22650</v>
+        <f>22650-113.25</f>
+        <v>22536.75</v>
       </c>
       <c r="J27" s="45">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>-13.25</v>
       </c>
       <c r="K27" s="76">
         <v>35.5</v>
@@ -37320,10 +37364,14 @@
       <c r="M27" s="65"/>
       <c r="N27" s="48">
         <f t="shared" si="1"/>
-        <v>804075</v>
-      </c>
-      <c r="O27" s="89"/>
-      <c r="P27" s="90"/>
+        <v>800054.625</v>
+      </c>
+      <c r="O27" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="418">
+        <v>44686</v>
+      </c>
       <c r="Q27" s="79">
         <v>26793</v>
       </c>
@@ -37334,7 +37382,7 @@
         <v>11200</v>
       </c>
       <c r="T27" s="92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
@@ -37349,7 +37397,7 @@
         <v>296</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D28" s="60">
         <v>50</v>
@@ -37364,8 +37412,8 @@
       <c r="G28" s="62">
         <v>44672</v>
       </c>
-      <c r="H28" s="410" t="s">
-        <v>380</v>
+      <c r="H28" s="446" t="s">
+        <v>379</v>
       </c>
       <c r="I28" s="411">
         <v>5655</v>
@@ -37383,8 +37431,8 @@
         <f t="shared" si="1"/>
         <v>200752.5</v>
       </c>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
+      <c r="O28" s="417"/>
+      <c r="P28" s="418"/>
       <c r="Q28" s="66">
         <v>0</v>
       </c>
@@ -37395,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
@@ -37410,7 +37458,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D29" s="60">
         <v>50</v>
@@ -37425,8 +37473,8 @@
       <c r="G29" s="62">
         <v>44673</v>
       </c>
-      <c r="H29" s="410" t="s">
-        <v>381</v>
+      <c r="H29" s="446" t="s">
+        <v>380</v>
       </c>
       <c r="I29" s="411">
         <v>23490</v>
@@ -37444,8 +37492,8 @@
         <f t="shared" si="1"/>
         <v>833895</v>
       </c>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
+      <c r="O29" s="417"/>
+      <c r="P29" s="418"/>
       <c r="Q29" s="456">
         <v>26900</v>
       </c>
@@ -37456,7 +37504,7 @@
         <v>11200</v>
       </c>
       <c r="T29" s="92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
@@ -37471,7 +37519,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D30" s="60">
         <v>50</v>
@@ -37486,8 +37534,8 @@
       <c r="G30" s="62">
         <v>44673</v>
       </c>
-      <c r="H30" s="410" t="s">
-        <v>381</v>
+      <c r="H30" s="446" t="s">
+        <v>380</v>
       </c>
       <c r="I30" s="411">
         <v>5845</v>
@@ -37505,8 +37553,8 @@
         <f t="shared" si="1"/>
         <v>207497.5</v>
       </c>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
+      <c r="O30" s="417"/>
+      <c r="P30" s="418"/>
       <c r="Q30" s="94">
         <v>0</v>
       </c>
@@ -37517,7 +37565,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
@@ -37532,7 +37580,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D31" s="60">
         <v>50</v>
@@ -37547,8 +37595,8 @@
       <c r="G31" s="62">
         <v>44676</v>
       </c>
-      <c r="H31" s="410" t="s">
-        <v>394</v>
+      <c r="H31" s="446" t="s">
+        <v>393</v>
       </c>
       <c r="I31" s="411">
         <v>24350</v>
@@ -37566,8 +37614,8 @@
         <f t="shared" si="1"/>
         <v>864425</v>
       </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
+      <c r="O31" s="417"/>
+      <c r="P31" s="418"/>
       <c r="Q31" s="94">
         <v>26900</v>
       </c>
@@ -37583,13 +37631,13 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B32" s="93" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D32" s="60">
         <v>50</v>
@@ -37604,8 +37652,8 @@
       <c r="G32" s="62">
         <v>44676</v>
       </c>
-      <c r="H32" s="410" t="s">
-        <v>394</v>
+      <c r="H32" s="446" t="s">
+        <v>393</v>
       </c>
       <c r="I32" s="411">
         <v>5985</v>
@@ -37623,8 +37671,8 @@
         <f t="shared" si="1"/>
         <v>212467.5</v>
       </c>
-      <c r="O32" s="98"/>
-      <c r="P32" s="90"/>
+      <c r="O32" s="417"/>
+      <c r="P32" s="418"/>
       <c r="Q32" s="94">
         <v>0</v>
       </c>
@@ -37646,7 +37694,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D33" s="60">
         <v>50</v>
@@ -37661,8 +37709,8 @@
       <c r="G33" s="62">
         <v>44678</v>
       </c>
-      <c r="H33" s="410" t="s">
-        <v>395</v>
+      <c r="H33" s="446" t="s">
+        <v>394</v>
       </c>
       <c r="I33" s="411">
         <v>22560</v>
@@ -37680,8 +37728,8 @@
         <f t="shared" si="1"/>
         <v>800880</v>
       </c>
-      <c r="O33" s="98"/>
-      <c r="P33" s="90"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="418"/>
       <c r="Q33" s="94">
         <v>26900</v>
       </c>
@@ -37692,7 +37740,7 @@
         <v>11200</v>
       </c>
       <c r="T33" s="92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U33" s="53"/>
       <c r="V33" s="54"/>
@@ -37707,7 +37755,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D34" s="60">
         <v>50</v>
@@ -37722,8 +37770,8 @@
       <c r="G34" s="62">
         <v>44678</v>
       </c>
-      <c r="H34" s="410" t="s">
-        <v>396</v>
+      <c r="H34" s="446" t="s">
+        <v>395</v>
       </c>
       <c r="I34" s="411">
         <v>5700</v>
@@ -37741,8 +37789,8 @@
         <f t="shared" si="1"/>
         <v>202350</v>
       </c>
-      <c r="O34" s="98"/>
-      <c r="P34" s="90"/>
+      <c r="O34" s="417"/>
+      <c r="P34" s="418"/>
       <c r="Q34" s="94">
         <v>0</v>
       </c>
@@ -37753,7 +37801,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U34" s="53"/>
       <c r="V34" s="54"/>
@@ -37768,7 +37816,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D35" s="60">
         <v>50</v>
@@ -37783,8 +37831,8 @@
       <c r="G35" s="62">
         <v>44680</v>
       </c>
-      <c r="H35" s="410" t="s">
-        <v>397</v>
+      <c r="H35" s="446" t="s">
+        <v>396</v>
       </c>
       <c r="I35" s="411">
         <v>22930</v>
@@ -37802,8 +37850,8 @@
         <f t="shared" si="1"/>
         <v>814015</v>
       </c>
-      <c r="O35" s="98"/>
-      <c r="P35" s="90"/>
+      <c r="O35" s="417"/>
+      <c r="P35" s="418"/>
       <c r="Q35" s="94">
         <v>26900</v>
       </c>
@@ -37814,7 +37862,7 @@
         <v>11200</v>
       </c>
       <c r="T35" s="92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U35" s="53"/>
       <c r="V35" s="54"/>
@@ -37829,7 +37877,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="40">
@@ -37842,8 +37890,8 @@
       <c r="G36" s="62">
         <v>44680</v>
       </c>
-      <c r="H36" s="410" t="s">
-        <v>397</v>
+      <c r="H36" s="446" t="s">
+        <v>396</v>
       </c>
       <c r="I36" s="411">
         <v>5885</v>
@@ -37861,8 +37909,8 @@
         <f t="shared" si="1"/>
         <v>208917.5</v>
       </c>
-      <c r="O36" s="98"/>
-      <c r="P36" s="90"/>
+      <c r="O36" s="417"/>
+      <c r="P36" s="418"/>
       <c r="Q36" s="94">
         <v>0</v>
       </c>
@@ -37873,7 +37921,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U36" s="53"/>
       <c r="V36" s="54"/>
@@ -38812,10 +38860,10 @@
         <v>111</v>
       </c>
       <c r="B63" s="178" t="s">
+        <v>386</v>
+      </c>
+      <c r="C63" s="476" t="s">
         <v>387</v>
-      </c>
-      <c r="C63" s="476" t="s">
-        <v>388</v>
       </c>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
@@ -45250,7 +45298,7 @@
       <c r="H259" s="510"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>491400.01</v>
+        <v>491156.35000000003</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -45349,7 +45397,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>17698416.362999998</v>
+        <v>17689766.432999998</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -45409,7 +45457,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>18217774.362999998</v>
+        <v>18209124.432999998</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -45846,17 +45894,17 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="310" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -45877,7 +45925,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="486" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" s="486"/>
       <c r="C1" s="486"/>
@@ -45998,25 +46046,37 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="465"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="465" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>72</v>
+      </c>
       <c r="C4" s="38"/>
       <c r="D4" s="39"/>
       <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="F4" s="41">
+        <v>17990</v>
+      </c>
+      <c r="G4" s="42">
+        <v>44682</v>
+      </c>
       <c r="H4" s="485"/>
-      <c r="I4" s="409"/>
+      <c r="I4" s="409">
+        <v>22390</v>
+      </c>
       <c r="J4" s="45">
         <f t="shared" ref="J4:J150" si="0">I4-F4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="46"/>
+        <v>4400</v>
+      </c>
+      <c r="K4" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
       <c r="N4" s="48">
         <f t="shared" ref="N4:N114" si="1">K4*I4</f>
-        <v>0</v>
+        <v>794845</v>
       </c>
       <c r="O4" s="482"/>
       <c r="P4" s="394"/>
@@ -46030,128 +46090,192 @@
       <c r="X4" s="56"/>
     </row>
     <row r="5" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C5" s="59"/>
       <c r="D5" s="60"/>
       <c r="E5" s="40"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="F5" s="61">
+        <v>18890</v>
+      </c>
+      <c r="G5" s="62">
+        <v>44684</v>
+      </c>
       <c r="H5" s="410"/>
-      <c r="I5" s="411"/>
+      <c r="I5" s="411">
+        <v>23430</v>
+      </c>
       <c r="J5" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="46"/>
+        <v>4540</v>
+      </c>
+      <c r="K5" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L5" s="65"/>
       <c r="M5" s="65"/>
       <c r="N5" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>831765</v>
       </c>
       <c r="O5" s="395"/>
       <c r="P5" s="396"/>
       <c r="Q5" s="66"/>
       <c r="R5" s="67"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="52"/>
+      <c r="S5" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T5" s="52" t="s">
+        <v>411</v>
+      </c>
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
       <c r="W5" s="68"/>
       <c r="X5" s="69"/>
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C6" s="59"/>
       <c r="D6" s="60"/>
       <c r="E6" s="40"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="F6" s="61">
+        <v>23150</v>
+      </c>
+      <c r="G6" s="62">
+        <v>44686</v>
+      </c>
       <c r="H6" s="410"/>
-      <c r="I6" s="411"/>
+      <c r="I6" s="411">
+        <v>22940</v>
+      </c>
       <c r="J6" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="46"/>
+        <v>-210</v>
+      </c>
+      <c r="K6" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L6" s="65"/>
       <c r="M6" s="65"/>
       <c r="N6" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>814370</v>
       </c>
       <c r="O6" s="395"/>
       <c r="P6" s="396"/>
       <c r="Q6" s="66"/>
       <c r="R6" s="67"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="52"/>
+      <c r="S6" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>412</v>
+      </c>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
       <c r="W6" s="53"/>
       <c r="X6" s="70"/>
     </row>
     <row r="7" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="59"/>
       <c r="D7" s="60"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="F7" s="61">
+        <v>0</v>
+      </c>
+      <c r="G7" s="62">
+        <v>44686</v>
+      </c>
       <c r="H7" s="410"/>
-      <c r="I7" s="411"/>
+      <c r="I7" s="411">
+        <v>5925</v>
+      </c>
       <c r="J7" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="46"/>
+        <v>5925</v>
+      </c>
+      <c r="K7" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L7" s="65"/>
       <c r="M7" s="65"/>
       <c r="N7" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210337.5</v>
       </c>
       <c r="O7" s="395"/>
       <c r="P7" s="396"/>
       <c r="Q7" s="66"/>
       <c r="R7" s="67"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="52"/>
+      <c r="S7" s="51">
+        <v>0</v>
+      </c>
+      <c r="T7" s="52" t="s">
+        <v>412</v>
+      </c>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
       <c r="W7" s="53"/>
       <c r="X7" s="70"/>
     </row>
     <row r="8" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>290</v>
+      </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="F8" s="61">
+        <v>17530</v>
+      </c>
+      <c r="G8" s="62">
+        <v>44687</v>
+      </c>
       <c r="H8" s="410"/>
-      <c r="I8" s="411"/>
+      <c r="I8" s="411">
+        <v>21700</v>
+      </c>
       <c r="J8" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="46"/>
+        <v>4170</v>
+      </c>
+      <c r="K8" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L8" s="65"/>
       <c r="M8" s="65"/>
       <c r="N8" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>770350</v>
       </c>
       <c r="O8" s="89"/>
       <c r="P8" s="90"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="67"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="52"/>
+      <c r="S8" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T8" s="52" t="s">
+        <v>413</v>
+      </c>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
       <c r="W8" s="53"/>
@@ -47091,7 +47215,7 @@
       <c r="C38" s="59"/>
       <c r="D38" s="60"/>
       <c r="E38" s="40">
-        <f t="shared" ref="E5:E40" si="2">D38*F38</f>
+        <f t="shared" ref="E38:E40" si="2">D38*F38</f>
         <v>0</v>
       </c>
       <c r="F38" s="61"/>
@@ -47673,7 +47797,9 @@
         <v>23</v>
       </c>
       <c r="C55" s="471"/>
-      <c r="D55" s="439"/>
+      <c r="D55" s="439" t="s">
+        <v>409</v>
+      </c>
       <c r="E55" s="60"/>
       <c r="F55" s="151"/>
       <c r="G55" s="152"/>
@@ -54348,7 +54474,7 @@
       <c r="H259" s="510"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>0</v>
+        <v>96385</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -54447,7 +54573,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>0</v>
+        <v>3421667.5</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -54507,7 +54633,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>0</v>
+        <v>3421667.5</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -54919,14 +55045,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="F259:H259"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="425">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1168,12 +1168,6 @@
     <t>0681 Z</t>
   </si>
   <si>
-    <t>20365--</t>
-  </si>
-  <si>
-    <t>20372--</t>
-  </si>
-  <si>
     <t>20322--</t>
   </si>
   <si>
@@ -1211,12 +1205,6 @@
   </si>
   <si>
     <t>20384--</t>
-  </si>
-  <si>
-    <t>20399-</t>
-  </si>
-  <si>
-    <t>20399--</t>
   </si>
   <si>
     <t>20412--</t>
@@ -1293,6 +1281,42 @@
   </si>
   <si>
     <t>20365--10871--nc-518</t>
+  </si>
+  <si>
+    <t>20365--4753</t>
+  </si>
+  <si>
+    <t>20372--10876</t>
+  </si>
+  <si>
+    <t>20372--10875</t>
+  </si>
+  <si>
+    <t>20384--10895</t>
+  </si>
+  <si>
+    <t>P-527</t>
+  </si>
+  <si>
+    <t>T-45</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE  251</t>
+  </si>
+  <si>
+    <t>T-50</t>
+  </si>
+  <si>
+    <t>T-51</t>
+  </si>
+  <si>
+    <t>T-52</t>
+  </si>
+  <si>
+    <t>20399-1094</t>
+  </si>
+  <si>
+    <t>20399--10902</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3937,6 +3961,85 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3970,83 +4073,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4076,6 +4107,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4109,12 +4146,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4446,18 +4477,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="513" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="513"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4471,22 +4502,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="487" t="s">
+      <c r="W1" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="488"/>
+      <c r="X1" s="515"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="513"/>
+      <c r="B2" s="513"/>
+      <c r="C2" s="513"/>
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="513"/>
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4540,10 +4571,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="489" t="s">
+      <c r="O3" s="516" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="490"/>
+      <c r="P3" s="517"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5087,7 +5118,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="491" t="s">
+      <c r="C12" s="518" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5151,7 +5182,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="492"/>
+      <c r="C13" s="519"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7153,13 +7184,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="503" t="s">
+      <c r="A56" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="505" t="s">
+      <c r="C56" s="499" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7170,7 +7201,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="497">
+      <c r="H56" s="501">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7199,11 +7230,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="504"/>
+      <c r="A57" s="498"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="506"/>
+      <c r="C57" s="500"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7212,7 +7243,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="498"/>
+      <c r="H57" s="502"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7239,13 +7270,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="503" t="s">
+      <c r="A58" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="505" t="s">
+      <c r="C58" s="499" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7256,7 +7287,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="497">
+      <c r="H58" s="501">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7275,10 +7306,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="499" t="s">
+      <c r="O58" s="503" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="501">
+      <c r="P58" s="524">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7289,11 +7320,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="504"/>
+      <c r="A59" s="498"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="506"/>
+      <c r="C59" s="500"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7302,7 +7333,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="498"/>
+      <c r="H59" s="502"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7319,8 +7350,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="500"/>
-      <c r="P59" s="502"/>
+      <c r="O59" s="504"/>
+      <c r="P59" s="525"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7329,13 +7360,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="495" t="s">
+      <c r="A60" s="522" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="493" t="s">
+      <c r="C60" s="520" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7349,7 +7380,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="497">
+      <c r="H60" s="501">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7368,10 +7399,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="499" t="s">
+      <c r="O60" s="503" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="501">
+      <c r="P60" s="524">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7384,11 +7415,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="496"/>
+      <c r="A61" s="523"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="494"/>
+      <c r="C61" s="521"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7400,7 +7431,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="498"/>
+      <c r="H61" s="502"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7417,8 +7448,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="500"/>
-      <c r="P61" s="502"/>
+      <c r="O61" s="504"/>
+      <c r="P61" s="525"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7484,7 +7515,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="519"/>
+      <c r="C63" s="491"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7492,7 +7523,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="521"/>
+      <c r="H63" s="493"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7521,7 +7552,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="520"/>
+      <c r="C64" s="492"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7529,7 +7560,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="522"/>
+      <c r="H64" s="494"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7707,8 +7738,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="511"/>
-      <c r="P68" s="517"/>
+      <c r="O68" s="495"/>
+      <c r="P68" s="489"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7742,8 +7773,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="512"/>
-      <c r="P69" s="518"/>
+      <c r="O69" s="496"/>
+      <c r="P69" s="490"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8233,8 +8264,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="511"/>
-      <c r="P82" s="513"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8266,8 +8297,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="512"/>
-      <c r="P83" s="514"/>
+      <c r="O83" s="496"/>
+      <c r="P83" s="510"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8299,8 +8330,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="511"/>
-      <c r="P84" s="513"/>
+      <c r="O84" s="495"/>
+      <c r="P84" s="509"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8332,8 +8363,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="512"/>
-      <c r="P85" s="514"/>
+      <c r="O85" s="496"/>
+      <c r="P85" s="510"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8491,8 +8522,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="515"/>
-      <c r="M90" s="516"/>
+      <c r="L90" s="511"/>
+      <c r="M90" s="512"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8524,8 +8555,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="515"/>
-      <c r="M91" s="516"/>
+      <c r="L91" s="511"/>
+      <c r="M91" s="512"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8728,8 +8759,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="511"/>
-      <c r="P97" s="507"/>
+      <c r="O97" s="495"/>
+      <c r="P97" s="505"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8761,8 +8792,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="512"/>
-      <c r="P98" s="508"/>
+      <c r="O98" s="496"/>
+      <c r="P98" s="506"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14154,11 +14185,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="509" t="s">
+      <c r="F262" s="507" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="509"/>
-      <c r="H262" s="510"/>
+      <c r="G262" s="507"/>
+      <c r="H262" s="508"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14732,22 +14763,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14761,6 +14776,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14804,49 +14835,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="513" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="513"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="529" t="s">
+      <c r="S1" s="532" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="529"/>
+      <c r="T1" s="532"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="487" t="s">
+      <c r="W1" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="488"/>
+      <c r="X1" s="515"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="513"/>
+      <c r="B2" s="513"/>
+      <c r="C2" s="513"/>
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="513"/>
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14854,8 +14885,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="530"/>
-      <c r="T2" s="530"/>
+      <c r="S2" s="533"/>
+      <c r="T2" s="533"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14900,10 +14931,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="489" t="s">
+      <c r="O3" s="516" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="490"/>
+      <c r="P3" s="517"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17539,13 +17570,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="531" t="s">
+      <c r="A55" s="534" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="505" t="s">
+      <c r="C55" s="499" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17556,7 +17587,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="521" t="s">
+      <c r="H55" s="493" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17585,11 +17616,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="532"/>
+      <c r="A56" s="535"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="506"/>
+      <c r="C56" s="500"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17598,7 +17629,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="522"/>
+      <c r="H56" s="494"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17627,13 +17658,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="523" t="s">
+      <c r="A57" s="526" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="525" t="s">
+      <c r="C57" s="528" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -17644,7 +17675,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="521" t="s">
+      <c r="H57" s="493" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17663,10 +17694,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="511" t="s">
+      <c r="O57" s="495" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="517">
+      <c r="P57" s="489">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17677,11 +17708,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="524"/>
+      <c r="A58" s="527"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="526"/>
+      <c r="C58" s="529"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17690,7 +17721,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="522"/>
+      <c r="H58" s="494"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17707,8 +17738,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="527"/>
-      <c r="P58" s="528"/>
+      <c r="O58" s="530"/>
+      <c r="P58" s="531"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17734,7 +17765,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="521" t="s">
+      <c r="H59" s="493" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17778,7 +17809,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="522"/>
+      <c r="H60" s="494"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18441,8 +18472,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="511"/>
-      <c r="P79" s="513"/>
+      <c r="O79" s="495"/>
+      <c r="P79" s="509"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18471,8 +18502,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="512"/>
-      <c r="P80" s="514"/>
+      <c r="O80" s="496"/>
+      <c r="P80" s="510"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18501,8 +18532,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="511"/>
-      <c r="P81" s="513"/>
+      <c r="O81" s="495"/>
+      <c r="P81" s="509"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18534,8 +18565,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="512"/>
-      <c r="P82" s="514"/>
+      <c r="O82" s="496"/>
+      <c r="P82" s="510"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18693,8 +18724,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="515"/>
-      <c r="M87" s="516"/>
+      <c r="L87" s="511"/>
+      <c r="M87" s="512"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18726,8 +18757,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="515"/>
-      <c r="M88" s="516"/>
+      <c r="L88" s="511"/>
+      <c r="M88" s="512"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18930,8 +18961,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="511"/>
-      <c r="P94" s="507"/>
+      <c r="O94" s="495"/>
+      <c r="P94" s="505"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18963,8 +18994,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="512"/>
-      <c r="P95" s="508"/>
+      <c r="O95" s="496"/>
+      <c r="P95" s="506"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24356,11 +24387,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="509" t="s">
+      <c r="F259" s="507" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="509"/>
-      <c r="H259" s="510"/>
+      <c r="G259" s="507"/>
+      <c r="H259" s="508"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24934,6 +24965,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -24949,12 +24986,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24969,10 +25000,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25001,49 +25032,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="513" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="513"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="529" t="s">
+      <c r="S1" s="532" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="529"/>
+      <c r="T1" s="532"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="487" t="s">
+      <c r="W1" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="488"/>
+      <c r="X1" s="515"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="513"/>
+      <c r="B2" s="513"/>
+      <c r="C2" s="513"/>
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="513"/>
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25051,8 +25082,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="530"/>
-      <c r="T2" s="530"/>
+      <c r="S2" s="533"/>
+      <c r="T2" s="533"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -25097,10 +25128,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="489" t="s">
+      <c r="O3" s="516" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="490"/>
+      <c r="P3" s="517"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -26569,7 +26600,7 @@
         <v>226</v>
       </c>
       <c r="U23" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V23" s="481">
         <v>4640</v>
@@ -26642,7 +26673,7 @@
         <v>226</v>
       </c>
       <c r="U24" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V24" s="481">
         <v>0</v>
@@ -26715,7 +26746,7 @@
         <v>228</v>
       </c>
       <c r="U25" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V25" s="481">
         <v>4640</v>
@@ -26788,7 +26819,7 @@
         <v>228</v>
       </c>
       <c r="U26" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V26" s="481">
         <v>0</v>
@@ -26861,7 +26892,7 @@
         <v>262</v>
       </c>
       <c r="U27" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V27" s="481">
         <v>4640</v>
@@ -26934,7 +26965,7 @@
         <v>262</v>
       </c>
       <c r="U28" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V28" s="481">
         <v>0</v>
@@ -27008,7 +27039,7 @@
         <v>261</v>
       </c>
       <c r="U29" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V29" s="481">
         <v>4640</v>
@@ -27081,7 +27112,7 @@
         <v>261</v>
       </c>
       <c r="U30" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V30" s="481">
         <v>0</v>
@@ -27154,7 +27185,7 @@
         <v>260</v>
       </c>
       <c r="U31" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V31" s="481">
         <v>4640</v>
@@ -27227,7 +27258,7 @@
         <v>260</v>
       </c>
       <c r="U32" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V32" s="481">
         <v>0</v>
@@ -27301,7 +27332,7 @@
         <v>259</v>
       </c>
       <c r="U33" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V33" s="481">
         <v>4640</v>
@@ -27374,7 +27405,7 @@
         <v>259</v>
       </c>
       <c r="U34" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V34" s="481">
         <v>0</v>
@@ -27447,7 +27478,7 @@
         <v>249</v>
       </c>
       <c r="U35" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V35" s="481">
         <v>4640</v>
@@ -27520,7 +27551,7 @@
         <v>249</v>
       </c>
       <c r="U36" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V36" s="481">
         <v>0</v>
@@ -27593,7 +27624,7 @@
         <v>271</v>
       </c>
       <c r="U37" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V37" s="481">
         <v>4640</v>
@@ -27666,7 +27697,7 @@
         <v>271</v>
       </c>
       <c r="U38" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V38" s="481">
         <v>0</v>
@@ -27739,7 +27770,7 @@
         <v>304</v>
       </c>
       <c r="U39" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V39" s="481">
         <v>4640</v>
@@ -27812,7 +27843,7 @@
         <v>304</v>
       </c>
       <c r="U40" s="480" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V40" s="481">
         <v>0</v>
@@ -28308,13 +28339,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="531" t="s">
+      <c r="A55" s="534" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="505" t="s">
+      <c r="C55" s="499" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28325,7 +28356,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="534" t="s">
+      <c r="H55" s="539" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28344,10 +28375,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="511" t="s">
+      <c r="O55" s="495" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="517">
+      <c r="P55" s="489">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28358,11 +28389,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="533"/>
+      <c r="A56" s="538"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="506"/>
+      <c r="C56" s="500"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28371,7 +28402,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="535"/>
+      <c r="H56" s="540"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28388,8 +28419,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="512"/>
-      <c r="P56" s="518"/>
+      <c r="O56" s="496"/>
+      <c r="P56" s="490"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28450,13 +28481,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="495" t="s">
+      <c r="A58" s="522" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="544" t="s">
+      <c r="C58" s="536" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28467,7 +28498,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="542" t="s">
+      <c r="H58" s="547" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28486,10 +28517,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="499" t="s">
+      <c r="O58" s="503" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="501">
+      <c r="P58" s="524">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28500,11 +28531,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="496"/>
+      <c r="A59" s="523"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="545"/>
+      <c r="C59" s="537"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28513,7 +28544,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="543"/>
+      <c r="H59" s="548"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28530,8 +28561,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="500"/>
-      <c r="P59" s="502"/>
+      <c r="O59" s="504"/>
+      <c r="P59" s="525"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28604,13 +28635,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="536" t="s">
+      <c r="A62" s="541" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="538" t="s">
+      <c r="C62" s="543" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28621,7 +28652,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="540">
+      <c r="H62" s="545">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28640,10 +28671,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="511" t="s">
+      <c r="O62" s="495" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="517">
+      <c r="P62" s="489">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28654,11 +28685,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="537"/>
+      <c r="A63" s="542"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="539"/>
+      <c r="C63" s="544"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28667,7 +28698,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="541"/>
+      <c r="H63" s="546"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28684,8 +28715,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="512"/>
-      <c r="P63" s="518"/>
+      <c r="O63" s="496"/>
+      <c r="P63" s="490"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29164,8 +29195,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="511"/>
-      <c r="P79" s="513"/>
+      <c r="O79" s="495"/>
+      <c r="P79" s="509"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29194,8 +29225,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="512"/>
-      <c r="P80" s="514"/>
+      <c r="O80" s="496"/>
+      <c r="P80" s="510"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29224,8 +29255,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="511"/>
-      <c r="P81" s="513"/>
+      <c r="O81" s="495"/>
+      <c r="P81" s="509"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29257,8 +29288,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="512"/>
-      <c r="P82" s="514"/>
+      <c r="O82" s="496"/>
+      <c r="P82" s="510"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29416,8 +29447,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="515"/>
-      <c r="M87" s="516"/>
+      <c r="L87" s="511"/>
+      <c r="M87" s="512"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29449,8 +29480,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="515"/>
-      <c r="M88" s="516"/>
+      <c r="L88" s="511"/>
+      <c r="M88" s="512"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29653,8 +29684,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="511"/>
-      <c r="P94" s="507"/>
+      <c r="O94" s="495"/>
+      <c r="P94" s="505"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29686,8 +29717,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="512"/>
-      <c r="P95" s="508"/>
+      <c r="O95" s="496"/>
+      <c r="P95" s="506"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35079,11 +35110,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="509" t="s">
+      <c r="F259" s="507" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="509"/>
-      <c r="H259" s="510"/>
+      <c r="G259" s="507"/>
+      <c r="H259" s="508"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35657,17 +35688,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35684,6 +35704,17 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35698,10 +35729,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="P25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35730,49 +35761,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="513" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="513"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="529" t="s">
+      <c r="S1" s="532" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="529"/>
+      <c r="T1" s="532"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="487" t="s">
+      <c r="W1" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="488"/>
+      <c r="X1" s="515"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="513"/>
+      <c r="B2" s="513"/>
+      <c r="C2" s="513"/>
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="513"/>
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35780,8 +35811,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="530"/>
-      <c r="T2" s="530"/>
+      <c r="S2" s="533"/>
+      <c r="T2" s="533"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -35826,10 +35857,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="489" t="s">
+      <c r="O3" s="516" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="490"/>
+      <c r="P3" s="517"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -35913,8 +35944,12 @@
       </c>
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="56"/>
+      <c r="W4" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="X4" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
@@ -35978,8 +36013,12 @@
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="69"/>
+      <c r="W5" s="68" t="s">
+        <v>417</v>
+      </c>
+      <c r="X5" s="69">
+        <v>4176</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
@@ -36043,8 +36082,12 @@
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="70"/>
+      <c r="W6" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X6" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
@@ -36108,8 +36151,12 @@
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="70"/>
+      <c r="W7" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X7" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
@@ -36173,8 +36220,12 @@
       </c>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="70"/>
+      <c r="W8" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X8" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71" t="s">
@@ -36238,8 +36289,12 @@
       </c>
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="70"/>
+      <c r="W9" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X9" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71" t="s">
@@ -36303,8 +36358,12 @@
       </c>
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="70"/>
+      <c r="W10" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X10" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
@@ -36368,8 +36427,12 @@
       </c>
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="70"/>
+      <c r="W11" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X11" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="71" t="s">
@@ -36429,8 +36492,12 @@
       <c r="T12" s="52"/>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="70"/>
+      <c r="W12" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X12" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
@@ -36490,8 +36557,12 @@
       <c r="T13" s="52"/>
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="70"/>
+      <c r="W13" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X13" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
@@ -36517,7 +36588,7 @@
         <v>44661</v>
       </c>
       <c r="H14" s="410" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I14" s="411">
         <v>22455</v>
@@ -36551,8 +36622,12 @@
       <c r="T14" s="52"/>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="70"/>
+      <c r="W14" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X14" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
@@ -36578,7 +36653,7 @@
         <v>44661</v>
       </c>
       <c r="H15" s="410" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I15" s="411">
         <v>6355</v>
@@ -36612,8 +36687,12 @@
       <c r="T15" s="92"/>
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="70"/>
+      <c r="W15" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X15" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
@@ -36639,7 +36718,7 @@
         <v>44662</v>
       </c>
       <c r="H16" s="410" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I16" s="411">
         <v>21410</v>
@@ -36673,8 +36752,12 @@
       <c r="T16" s="92"/>
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="70"/>
+      <c r="W16" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X16" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="17" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
@@ -36700,7 +36783,7 @@
         <v>44662</v>
       </c>
       <c r="H17" s="410" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I17" s="411">
         <f>5815-116.3</f>
@@ -36735,11 +36818,15 @@
       <c r="T17" s="92"/>
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="70"/>
+      <c r="W17" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X17" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="467" t="s">
+      <c r="A18" s="486" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -36796,8 +36883,12 @@
       <c r="T18" s="92"/>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="70"/>
+      <c r="W18" s="488" t="s">
+        <v>220</v>
+      </c>
+      <c r="X18" s="487">
+        <v>4176</v>
+      </c>
     </row>
     <row r="19" spans="1:24" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
@@ -36823,7 +36914,7 @@
         <v>44664</v>
       </c>
       <c r="H19" s="410" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I19" s="411">
         <f>24990-1124.55</f>
@@ -36862,8 +36953,12 @@
       </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="70"/>
+      <c r="W19" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X19" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="80" t="s">
@@ -36889,7 +36984,7 @@
         <v>44664</v>
       </c>
       <c r="H20" s="410" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I20" s="411">
         <v>5695</v>
@@ -36927,8 +37022,12 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="70"/>
+      <c r="W20" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X20" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
@@ -36954,7 +37053,7 @@
         <v>44665</v>
       </c>
       <c r="H21" s="410" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I21" s="411">
         <v>22950</v>
@@ -36992,8 +37091,12 @@
       </c>
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="70"/>
+      <c r="W21" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X21" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="22" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
@@ -37019,7 +37122,7 @@
         <v>44665</v>
       </c>
       <c r="H22" s="410" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I22" s="411">
         <v>5715</v>
@@ -37057,8 +37160,12 @@
       </c>
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="70"/>
+      <c r="W22" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X22" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
@@ -37084,7 +37191,7 @@
         <v>44668</v>
       </c>
       <c r="H23" s="410" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I23" s="411">
         <f>23990-119.95</f>
@@ -37123,8 +37230,12 @@
       </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="70"/>
+      <c r="W23" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X23" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="24" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
@@ -37150,7 +37261,7 @@
         <v>44668</v>
       </c>
       <c r="H24" s="410" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I24" s="411">
         <f>6665-133.3</f>
@@ -37189,8 +37300,12 @@
       </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="70"/>
+      <c r="W24" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X24" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71" t="s">
@@ -37216,7 +37331,7 @@
         <v>44670</v>
       </c>
       <c r="H25" s="446" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I25" s="411">
         <v>24940</v>
@@ -37254,8 +37369,12 @@
       </c>
       <c r="U25" s="53"/>
       <c r="V25" s="54"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="70"/>
+      <c r="W25" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X25" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="26" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
@@ -37281,7 +37400,7 @@
         <v>44670</v>
       </c>
       <c r="H26" s="446" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I26" s="411">
         <f>6390-130.41</f>
@@ -37320,8 +37439,12 @@
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="54"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="70"/>
+      <c r="W26" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X26" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:24" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
@@ -37331,7 +37454,7 @@
         <v>72</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D27" s="60">
         <v>50</v>
@@ -37347,7 +37470,7 @@
         <v>44672</v>
       </c>
       <c r="H27" s="446" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I27" s="411">
         <f>22650-113.25</f>
@@ -37382,12 +37505,16 @@
         <v>11200</v>
       </c>
       <c r="T27" s="92" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="70"/>
+      <c r="W27" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X27" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="28" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="82" t="s">
@@ -37397,7 +37524,7 @@
         <v>296</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D28" s="60">
         <v>50</v>
@@ -37413,7 +37540,7 @@
         <v>44672</v>
       </c>
       <c r="H28" s="446" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="I28" s="411">
         <v>5655</v>
@@ -37431,8 +37558,12 @@
         <f t="shared" si="1"/>
         <v>200752.5</v>
       </c>
-      <c r="O28" s="417"/>
-      <c r="P28" s="418"/>
+      <c r="O28" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="418">
+        <v>44686</v>
+      </c>
       <c r="Q28" s="66">
         <v>0</v>
       </c>
@@ -37443,14 +37574,18 @@
         <v>0</v>
       </c>
       <c r="T28" s="92" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="70"/>
-    </row>
-    <row r="29" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W28" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X28" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57" t="s">
         <v>30</v>
       </c>
@@ -37458,7 +37593,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D29" s="60">
         <v>50</v>
@@ -37474,7 +37609,7 @@
         <v>44673</v>
       </c>
       <c r="H29" s="446" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="I29" s="411">
         <v>23490</v>
@@ -37492,8 +37627,12 @@
         <f t="shared" si="1"/>
         <v>833895</v>
       </c>
-      <c r="O29" s="417"/>
-      <c r="P29" s="418"/>
+      <c r="O29" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="418">
+        <v>44687</v>
+      </c>
       <c r="Q29" s="456">
         <v>26900</v>
       </c>
@@ -37504,14 +37643,18 @@
         <v>11200</v>
       </c>
       <c r="T29" s="92" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="70"/>
-    </row>
-    <row r="30" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W29" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X29" s="70">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
         <v>126</v>
       </c>
@@ -37519,7 +37662,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D30" s="60">
         <v>50</v>
@@ -37535,7 +37678,7 @@
         <v>44673</v>
       </c>
       <c r="H30" s="446" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="I30" s="411">
         <v>5845</v>
@@ -37553,8 +37696,12 @@
         <f t="shared" si="1"/>
         <v>207497.5</v>
       </c>
-      <c r="O30" s="417"/>
-      <c r="P30" s="418"/>
+      <c r="O30" s="417" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" s="418">
+        <v>44687</v>
+      </c>
       <c r="Q30" s="94">
         <v>0</v>
       </c>
@@ -37565,12 +37712,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="92" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="70"/>
+      <c r="W30" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X30" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
@@ -37580,7 +37731,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D31" s="60">
         <v>50</v>
@@ -37596,7 +37747,7 @@
         <v>44676</v>
       </c>
       <c r="H31" s="446" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I31" s="411">
         <v>24350</v>
@@ -37626,18 +37777,22 @@
       <c r="T31" s="92"/>
       <c r="U31" s="53"/>
       <c r="V31" s="54"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="70"/>
-    </row>
-    <row r="32" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W31" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X31" s="70">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B32" s="93" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D32" s="60">
         <v>50</v>
@@ -37653,7 +37808,7 @@
         <v>44676</v>
       </c>
       <c r="H32" s="446" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="I32" s="411">
         <v>5985</v>
@@ -37671,8 +37826,12 @@
         <f t="shared" si="1"/>
         <v>212467.5</v>
       </c>
-      <c r="O32" s="417"/>
-      <c r="P32" s="418"/>
+      <c r="O32" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="418">
+        <v>44690</v>
+      </c>
       <c r="Q32" s="94">
         <v>0</v>
       </c>
@@ -37683,8 +37842,12 @@
       <c r="T32" s="92"/>
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="70"/>
+      <c r="W32" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X32" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="83" t="s">
@@ -37694,7 +37857,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D33" s="60">
         <v>50</v>
@@ -37710,7 +37873,7 @@
         <v>44678</v>
       </c>
       <c r="H33" s="446" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="I33" s="411">
         <v>22560</v>
@@ -37728,8 +37891,12 @@
         <f t="shared" si="1"/>
         <v>800880</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="418"/>
+      <c r="O33" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="418">
+        <v>44692</v>
+      </c>
       <c r="Q33" s="94">
         <v>26900</v>
       </c>
@@ -37740,14 +37907,18 @@
         <v>11200</v>
       </c>
       <c r="T33" s="92" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="U33" s="53"/>
       <c r="V33" s="54"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="70"/>
-    </row>
-    <row r="34" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W33" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X33" s="70">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="82" t="s">
         <v>50</v>
       </c>
@@ -37755,7 +37926,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D34" s="60">
         <v>50</v>
@@ -37771,7 +37942,7 @@
         <v>44678</v>
       </c>
       <c r="H34" s="446" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="I34" s="411">
         <v>5700</v>
@@ -37789,8 +37960,12 @@
         <f t="shared" si="1"/>
         <v>202350</v>
       </c>
-      <c r="O34" s="417"/>
-      <c r="P34" s="418"/>
+      <c r="O34" s="417" t="s">
+        <v>215</v>
+      </c>
+      <c r="P34" s="418">
+        <v>44692</v>
+      </c>
       <c r="Q34" s="94">
         <v>0</v>
       </c>
@@ -37801,12 +37976,16 @@
         <v>0</v>
       </c>
       <c r="T34" s="92" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="U34" s="53"/>
       <c r="V34" s="54"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="70"/>
+      <c r="W34" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X34" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="82" t="s">
@@ -37816,7 +37995,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D35" s="60">
         <v>50</v>
@@ -37832,7 +38011,7 @@
         <v>44680</v>
       </c>
       <c r="H35" s="446" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I35" s="411">
         <v>22930</v>
@@ -37862,12 +38041,16 @@
         <v>11200</v>
       </c>
       <c r="T35" s="92" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="U35" s="53"/>
       <c r="V35" s="54"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="70"/>
+      <c r="W35" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X35" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="57" t="s">
@@ -37877,7 +38060,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="40">
@@ -37891,7 +38074,7 @@
         <v>44680</v>
       </c>
       <c r="H36" s="446" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I36" s="411">
         <v>5885</v>
@@ -37921,12 +38104,16 @@
         <v>0</v>
       </c>
       <c r="T36" s="92" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="U36" s="53"/>
       <c r="V36" s="54"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="70"/>
+      <c r="W36" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X36" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="71"/>
@@ -37961,7 +38148,9 @@
       <c r="U37" s="53"/>
       <c r="V37" s="54"/>
       <c r="W37" s="53"/>
-      <c r="X37" s="106"/>
+      <c r="X37" s="106">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="71"/>
@@ -37996,7 +38185,10 @@
       <c r="U38" s="53"/>
       <c r="V38" s="54"/>
       <c r="W38" s="53"/>
-      <c r="X38" s="106"/>
+      <c r="X38" s="106">
+        <f>SUM(X4:X37)</f>
+        <v>70992</v>
+      </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="71"/>
@@ -38860,10 +39052,10 @@
         <v>111</v>
       </c>
       <c r="B63" s="178" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C63" s="476" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
@@ -39376,8 +39568,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="511"/>
-      <c r="P79" s="513"/>
+      <c r="O79" s="495"/>
+      <c r="P79" s="509"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39406,8 +39598,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="512"/>
-      <c r="P80" s="514"/>
+      <c r="O80" s="496"/>
+      <c r="P80" s="510"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39436,8 +39628,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="511"/>
-      <c r="P81" s="513"/>
+      <c r="O81" s="495"/>
+      <c r="P81" s="509"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39469,8 +39661,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="512"/>
-      <c r="P82" s="514"/>
+      <c r="O82" s="496"/>
+      <c r="P82" s="510"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -39628,8 +39820,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="515"/>
-      <c r="M87" s="516"/>
+      <c r="L87" s="511"/>
+      <c r="M87" s="512"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39661,8 +39853,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="515"/>
-      <c r="M88" s="516"/>
+      <c r="L88" s="511"/>
+      <c r="M88" s="512"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39865,8 +40057,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="511"/>
-      <c r="P94" s="507"/>
+      <c r="O94" s="495"/>
+      <c r="P94" s="505"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -39898,8 +40090,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="512"/>
-      <c r="P95" s="508"/>
+      <c r="O95" s="496"/>
+      <c r="P95" s="506"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45291,11 +45483,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="509" t="s">
+      <c r="F259" s="507" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="509"/>
-      <c r="H259" s="510"/>
+      <c r="G259" s="507"/>
+      <c r="H259" s="508"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -45869,18 +46061,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45894,8 +46086,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45924,49 +46119,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="A1" s="513" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="513"/>
+      <c r="C1" s="513"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="529" t="s">
+      <c r="S1" s="532" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="529"/>
+      <c r="T1" s="532"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="487" t="s">
+      <c r="W1" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="488"/>
+      <c r="X1" s="515"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="513"/>
+      <c r="B2" s="513"/>
+      <c r="C2" s="513"/>
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="513"/>
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -45974,8 +46169,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="530"/>
-      <c r="T2" s="530"/>
+      <c r="S2" s="533"/>
+      <c r="T2" s="533"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -46020,10 +46215,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="489" t="s">
+      <c r="O3" s="516" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="490"/>
+      <c r="P3" s="517"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -46080,10 +46275,18 @@
       </c>
       <c r="O4" s="482"/>
       <c r="P4" s="394"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="52"/>
+      <c r="Q4" s="49">
+        <v>21550</v>
+      </c>
+      <c r="R4" s="50">
+        <v>44687</v>
+      </c>
+      <c r="S4" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>418</v>
+      </c>
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
       <c r="W4" s="55"/>
@@ -46124,13 +46327,17 @@
       </c>
       <c r="O5" s="395"/>
       <c r="P5" s="396"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="67"/>
+      <c r="Q5" s="66">
+        <v>21550</v>
+      </c>
+      <c r="R5" s="67">
+        <v>44687</v>
+      </c>
       <c r="S5" s="51">
         <v>11200</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
@@ -46139,7 +46346,7 @@
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>72</v>
@@ -46172,13 +46379,17 @@
       </c>
       <c r="O6" s="395"/>
       <c r="P6" s="396"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="67"/>
+      <c r="Q6" s="66">
+        <v>26900</v>
+      </c>
+      <c r="R6" s="67">
+        <v>44687</v>
+      </c>
       <c r="S6" s="51">
         <v>11200</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
@@ -46220,13 +46431,17 @@
       </c>
       <c r="O7" s="395"/>
       <c r="P7" s="396"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="67"/>
+      <c r="Q7" s="66">
+        <v>0</v>
+      </c>
+      <c r="R7" s="67">
+        <v>44687</v>
+      </c>
       <c r="S7" s="51">
         <v>0</v>
       </c>
       <c r="T7" s="52" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
@@ -46268,13 +46483,17 @@
       </c>
       <c r="O8" s="89"/>
       <c r="P8" s="90"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
+      <c r="Q8" s="66">
+        <v>21443</v>
+      </c>
+      <c r="R8" s="67">
+        <v>44687</v>
+      </c>
       <c r="S8" s="51">
         <v>11200</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
@@ -46282,25 +46501,37 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="1:24" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>290</v>
+      </c>
       <c r="C9" s="59"/>
       <c r="D9" s="60"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="61">
+        <v>21160</v>
+      </c>
+      <c r="G9" s="62">
+        <v>44689</v>
+      </c>
       <c r="H9" s="410"/>
-      <c r="I9" s="411"/>
+      <c r="I9" s="411">
+        <v>20830</v>
+      </c>
       <c r="J9" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="46"/>
+        <v>-330</v>
+      </c>
+      <c r="K9" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L9" s="65"/>
       <c r="M9" s="65"/>
       <c r="N9" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>739465</v>
       </c>
       <c r="O9" s="89"/>
       <c r="P9" s="90"/>
@@ -46314,25 +46545,37 @@
       <c r="X9" s="70"/>
     </row>
     <row r="10" spans="1:24" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="59"/>
       <c r="D10" s="72"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="61">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62">
+        <v>44689</v>
+      </c>
       <c r="H10" s="410"/>
-      <c r="I10" s="411"/>
+      <c r="I10" s="411">
+        <v>5720</v>
+      </c>
       <c r="J10" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="46"/>
+        <v>5720</v>
+      </c>
+      <c r="K10" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L10" s="65"/>
       <c r="M10" s="65"/>
       <c r="N10" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>203060</v>
       </c>
       <c r="O10" s="397"/>
       <c r="P10" s="398"/>
@@ -46346,192 +46589,288 @@
       <c r="X10" s="70"/>
     </row>
     <row r="11" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>290</v>
+      </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
       <c r="E11" s="40"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="F11" s="61">
+        <v>21750</v>
+      </c>
+      <c r="G11" s="62">
+        <v>44691</v>
+      </c>
       <c r="H11" s="410"/>
-      <c r="I11" s="411"/>
+      <c r="I11" s="411">
+        <v>21315</v>
+      </c>
       <c r="J11" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="46"/>
+        <v>-435</v>
+      </c>
+      <c r="K11" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L11" s="65"/>
       <c r="M11" s="65"/>
       <c r="N11" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>756682.5</v>
       </c>
       <c r="O11" s="397"/>
       <c r="P11" s="398"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="67"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="52"/>
+      <c r="S11" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T11" s="52" t="s">
+        <v>420</v>
+      </c>
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
       <c r="W11" s="53"/>
       <c r="X11" s="70"/>
     </row>
     <row r="12" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="431"/>
       <c r="D12" s="60"/>
       <c r="E12" s="40"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="F12" s="61">
+        <v>0</v>
+      </c>
+      <c r="G12" s="62">
+        <v>44691</v>
+      </c>
       <c r="H12" s="410"/>
-      <c r="I12" s="411"/>
+      <c r="I12" s="411">
+        <v>5965</v>
+      </c>
       <c r="J12" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="46"/>
+        <v>5965</v>
+      </c>
+      <c r="K12" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L12" s="65"/>
       <c r="M12" s="65"/>
       <c r="N12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>211757.5</v>
       </c>
       <c r="O12" s="397"/>
       <c r="P12" s="398"/>
       <c r="Q12" s="66"/>
       <c r="R12" s="67"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
+      <c r="S12" s="51">
+        <v>0</v>
+      </c>
+      <c r="T12" s="52" t="s">
+        <v>420</v>
+      </c>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
       <c r="W12" s="53"/>
       <c r="X12" s="70"/>
     </row>
     <row r="13" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C13" s="432"/>
       <c r="D13" s="60"/>
       <c r="E13" s="40"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="F13" s="61">
+        <v>22140</v>
+      </c>
+      <c r="G13" s="62">
+        <v>44693</v>
+      </c>
       <c r="H13" s="410"/>
-      <c r="I13" s="411"/>
+      <c r="I13" s="411">
+        <v>22380</v>
+      </c>
       <c r="J13" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="46"/>
+        <v>240</v>
+      </c>
+      <c r="K13" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L13" s="65"/>
       <c r="M13" s="65"/>
       <c r="N13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>794490</v>
       </c>
       <c r="O13" s="397"/>
       <c r="P13" s="398"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="67"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="52"/>
+      <c r="S13" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T13" s="52" t="s">
+        <v>421</v>
+      </c>
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
       <c r="W13" s="53"/>
       <c r="X13" s="70"/>
     </row>
-    <row r="14" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
-      <c r="B14" s="58"/>
+    <row r="14" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="59"/>
       <c r="D14" s="60"/>
       <c r="E14" s="40"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
+      <c r="F14" s="61">
+        <v>0</v>
+      </c>
+      <c r="G14" s="62">
+        <v>44693</v>
+      </c>
       <c r="H14" s="410"/>
-      <c r="I14" s="411"/>
+      <c r="I14" s="411">
+        <v>5505</v>
+      </c>
       <c r="J14" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="46"/>
+        <v>5505</v>
+      </c>
+      <c r="K14" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L14" s="65"/>
       <c r="M14" s="65"/>
       <c r="N14" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>195427.5</v>
       </c>
       <c r="O14" s="397"/>
       <c r="P14" s="398"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="67"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
+      <c r="S14" s="51">
+        <v>0</v>
+      </c>
+      <c r="T14" s="52" t="s">
+        <v>421</v>
+      </c>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
       <c r="W14" s="53"/>
       <c r="X14" s="70"/>
     </row>
-    <row r="15" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="73"/>
-      <c r="B15" s="58"/>
+    <row r="15" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
       <c r="E15" s="40"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="F15" s="61">
+        <v>23140</v>
+      </c>
+      <c r="G15" s="62">
+        <v>44694</v>
+      </c>
       <c r="H15" s="410"/>
-      <c r="I15" s="411"/>
+      <c r="I15" s="411">
+        <v>23490</v>
+      </c>
       <c r="J15" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="46"/>
+        <v>350</v>
+      </c>
+      <c r="K15" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L15" s="65"/>
       <c r="M15" s="65"/>
       <c r="N15" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>833895</v>
       </c>
       <c r="O15" s="397"/>
       <c r="P15" s="398"/>
       <c r="Q15" s="66"/>
       <c r="R15" s="67"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="92"/>
+      <c r="S15" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T15" s="92" t="s">
+        <v>422</v>
+      </c>
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
       <c r="W15" s="53"/>
       <c r="X15" s="70"/>
     </row>
     <row r="16" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="74"/>
       <c r="D16" s="60"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
+      <c r="F16" s="61">
+        <v>0</v>
+      </c>
+      <c r="G16" s="62">
+        <v>44694</v>
+      </c>
       <c r="H16" s="410"/>
-      <c r="I16" s="411"/>
+      <c r="I16" s="411">
+        <v>5875</v>
+      </c>
       <c r="J16" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="46"/>
+        <v>5875</v>
+      </c>
+      <c r="K16" s="46">
+        <v>35.5</v>
+      </c>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>208562.5</v>
       </c>
       <c r="O16" s="397"/>
       <c r="P16" s="398"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="67"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="92"/>
+      <c r="S16" s="51">
+        <v>0</v>
+      </c>
+      <c r="T16" s="92" t="s">
+        <v>422</v>
+      </c>
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
       <c r="W16" s="53"/>
@@ -47798,7 +48137,7 @@
       </c>
       <c r="C55" s="471"/>
       <c r="D55" s="439" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E55" s="60"/>
       <c r="F55" s="151"/>
@@ -48804,8 +49143,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="515"/>
-      <c r="M87" s="516"/>
+      <c r="L87" s="511"/>
+      <c r="M87" s="512"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -48837,8 +49176,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="515"/>
-      <c r="M88" s="516"/>
+      <c r="L88" s="511"/>
+      <c r="M88" s="512"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49041,8 +49380,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="511"/>
-      <c r="P94" s="507"/>
+      <c r="O94" s="495"/>
+      <c r="P94" s="505"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -49074,8 +49413,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="512"/>
-      <c r="P95" s="508"/>
+      <c r="O95" s="496"/>
+      <c r="P95" s="506"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -54467,14 +54806,14 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="509" t="s">
+      <c r="F259" s="507" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="509"/>
-      <c r="H259" s="510"/>
+      <c r="G259" s="507"/>
+      <c r="H259" s="508"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>96385</v>
+        <v>207465</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -54573,12 +54912,12 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>3421667.5</v>
+        <v>7365007.5</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>0</v>
+        <v>91443</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
@@ -54633,7 +54972,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>3421667.5</v>
+        <v>7456450.5</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="435">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1204,12 +1204,6 @@
     <t>20324--7834</t>
   </si>
   <si>
-    <t>20384--</t>
-  </si>
-  <si>
-    <t>20412--</t>
-  </si>
-  <si>
     <t>T-44</t>
   </si>
   <si>
@@ -1317,6 +1311,42 @@
   </si>
   <si>
     <t>20399--10902</t>
+  </si>
+  <si>
+    <t>20384--10892</t>
+  </si>
+  <si>
+    <t>20412--4763</t>
+  </si>
+  <si>
+    <t>20412--10916</t>
+  </si>
+  <si>
+    <t>T-49</t>
+  </si>
+  <si>
+    <t>20464--</t>
+  </si>
+  <si>
+    <t>20482--</t>
+  </si>
+  <si>
+    <t>20495--</t>
+  </si>
+  <si>
+    <t>20504--</t>
+  </si>
+  <si>
+    <t>20438--</t>
+  </si>
+  <si>
+    <t>20454--</t>
+  </si>
+  <si>
+    <t>20458--</t>
+  </si>
+  <si>
+    <t>20422--10924</t>
   </si>
 </sst>
 </file>
@@ -3968,78 +3998,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4073,11 +4031,83 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4107,12 +4137,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4146,6 +4170,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4477,18 +4507,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="489" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
+      <c r="F1" s="489"/>
+      <c r="G1" s="489"/>
+      <c r="H1" s="489"/>
+      <c r="I1" s="489"/>
+      <c r="J1" s="489"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4502,22 +4532,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="514" t="s">
+      <c r="W1" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="515"/>
+      <c r="X1" s="491"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="513"/>
-      <c r="B2" s="513"/>
-      <c r="C2" s="513"/>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513"/>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513"/>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513"/>
-      <c r="J2" s="513"/>
+      <c r="A2" s="489"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489"/>
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
+      <c r="J2" s="489"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4571,10 +4601,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="516" t="s">
+      <c r="O3" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="517"/>
+      <c r="P3" s="493"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5118,7 +5148,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="518" t="s">
+      <c r="C12" s="494" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5182,7 +5212,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="519"/>
+      <c r="C13" s="495"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7184,13 +7214,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="497" t="s">
+      <c r="A56" s="506" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="499" t="s">
+      <c r="C56" s="508" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7201,7 +7231,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="501">
+      <c r="H56" s="500">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7230,11 +7260,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="498"/>
+      <c r="A57" s="507"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="500"/>
+      <c r="C57" s="509"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7243,7 +7273,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="502"/>
+      <c r="H57" s="501"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7270,13 +7300,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="497" t="s">
+      <c r="A58" s="506" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="499" t="s">
+      <c r="C58" s="508" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7287,7 +7317,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="501">
+      <c r="H58" s="500">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7306,10 +7336,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="503" t="s">
+      <c r="O58" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="524">
+      <c r="P58" s="504">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7320,11 +7350,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="498"/>
+      <c r="A59" s="507"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="500"/>
+      <c r="C59" s="509"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7333,7 +7363,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="502"/>
+      <c r="H59" s="501"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7350,8 +7380,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="504"/>
-      <c r="P59" s="525"/>
+      <c r="O59" s="503"/>
+      <c r="P59" s="505"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7360,13 +7390,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="522" t="s">
+      <c r="A60" s="498" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="520" t="s">
+      <c r="C60" s="496" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7380,7 +7410,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="501">
+      <c r="H60" s="500">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7399,10 +7429,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="503" t="s">
+      <c r="O60" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="524">
+      <c r="P60" s="504">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7415,11 +7445,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="523"/>
+      <c r="A61" s="499"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="521"/>
+      <c r="C61" s="497"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7431,7 +7461,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="502"/>
+      <c r="H61" s="501"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7448,8 +7478,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="504"/>
-      <c r="P61" s="525"/>
+      <c r="O61" s="503"/>
+      <c r="P61" s="505"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7515,7 +7545,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="491"/>
+      <c r="C63" s="522"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7523,7 +7553,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="493"/>
+      <c r="H63" s="524"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7552,7 +7582,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="492"/>
+      <c r="C64" s="523"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7560,7 +7590,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="494"/>
+      <c r="H64" s="525"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7738,8 +7768,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="495"/>
-      <c r="P68" s="489"/>
+      <c r="O68" s="514"/>
+      <c r="P68" s="520"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7773,8 +7803,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="496"/>
-      <c r="P69" s="490"/>
+      <c r="O69" s="515"/>
+      <c r="P69" s="521"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8264,8 +8294,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8297,8 +8327,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="496"/>
-      <c r="P83" s="510"/>
+      <c r="O83" s="515"/>
+      <c r="P83" s="517"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8330,8 +8360,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="495"/>
-      <c r="P84" s="509"/>
+      <c r="O84" s="514"/>
+      <c r="P84" s="516"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8363,8 +8393,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="496"/>
-      <c r="P85" s="510"/>
+      <c r="O85" s="515"/>
+      <c r="P85" s="517"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8522,8 +8552,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="511"/>
-      <c r="M90" s="512"/>
+      <c r="L90" s="518"/>
+      <c r="M90" s="519"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8555,8 +8585,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="511"/>
-      <c r="M91" s="512"/>
+      <c r="L91" s="518"/>
+      <c r="M91" s="519"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8759,8 +8789,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="495"/>
-      <c r="P97" s="505"/>
+      <c r="O97" s="514"/>
+      <c r="P97" s="510"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8792,8 +8822,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="496"/>
-      <c r="P98" s="506"/>
+      <c r="O98" s="515"/>
+      <c r="P98" s="511"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14185,11 +14215,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="507" t="s">
+      <c r="F262" s="512" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="507"/>
-      <c r="H262" s="508"/>
+      <c r="G262" s="512"/>
+      <c r="H262" s="513"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14763,6 +14793,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14776,22 +14822,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14835,18 +14865,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="489" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
+      <c r="F1" s="489"/>
+      <c r="G1" s="489"/>
+      <c r="H1" s="489"/>
+      <c r="I1" s="489"/>
+      <c r="J1" s="489"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14862,22 +14892,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="514" t="s">
+      <c r="W1" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="515"/>
+      <c r="X1" s="491"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="513"/>
-      <c r="B2" s="513"/>
-      <c r="C2" s="513"/>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513"/>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513"/>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513"/>
-      <c r="J2" s="513"/>
+      <c r="A2" s="489"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489"/>
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
+      <c r="J2" s="489"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14931,10 +14961,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="516" t="s">
+      <c r="O3" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="517"/>
+      <c r="P3" s="493"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17576,7 +17606,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="499" t="s">
+      <c r="C55" s="508" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17587,7 +17617,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="493" t="s">
+      <c r="H55" s="524" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17620,7 +17650,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="500"/>
+      <c r="C56" s="509"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17629,7 +17659,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="494"/>
+      <c r="H56" s="525"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17675,7 +17705,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="493" t="s">
+      <c r="H57" s="524" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17694,10 +17724,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="495" t="s">
+      <c r="O57" s="514" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="489">
+      <c r="P57" s="520">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17721,7 +17751,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="494"/>
+      <c r="H58" s="525"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17765,7 +17795,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="493" t="s">
+      <c r="H59" s="524" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17809,7 +17839,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="494"/>
+      <c r="H60" s="525"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18472,8 +18502,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="495"/>
-      <c r="P79" s="509"/>
+      <c r="O79" s="514"/>
+      <c r="P79" s="516"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18502,8 +18532,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="496"/>
-      <c r="P80" s="510"/>
+      <c r="O80" s="515"/>
+      <c r="P80" s="517"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18532,8 +18562,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="495"/>
-      <c r="P81" s="509"/>
+      <c r="O81" s="514"/>
+      <c r="P81" s="516"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18565,8 +18595,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="496"/>
-      <c r="P82" s="510"/>
+      <c r="O82" s="515"/>
+      <c r="P82" s="517"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18724,8 +18754,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="511"/>
-      <c r="M87" s="512"/>
+      <c r="L87" s="518"/>
+      <c r="M87" s="519"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18757,8 +18787,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="511"/>
-      <c r="M88" s="512"/>
+      <c r="L88" s="518"/>
+      <c r="M88" s="519"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18961,8 +18991,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="495"/>
-      <c r="P94" s="505"/>
+      <c r="O94" s="514"/>
+      <c r="P94" s="510"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18994,8 +19024,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="496"/>
-      <c r="P95" s="506"/>
+      <c r="O95" s="515"/>
+      <c r="P95" s="511"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24387,11 +24417,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="507" t="s">
+      <c r="F259" s="512" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="507"/>
-      <c r="H259" s="508"/>
+      <c r="G259" s="512"/>
+      <c r="H259" s="513"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24965,12 +24995,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -24986,6 +25010,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25000,10 +25030,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25032,18 +25062,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="489" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
+      <c r="F1" s="489"/>
+      <c r="G1" s="489"/>
+      <c r="H1" s="489"/>
+      <c r="I1" s="489"/>
+      <c r="J1" s="489"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25059,22 +25089,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="514" t="s">
+      <c r="W1" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="515"/>
+      <c r="X1" s="491"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="513"/>
-      <c r="B2" s="513"/>
-      <c r="C2" s="513"/>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513"/>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513"/>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513"/>
-      <c r="J2" s="513"/>
+      <c r="A2" s="489"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489"/>
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
+      <c r="J2" s="489"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25128,10 +25158,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="516" t="s">
+      <c r="O3" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="517"/>
+      <c r="P3" s="493"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -26600,7 +26630,7 @@
         <v>226</v>
       </c>
       <c r="U23" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V23" s="481">
         <v>4640</v>
@@ -26673,7 +26703,7 @@
         <v>226</v>
       </c>
       <c r="U24" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V24" s="481">
         <v>0</v>
@@ -26746,7 +26776,7 @@
         <v>228</v>
       </c>
       <c r="U25" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V25" s="481">
         <v>4640</v>
@@ -26819,7 +26849,7 @@
         <v>228</v>
       </c>
       <c r="U26" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V26" s="481">
         <v>0</v>
@@ -26892,7 +26922,7 @@
         <v>262</v>
       </c>
       <c r="U27" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V27" s="481">
         <v>4640</v>
@@ -26965,7 +26995,7 @@
         <v>262</v>
       </c>
       <c r="U28" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V28" s="481">
         <v>0</v>
@@ -27039,7 +27069,7 @@
         <v>261</v>
       </c>
       <c r="U29" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V29" s="481">
         <v>4640</v>
@@ -27112,7 +27142,7 @@
         <v>261</v>
       </c>
       <c r="U30" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V30" s="481">
         <v>0</v>
@@ -27185,7 +27215,7 @@
         <v>260</v>
       </c>
       <c r="U31" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V31" s="481">
         <v>4640</v>
@@ -27258,7 +27288,7 @@
         <v>260</v>
       </c>
       <c r="U32" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V32" s="481">
         <v>0</v>
@@ -27332,7 +27362,7 @@
         <v>259</v>
       </c>
       <c r="U33" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V33" s="481">
         <v>4640</v>
@@ -27405,7 +27435,7 @@
         <v>259</v>
       </c>
       <c r="U34" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V34" s="481">
         <v>0</v>
@@ -27478,7 +27508,7 @@
         <v>249</v>
       </c>
       <c r="U35" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V35" s="481">
         <v>4640</v>
@@ -27551,7 +27581,7 @@
         <v>249</v>
       </c>
       <c r="U36" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V36" s="481">
         <v>0</v>
@@ -27624,7 +27654,7 @@
         <v>271</v>
       </c>
       <c r="U37" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V37" s="481">
         <v>4640</v>
@@ -27697,7 +27727,7 @@
         <v>271</v>
       </c>
       <c r="U38" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V38" s="481">
         <v>0</v>
@@ -27770,7 +27800,7 @@
         <v>304</v>
       </c>
       <c r="U39" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V39" s="481">
         <v>4640</v>
@@ -27843,7 +27873,7 @@
         <v>304</v>
       </c>
       <c r="U40" s="480" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V40" s="481">
         <v>0</v>
@@ -28345,7 +28375,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="499" t="s">
+      <c r="C55" s="508" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28356,7 +28386,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="539" t="s">
+      <c r="H55" s="537" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28375,10 +28405,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="495" t="s">
+      <c r="O55" s="514" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="489">
+      <c r="P55" s="520">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28389,11 +28419,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="538"/>
+      <c r="A56" s="536"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="500"/>
+      <c r="C56" s="509"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28402,7 +28432,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="540"/>
+      <c r="H56" s="538"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28419,8 +28449,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="496"/>
-      <c r="P56" s="490"/>
+      <c r="O56" s="515"/>
+      <c r="P56" s="521"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28481,13 +28511,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="522" t="s">
+      <c r="A58" s="498" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="536" t="s">
+      <c r="C58" s="547" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28498,7 +28528,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="547" t="s">
+      <c r="H58" s="545" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28517,10 +28547,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="503" t="s">
+      <c r="O58" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="524">
+      <c r="P58" s="504">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28531,11 +28561,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="523"/>
+      <c r="A59" s="499"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="537"/>
+      <c r="C59" s="548"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28544,7 +28574,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="548"/>
+      <c r="H59" s="546"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28561,8 +28591,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="504"/>
-      <c r="P59" s="525"/>
+      <c r="O59" s="503"/>
+      <c r="P59" s="505"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28635,13 +28665,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="541" t="s">
+      <c r="A62" s="539" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="543" t="s">
+      <c r="C62" s="541" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28652,7 +28682,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="545">
+      <c r="H62" s="543">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28671,10 +28701,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="495" t="s">
+      <c r="O62" s="514" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="489">
+      <c r="P62" s="520">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28685,11 +28715,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="542"/>
+      <c r="A63" s="540"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="544"/>
+      <c r="C63" s="542"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28698,7 +28728,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="546"/>
+      <c r="H63" s="544"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28715,8 +28745,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="496"/>
-      <c r="P63" s="490"/>
+      <c r="O63" s="515"/>
+      <c r="P63" s="521"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29195,8 +29225,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="495"/>
-      <c r="P79" s="509"/>
+      <c r="O79" s="514"/>
+      <c r="P79" s="516"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29225,8 +29255,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="496"/>
-      <c r="P80" s="510"/>
+      <c r="O80" s="515"/>
+      <c r="P80" s="517"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29255,8 +29285,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="495"/>
-      <c r="P81" s="509"/>
+      <c r="O81" s="514"/>
+      <c r="P81" s="516"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29288,8 +29318,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="496"/>
-      <c r="P82" s="510"/>
+      <c r="O82" s="515"/>
+      <c r="P82" s="517"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29447,8 +29477,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="511"/>
-      <c r="M87" s="512"/>
+      <c r="L87" s="518"/>
+      <c r="M87" s="519"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29480,8 +29510,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="511"/>
-      <c r="M88" s="512"/>
+      <c r="L88" s="518"/>
+      <c r="M88" s="519"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29684,8 +29714,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="495"/>
-      <c r="P94" s="505"/>
+      <c r="O94" s="514"/>
+      <c r="P94" s="510"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29717,8 +29747,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="496"/>
-      <c r="P95" s="506"/>
+      <c r="O95" s="515"/>
+      <c r="P95" s="511"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35110,11 +35140,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="507" t="s">
+      <c r="F259" s="512" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="507"/>
-      <c r="H259" s="508"/>
+      <c r="G259" s="512"/>
+      <c r="H259" s="513"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35688,6 +35718,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35704,17 +35745,6 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35728,11 +35758,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="P25" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="O25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35761,18 +35791,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="489" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
+      <c r="F1" s="489"/>
+      <c r="G1" s="489"/>
+      <c r="H1" s="489"/>
+      <c r="I1" s="489"/>
+      <c r="J1" s="489"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35788,22 +35818,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="514" t="s">
+      <c r="W1" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="515"/>
+      <c r="X1" s="491"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="513"/>
-      <c r="B2" s="513"/>
-      <c r="C2" s="513"/>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513"/>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513"/>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513"/>
-      <c r="J2" s="513"/>
+      <c r="A2" s="489"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489"/>
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
+      <c r="J2" s="489"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35857,10 +35887,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="516" t="s">
+      <c r="O3" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="517"/>
+      <c r="P3" s="493"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -35945,7 +35975,7 @@
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
       <c r="W4" s="55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X4" s="56">
         <v>0</v>
@@ -36014,7 +36044,7 @@
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
       <c r="W5" s="68" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X5" s="69">
         <v>4176</v>
@@ -36083,7 +36113,7 @@
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
       <c r="W6" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X6" s="70">
         <v>4176</v>
@@ -36152,7 +36182,7 @@
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
       <c r="W7" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X7" s="70">
         <v>0</v>
@@ -36221,7 +36251,7 @@
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
       <c r="W8" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X8" s="70">
         <v>4176</v>
@@ -36290,7 +36320,7 @@
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
       <c r="W9" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X9" s="70">
         <v>0</v>
@@ -36359,7 +36389,7 @@
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
       <c r="W10" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X10" s="70">
         <v>4176</v>
@@ -36428,7 +36458,7 @@
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
       <c r="W11" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X11" s="70">
         <v>0</v>
@@ -36493,7 +36523,7 @@
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
       <c r="W12" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X12" s="70">
         <v>4176</v>
@@ -36558,7 +36588,7 @@
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
       <c r="W13" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X13" s="70">
         <v>0</v>
@@ -36623,7 +36653,7 @@
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
       <c r="W14" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X14" s="70">
         <v>4176</v>
@@ -36688,7 +36718,7 @@
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
       <c r="W15" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X15" s="70">
         <v>0</v>
@@ -36753,7 +36783,7 @@
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
       <c r="W16" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X16" s="70">
         <v>4176</v>
@@ -36819,7 +36849,7 @@
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
       <c r="W17" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X17" s="70">
         <v>0</v>
@@ -36914,7 +36944,7 @@
         <v>44664</v>
       </c>
       <c r="H19" s="410" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I19" s="411">
         <f>24990-1124.55</f>
@@ -36954,7 +36984,7 @@
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
       <c r="W19" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X19" s="70">
         <v>4176</v>
@@ -37023,7 +37053,7 @@
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
       <c r="W20" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X20" s="70">
         <v>0</v>
@@ -37053,7 +37083,7 @@
         <v>44665</v>
       </c>
       <c r="H21" s="410" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I21" s="411">
         <v>22950</v>
@@ -37092,7 +37122,7 @@
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
       <c r="W21" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X21" s="70">
         <v>4176</v>
@@ -37161,7 +37191,7 @@
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
       <c r="W22" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X22" s="70">
         <v>0</v>
@@ -37191,7 +37221,7 @@
         <v>44668</v>
       </c>
       <c r="H23" s="410" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I23" s="411">
         <f>23990-119.95</f>
@@ -37231,7 +37261,7 @@
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
       <c r="W23" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X23" s="70">
         <v>4176</v>
@@ -37261,7 +37291,7 @@
         <v>44668</v>
       </c>
       <c r="H24" s="410" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I24" s="411">
         <f>6665-133.3</f>
@@ -37301,7 +37331,7 @@
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
       <c r="W24" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X24" s="70">
         <v>0</v>
@@ -37331,7 +37361,7 @@
         <v>44670</v>
       </c>
       <c r="H25" s="446" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I25" s="411">
         <v>24940</v>
@@ -37370,7 +37400,7 @@
       <c r="U25" s="53"/>
       <c r="V25" s="54"/>
       <c r="W25" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X25" s="70">
         <v>4176</v>
@@ -37400,7 +37430,7 @@
         <v>44670</v>
       </c>
       <c r="H26" s="446" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I26" s="411">
         <f>6390-130.41</f>
@@ -37440,7 +37470,7 @@
       <c r="U26" s="53"/>
       <c r="V26" s="54"/>
       <c r="W26" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X26" s="70">
         <v>0</v>
@@ -37454,7 +37484,7 @@
         <v>72</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D27" s="60">
         <v>50</v>
@@ -37470,7 +37500,7 @@
         <v>44672</v>
       </c>
       <c r="H27" s="446" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I27" s="411">
         <f>22650-113.25</f>
@@ -37510,7 +37540,7 @@
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
       <c r="W27" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X27" s="70">
         <v>4176</v>
@@ -37524,7 +37554,7 @@
         <v>296</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D28" s="60">
         <v>50</v>
@@ -37540,7 +37570,7 @@
         <v>44672</v>
       </c>
       <c r="H28" s="446" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I28" s="411">
         <v>5655</v>
@@ -37579,7 +37609,7 @@
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
       <c r="W28" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X28" s="70">
         <v>0</v>
@@ -37593,7 +37623,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D29" s="60">
         <v>50</v>
@@ -37609,7 +37639,7 @@
         <v>44673</v>
       </c>
       <c r="H29" s="446" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I29" s="411">
         <v>23490</v>
@@ -37648,7 +37678,7 @@
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
       <c r="W29" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X29" s="70">
         <v>4176</v>
@@ -37662,7 +37692,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D30" s="60">
         <v>50</v>
@@ -37678,7 +37708,7 @@
         <v>44673</v>
       </c>
       <c r="H30" s="446" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I30" s="411">
         <v>5845</v>
@@ -37717,13 +37747,13 @@
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
       <c r="W30" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X30" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
         <v>69</v>
       </c>
@@ -37731,7 +37761,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D31" s="60">
         <v>50</v>
@@ -37747,7 +37777,7 @@
         <v>44676</v>
       </c>
       <c r="H31" s="446" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="I31" s="411">
         <v>24350</v>
@@ -37765,8 +37795,12 @@
         <f t="shared" si="1"/>
         <v>864425</v>
       </c>
-      <c r="O31" s="417"/>
-      <c r="P31" s="418"/>
+      <c r="O31" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="418">
+        <v>44693</v>
+      </c>
       <c r="Q31" s="94">
         <v>26900</v>
       </c>
@@ -37778,7 +37812,7 @@
       <c r="U31" s="53"/>
       <c r="V31" s="54"/>
       <c r="W31" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X31" s="70">
         <v>4176</v>
@@ -37792,7 +37826,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D32" s="60">
         <v>50</v>
@@ -37808,7 +37842,7 @@
         <v>44676</v>
       </c>
       <c r="H32" s="446" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I32" s="411">
         <v>5985</v>
@@ -37843,7 +37877,7 @@
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
       <c r="W32" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X32" s="70">
         <v>0</v>
@@ -37857,7 +37891,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D33" s="60">
         <v>50</v>
@@ -37873,7 +37907,7 @@
         <v>44678</v>
       </c>
       <c r="H33" s="446" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I33" s="411">
         <v>22560</v>
@@ -37912,7 +37946,7 @@
       <c r="U33" s="53"/>
       <c r="V33" s="54"/>
       <c r="W33" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X33" s="70">
         <v>4176</v>
@@ -37926,7 +37960,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D34" s="60">
         <v>50</v>
@@ -37942,7 +37976,7 @@
         <v>44678</v>
       </c>
       <c r="H34" s="446" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I34" s="411">
         <v>5700</v>
@@ -37981,13 +38015,13 @@
       <c r="U34" s="53"/>
       <c r="V34" s="54"/>
       <c r="W34" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X34" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="82" t="s">
         <v>20</v>
       </c>
@@ -37995,7 +38029,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D35" s="60">
         <v>50</v>
@@ -38011,7 +38045,7 @@
         <v>44680</v>
       </c>
       <c r="H35" s="446" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="I35" s="411">
         <v>22930</v>
@@ -38029,8 +38063,12 @@
         <f t="shared" si="1"/>
         <v>814015</v>
       </c>
-      <c r="O35" s="417"/>
-      <c r="P35" s="418"/>
+      <c r="O35" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" s="418">
+        <v>44694</v>
+      </c>
       <c r="Q35" s="94">
         <v>26900</v>
       </c>
@@ -38041,18 +38079,18 @@
         <v>11200</v>
       </c>
       <c r="T35" s="92" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U35" s="53"/>
       <c r="V35" s="54"/>
       <c r="W35" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X35" s="70">
         <v>4176</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="57" t="s">
         <v>223</v>
       </c>
@@ -38060,7 +38098,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="40">
@@ -38074,7 +38112,7 @@
         <v>44680</v>
       </c>
       <c r="H36" s="446" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="I36" s="411">
         <v>5885</v>
@@ -38092,8 +38130,12 @@
         <f t="shared" si="1"/>
         <v>208917.5</v>
       </c>
-      <c r="O36" s="417"/>
-      <c r="P36" s="418"/>
+      <c r="O36" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" s="418">
+        <v>44694</v>
+      </c>
       <c r="Q36" s="94">
         <v>0</v>
       </c>
@@ -38104,12 +38146,12 @@
         <v>0</v>
       </c>
       <c r="T36" s="92" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U36" s="53"/>
       <c r="V36" s="54"/>
       <c r="W36" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X36" s="70">
         <v>0</v>
@@ -39568,8 +39610,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="495"/>
-      <c r="P79" s="509"/>
+      <c r="O79" s="514"/>
+      <c r="P79" s="516"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39598,8 +39640,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="496"/>
-      <c r="P80" s="510"/>
+      <c r="O80" s="515"/>
+      <c r="P80" s="517"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39628,8 +39670,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="495"/>
-      <c r="P81" s="509"/>
+      <c r="O81" s="514"/>
+      <c r="P81" s="516"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39661,8 +39703,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="496"/>
-      <c r="P82" s="510"/>
+      <c r="O82" s="515"/>
+      <c r="P82" s="517"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -39820,8 +39862,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="511"/>
-      <c r="M87" s="512"/>
+      <c r="L87" s="518"/>
+      <c r="M87" s="519"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39853,8 +39895,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="511"/>
-      <c r="M88" s="512"/>
+      <c r="L88" s="518"/>
+      <c r="M88" s="519"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40057,8 +40099,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="495"/>
-      <c r="P94" s="505"/>
+      <c r="O94" s="514"/>
+      <c r="P94" s="510"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40090,8 +40132,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="496"/>
-      <c r="P95" s="506"/>
+      <c r="O95" s="515"/>
+      <c r="P95" s="511"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45483,11 +45525,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="507" t="s">
+      <c r="F259" s="512" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="507"/>
-      <c r="H259" s="508"/>
+      <c r="G259" s="512"/>
+      <c r="H259" s="513"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -46061,18 +46103,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
     <mergeCell ref="F259:H259"/>
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="P81:P82"/>
     <mergeCell ref="L87:M88"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="P94:P95"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46086,11 +46128,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46119,18 +46161,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="513" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
+      <c r="A1" s="489" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
+      <c r="F1" s="489"/>
+      <c r="G1" s="489"/>
+      <c r="H1" s="489"/>
+      <c r="I1" s="489"/>
+      <c r="J1" s="489"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46146,22 +46188,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="514" t="s">
+      <c r="W1" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="515"/>
+      <c r="X1" s="491"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="513"/>
-      <c r="B2" s="513"/>
-      <c r="C2" s="513"/>
-      <c r="D2" s="513"/>
-      <c r="E2" s="513"/>
-      <c r="F2" s="513"/>
-      <c r="G2" s="513"/>
-      <c r="H2" s="513"/>
-      <c r="I2" s="513"/>
-      <c r="J2" s="513"/>
+      <c r="A2" s="489"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489"/>
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
+      <c r="J2" s="489"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46215,10 +46257,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="516" t="s">
+      <c r="O3" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="517"/>
+      <c r="P3" s="493"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -46256,7 +46298,9 @@
       <c r="G4" s="42">
         <v>44682</v>
       </c>
-      <c r="H4" s="485"/>
+      <c r="H4" s="485" t="s">
+        <v>434</v>
+      </c>
       <c r="I4" s="409">
         <v>22390</v>
       </c>
@@ -46273,8 +46317,12 @@
         <f t="shared" ref="N4:N114" si="1">K4*I4</f>
         <v>794845</v>
       </c>
-      <c r="O4" s="482"/>
-      <c r="P4" s="394"/>
+      <c r="O4" s="482" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="394">
+        <v>44697</v>
+      </c>
       <c r="Q4" s="49">
         <v>21550</v>
       </c>
@@ -46285,7 +46333,7 @@
         <v>11200</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
@@ -46308,7 +46356,9 @@
       <c r="G5" s="62">
         <v>44684</v>
       </c>
-      <c r="H5" s="410"/>
+      <c r="H5" s="410" t="s">
+        <v>431</v>
+      </c>
       <c r="I5" s="411">
         <v>23430</v>
       </c>
@@ -46337,7 +46387,7 @@
         <v>11200</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
@@ -46346,7 +46396,7 @@
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>72</v>
@@ -46360,7 +46410,9 @@
       <c r="G6" s="62">
         <v>44686</v>
       </c>
-      <c r="H6" s="410"/>
+      <c r="H6" s="410" t="s">
+        <v>432</v>
+      </c>
       <c r="I6" s="411">
         <v>22940</v>
       </c>
@@ -46389,7 +46441,7 @@
         <v>11200</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
@@ -46412,7 +46464,9 @@
       <c r="G7" s="62">
         <v>44686</v>
       </c>
-      <c r="H7" s="410"/>
+      <c r="H7" s="410" t="s">
+        <v>432</v>
+      </c>
       <c r="I7" s="411">
         <v>5925</v>
       </c>
@@ -46441,7 +46495,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
@@ -46464,7 +46518,9 @@
       <c r="G8" s="62">
         <v>44687</v>
       </c>
-      <c r="H8" s="410"/>
+      <c r="H8" s="410" t="s">
+        <v>433</v>
+      </c>
       <c r="I8" s="411">
         <v>21700</v>
       </c>
@@ -46493,7 +46549,7 @@
         <v>11200</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
@@ -46516,7 +46572,9 @@
       <c r="G9" s="62">
         <v>44689</v>
       </c>
-      <c r="H9" s="410"/>
+      <c r="H9" s="410" t="s">
+        <v>427</v>
+      </c>
       <c r="I9" s="411">
         <v>20830</v>
       </c>
@@ -46535,10 +46593,18 @@
       </c>
       <c r="O9" s="89"/>
       <c r="P9" s="90"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="52"/>
+      <c r="Q9" s="66">
+        <v>26793</v>
+      </c>
+      <c r="R9" s="67">
+        <v>44694</v>
+      </c>
+      <c r="S9" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T9" s="52" t="s">
+        <v>426</v>
+      </c>
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
       <c r="W9" s="53"/>
@@ -46560,7 +46626,9 @@
       <c r="G10" s="62">
         <v>44689</v>
       </c>
-      <c r="H10" s="410"/>
+      <c r="H10" s="410" t="s">
+        <v>427</v>
+      </c>
       <c r="I10" s="411">
         <v>5720</v>
       </c>
@@ -46579,10 +46647,18 @@
       </c>
       <c r="O10" s="397"/>
       <c r="P10" s="398"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="52"/>
+      <c r="Q10" s="66">
+        <v>0</v>
+      </c>
+      <c r="R10" s="67">
+        <v>44694</v>
+      </c>
+      <c r="S10" s="51">
+        <v>0</v>
+      </c>
+      <c r="T10" s="52" t="s">
+        <v>426</v>
+      </c>
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
       <c r="W10" s="53"/>
@@ -46604,7 +46680,9 @@
       <c r="G11" s="62">
         <v>44691</v>
       </c>
-      <c r="H11" s="410"/>
+      <c r="H11" s="410" t="s">
+        <v>428</v>
+      </c>
       <c r="I11" s="411">
         <v>21315</v>
       </c>
@@ -46623,13 +46701,17 @@
       </c>
       <c r="O11" s="397"/>
       <c r="P11" s="398"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67"/>
+      <c r="Q11" s="66">
+        <v>26793</v>
+      </c>
+      <c r="R11" s="67">
+        <v>44694</v>
+      </c>
       <c r="S11" s="51">
         <v>11200</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
@@ -46652,7 +46734,9 @@
       <c r="G12" s="62">
         <v>44691</v>
       </c>
-      <c r="H12" s="410"/>
+      <c r="H12" s="410" t="s">
+        <v>428</v>
+      </c>
       <c r="I12" s="411">
         <v>5965</v>
       </c>
@@ -46671,13 +46755,17 @@
       </c>
       <c r="O12" s="397"/>
       <c r="P12" s="398"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
+      <c r="Q12" s="66">
+        <v>0</v>
+      </c>
+      <c r="R12" s="67">
+        <v>44694</v>
+      </c>
       <c r="S12" s="51">
         <v>0</v>
       </c>
       <c r="T12" s="52" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
@@ -46700,7 +46788,9 @@
       <c r="G13" s="62">
         <v>44693</v>
       </c>
-      <c r="H13" s="410"/>
+      <c r="H13" s="410" t="s">
+        <v>429</v>
+      </c>
       <c r="I13" s="411">
         <v>22380</v>
       </c>
@@ -46719,13 +46809,17 @@
       </c>
       <c r="O13" s="397"/>
       <c r="P13" s="398"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="67"/>
+      <c r="Q13" s="66">
+        <v>26900</v>
+      </c>
+      <c r="R13" s="67">
+        <v>44694</v>
+      </c>
       <c r="S13" s="51">
         <v>11200</v>
       </c>
       <c r="T13" s="52" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
@@ -46748,7 +46842,9 @@
       <c r="G14" s="62">
         <v>44693</v>
       </c>
-      <c r="H14" s="410"/>
+      <c r="H14" s="410" t="s">
+        <v>429</v>
+      </c>
       <c r="I14" s="411">
         <v>5505</v>
       </c>
@@ -46767,13 +46863,17 @@
       </c>
       <c r="O14" s="397"/>
       <c r="P14" s="398"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="67"/>
+      <c r="Q14" s="66">
+        <v>0</v>
+      </c>
+      <c r="R14" s="67">
+        <v>44694</v>
+      </c>
       <c r="S14" s="51">
         <v>0</v>
       </c>
       <c r="T14" s="52" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
@@ -46782,7 +46882,7 @@
     </row>
     <row r="15" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>72</v>
@@ -46796,7 +46896,9 @@
       <c r="G15" s="62">
         <v>44694</v>
       </c>
-      <c r="H15" s="410"/>
+      <c r="H15" s="410" t="s">
+        <v>430</v>
+      </c>
       <c r="I15" s="411">
         <v>23490</v>
       </c>
@@ -46815,13 +46917,17 @@
       </c>
       <c r="O15" s="397"/>
       <c r="P15" s="398"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="67"/>
+      <c r="Q15" s="66">
+        <v>27007</v>
+      </c>
+      <c r="R15" s="67">
+        <v>44694</v>
+      </c>
       <c r="S15" s="51">
         <v>11200</v>
       </c>
       <c r="T15" s="92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
@@ -46844,7 +46950,9 @@
       <c r="G16" s="62">
         <v>44694</v>
       </c>
-      <c r="H16" s="410"/>
+      <c r="H16" s="410" t="s">
+        <v>430</v>
+      </c>
       <c r="I16" s="411">
         <v>5875</v>
       </c>
@@ -46863,13 +46971,17 @@
       </c>
       <c r="O16" s="397"/>
       <c r="P16" s="398"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="67"/>
+      <c r="Q16" s="66">
+        <v>0</v>
+      </c>
+      <c r="R16" s="67">
+        <v>44694</v>
+      </c>
       <c r="S16" s="51">
         <v>0</v>
       </c>
       <c r="T16" s="92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
@@ -48137,7 +48249,7 @@
       </c>
       <c r="C55" s="471"/>
       <c r="D55" s="439" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E55" s="60"/>
       <c r="F55" s="151"/>
@@ -49143,8 +49255,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="511"/>
-      <c r="M87" s="512"/>
+      <c r="L87" s="518"/>
+      <c r="M87" s="519"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49176,8 +49288,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="511"/>
-      <c r="M88" s="512"/>
+      <c r="L88" s="518"/>
+      <c r="M88" s="519"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49380,8 +49492,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="495"/>
-      <c r="P94" s="505"/>
+      <c r="O94" s="514"/>
+      <c r="P94" s="510"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -49413,8 +49525,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="496"/>
-      <c r="P95" s="506"/>
+      <c r="O95" s="515"/>
+      <c r="P95" s="511"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -54806,11 +54918,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="507" t="s">
+      <c r="F259" s="512" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="507"/>
-      <c r="H259" s="508"/>
+      <c r="G259" s="512"/>
+      <c r="H259" s="513"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>207465</v>
@@ -54917,7 +55029,7 @@
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>91443</v>
+        <v>198936</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
@@ -54972,7 +55084,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>7456450.5</v>
+        <v>7563943.5</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="438">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1347,6 +1347,15 @@
   </si>
   <si>
     <t>20422--10924</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA  EL TOPETE   248</t>
+  </si>
+  <si>
+    <t>CANALES  201-3</t>
+  </si>
+  <si>
+    <t>PORSICOLA SAN BERNARDO</t>
   </si>
 </sst>
 </file>
@@ -2680,7 +2689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="549">
+  <cellXfs count="548">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3940,9 +3949,6 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4507,18 +4513,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
-      <c r="F1" s="489"/>
-      <c r="G1" s="489"/>
-      <c r="H1" s="489"/>
-      <c r="I1" s="489"/>
-      <c r="J1" s="489"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4532,22 +4538,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="490" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="491"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="489"/>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
-      <c r="J2" s="489"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4601,10 +4607,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="492" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="493"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5148,7 +5154,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="494" t="s">
+      <c r="C12" s="493" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5212,7 +5218,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="495"/>
+      <c r="C13" s="494"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7214,13 +7220,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="506" t="s">
+      <c r="A56" s="505" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="508" t="s">
+      <c r="C56" s="507" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7231,7 +7237,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="500">
+      <c r="H56" s="499">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7260,11 +7266,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="507"/>
+      <c r="A57" s="506"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="509"/>
+      <c r="C57" s="508"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7273,7 +7279,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="501"/>
+      <c r="H57" s="500"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7300,13 +7306,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="506" t="s">
+      <c r="A58" s="505" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="508" t="s">
+      <c r="C58" s="507" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7317,7 +7323,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="500">
+      <c r="H58" s="499">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7336,10 +7342,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="502" t="s">
+      <c r="O58" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="504">
+      <c r="P58" s="503">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7350,11 +7356,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="507"/>
+      <c r="A59" s="506"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="509"/>
+      <c r="C59" s="508"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7363,7 +7369,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="501"/>
+      <c r="H59" s="500"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7380,8 +7386,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="503"/>
-      <c r="P59" s="505"/>
+      <c r="O59" s="502"/>
+      <c r="P59" s="504"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7390,13 +7396,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="498" t="s">
+      <c r="A60" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="496" t="s">
+      <c r="C60" s="495" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7410,7 +7416,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="500">
+      <c r="H60" s="499">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7429,10 +7435,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="502" t="s">
+      <c r="O60" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="504">
+      <c r="P60" s="503">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7445,11 +7451,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="499"/>
+      <c r="A61" s="498"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="497"/>
+      <c r="C61" s="496"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7461,7 +7467,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="501"/>
+      <c r="H61" s="500"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7478,8 +7484,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="503"/>
-      <c r="P61" s="505"/>
+      <c r="O61" s="502"/>
+      <c r="P61" s="504"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7545,7 +7551,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="522"/>
+      <c r="C63" s="521"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7553,7 +7559,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="524"/>
+      <c r="H63" s="523"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7582,7 +7588,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="523"/>
+      <c r="C64" s="522"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7590,7 +7596,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="525"/>
+      <c r="H64" s="524"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7768,8 +7774,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="514"/>
-      <c r="P68" s="520"/>
+      <c r="O68" s="513"/>
+      <c r="P68" s="519"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7803,8 +7809,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="515"/>
-      <c r="P69" s="521"/>
+      <c r="O69" s="514"/>
+      <c r="P69" s="520"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8294,8 +8300,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="513"/>
+      <c r="P82" s="515"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8327,8 +8333,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="515"/>
-      <c r="P83" s="517"/>
+      <c r="O83" s="514"/>
+      <c r="P83" s="516"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8360,8 +8366,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="514"/>
-      <c r="P84" s="516"/>
+      <c r="O84" s="513"/>
+      <c r="P84" s="515"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8393,8 +8399,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="515"/>
-      <c r="P85" s="517"/>
+      <c r="O85" s="514"/>
+      <c r="P85" s="516"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8552,8 +8558,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="518"/>
-      <c r="M90" s="519"/>
+      <c r="L90" s="517"/>
+      <c r="M90" s="518"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8585,8 +8591,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="518"/>
-      <c r="M91" s="519"/>
+      <c r="L91" s="517"/>
+      <c r="M91" s="518"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8789,8 +8795,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="514"/>
-      <c r="P97" s="510"/>
+      <c r="O97" s="513"/>
+      <c r="P97" s="509"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8822,8 +8828,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="515"/>
-      <c r="P98" s="511"/>
+      <c r="O98" s="514"/>
+      <c r="P98" s="510"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14215,11 +14221,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="512" t="s">
+      <c r="F262" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="512"/>
-      <c r="H262" s="513"/>
+      <c r="G262" s="511"/>
+      <c r="H262" s="512"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14865,49 +14871,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="488" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
-      <c r="F1" s="489"/>
-      <c r="G1" s="489"/>
-      <c r="H1" s="489"/>
-      <c r="I1" s="489"/>
-      <c r="J1" s="489"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="532" t="s">
+      <c r="S1" s="531" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="532"/>
+      <c r="T1" s="531"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="490" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="491"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="489"/>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
-      <c r="J2" s="489"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14915,8 +14921,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="533"/>
-      <c r="T2" s="533"/>
+      <c r="S2" s="532"/>
+      <c r="T2" s="532"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14961,10 +14967,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="492" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="493"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17600,13 +17606,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="534" t="s">
+      <c r="A55" s="533" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="508" t="s">
+      <c r="C55" s="507" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17617,7 +17623,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="524" t="s">
+      <c r="H55" s="523" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17646,11 +17652,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="535"/>
+      <c r="A56" s="534"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="509"/>
+      <c r="C56" s="508"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17659,7 +17665,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="525"/>
+      <c r="H56" s="524"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17688,13 +17694,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="526" t="s">
+      <c r="A57" s="525" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="528" t="s">
+      <c r="C57" s="527" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -17705,7 +17711,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="524" t="s">
+      <c r="H57" s="523" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17724,10 +17730,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="514" t="s">
+      <c r="O57" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="520">
+      <c r="P57" s="519">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17738,11 +17744,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="527"/>
+      <c r="A58" s="526"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="529"/>
+      <c r="C58" s="528"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17751,7 +17757,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="525"/>
+      <c r="H58" s="524"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17768,8 +17774,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="530"/>
-      <c r="P58" s="531"/>
+      <c r="O58" s="529"/>
+      <c r="P58" s="530"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17795,7 +17801,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="524" t="s">
+      <c r="H59" s="523" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17839,7 +17845,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="525"/>
+      <c r="H60" s="524"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18502,8 +18508,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="514"/>
-      <c r="P79" s="516"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18532,8 +18538,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="515"/>
-      <c r="P80" s="517"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18562,8 +18568,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="514"/>
-      <c r="P81" s="516"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18595,8 +18601,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="515"/>
-      <c r="P82" s="517"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18754,8 +18760,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="518"/>
-      <c r="M87" s="519"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18787,8 +18793,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="518"/>
-      <c r="M88" s="519"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18991,8 +18997,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="514"/>
-      <c r="P94" s="510"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19024,8 +19030,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="515"/>
-      <c r="P95" s="511"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24417,11 +24423,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="512" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="512"/>
-      <c r="H259" s="513"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25062,49 +25068,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="488" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
-      <c r="F1" s="489"/>
-      <c r="G1" s="489"/>
-      <c r="H1" s="489"/>
-      <c r="I1" s="489"/>
-      <c r="J1" s="489"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="532" t="s">
+      <c r="S1" s="531" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="532"/>
+      <c r="T1" s="531"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="490" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="491"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="489"/>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
-      <c r="J2" s="489"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25112,8 +25118,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="533"/>
-      <c r="T2" s="533"/>
+      <c r="S2" s="532"/>
+      <c r="T2" s="532"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -25158,10 +25164,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="492" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="493"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -26629,10 +26635,10 @@
       <c r="T23" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="U23" s="480" t="s">
+      <c r="U23" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V23" s="481">
+      <c r="V23" s="480">
         <v>4640</v>
       </c>
       <c r="W23" s="53" t="s">
@@ -26702,10 +26708,10 @@
       <c r="T24" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="U24" s="480" t="s">
+      <c r="U24" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V24" s="481">
+      <c r="V24" s="480">
         <v>0</v>
       </c>
       <c r="W24" s="53" t="s">
@@ -26775,10 +26781,10 @@
       <c r="T25" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="U25" s="480" t="s">
+      <c r="U25" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V25" s="481">
+      <c r="V25" s="480">
         <v>4640</v>
       </c>
       <c r="W25" s="53" t="s">
@@ -26848,10 +26854,10 @@
       <c r="T26" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="U26" s="480" t="s">
+      <c r="U26" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V26" s="481">
+      <c r="V26" s="480">
         <v>0</v>
       </c>
       <c r="W26" s="53" t="s">
@@ -26921,10 +26927,10 @@
       <c r="T27" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="U27" s="480" t="s">
+      <c r="U27" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V27" s="481">
+      <c r="V27" s="480">
         <v>4640</v>
       </c>
       <c r="W27" s="53" t="s">
@@ -26994,10 +27000,10 @@
       <c r="T28" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="U28" s="480" t="s">
+      <c r="U28" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V28" s="481">
+      <c r="V28" s="480">
         <v>0</v>
       </c>
       <c r="W28" s="53" t="s">
@@ -27030,7 +27036,7 @@
       <c r="G29" s="62">
         <v>44642</v>
       </c>
-      <c r="H29" s="473" t="s">
+      <c r="H29" s="472" t="s">
         <v>323</v>
       </c>
       <c r="I29" s="411">
@@ -27053,7 +27059,7 @@
       <c r="O29" s="417" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="479" t="s">
+      <c r="P29" s="478" t="s">
         <v>349</v>
       </c>
       <c r="Q29" s="456">
@@ -27068,10 +27074,10 @@
       <c r="T29" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="U29" s="480" t="s">
+      <c r="U29" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V29" s="481">
+      <c r="V29" s="480">
         <v>4640</v>
       </c>
       <c r="W29" s="53" t="s">
@@ -27141,10 +27147,10 @@
       <c r="T30" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="U30" s="480" t="s">
+      <c r="U30" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V30" s="481">
+      <c r="V30" s="480">
         <v>0</v>
       </c>
       <c r="W30" s="53" t="s">
@@ -27214,10 +27220,10 @@
       <c r="T31" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="U31" s="480" t="s">
+      <c r="U31" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V31" s="481">
+      <c r="V31" s="480">
         <v>4640</v>
       </c>
       <c r="W31" s="53" t="s">
@@ -27287,10 +27293,10 @@
       <c r="T32" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="U32" s="480" t="s">
+      <c r="U32" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V32" s="481">
+      <c r="V32" s="480">
         <v>0</v>
       </c>
       <c r="W32" s="53" t="s">
@@ -27361,10 +27367,10 @@
       <c r="T33" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="U33" s="480" t="s">
+      <c r="U33" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V33" s="481">
+      <c r="V33" s="480">
         <v>4640</v>
       </c>
       <c r="W33" s="53" t="s">
@@ -27434,10 +27440,10 @@
       <c r="T34" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="U34" s="480" t="s">
+      <c r="U34" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V34" s="481">
+      <c r="V34" s="480">
         <v>0</v>
       </c>
       <c r="W34" s="53" t="s">
@@ -27507,10 +27513,10 @@
       <c r="T35" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="U35" s="480" t="s">
+      <c r="U35" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V35" s="481">
+      <c r="V35" s="480">
         <v>4640</v>
       </c>
       <c r="W35" s="53" t="s">
@@ -27580,10 +27586,10 @@
       <c r="T36" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="U36" s="480" t="s">
+      <c r="U36" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V36" s="481">
+      <c r="V36" s="480">
         <v>0</v>
       </c>
       <c r="W36" s="53" t="s">
@@ -27653,10 +27659,10 @@
       <c r="T37" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="U37" s="480" t="s">
+      <c r="U37" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V37" s="481">
+      <c r="V37" s="480">
         <v>4640</v>
       </c>
       <c r="W37" s="53" t="s">
@@ -27726,10 +27732,10 @@
       <c r="T38" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="U38" s="480" t="s">
+      <c r="U38" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V38" s="481">
+      <c r="V38" s="480">
         <v>0</v>
       </c>
       <c r="W38" s="53" t="s">
@@ -27784,7 +27790,7 @@
       <c r="O39" s="416" t="s">
         <v>59</v>
       </c>
-      <c r="P39" s="468">
+      <c r="P39" s="467">
         <v>44664</v>
       </c>
       <c r="Q39" s="419">
@@ -27799,10 +27805,10 @@
       <c r="T39" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="U39" s="480" t="s">
+      <c r="U39" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V39" s="481">
+      <c r="V39" s="480">
         <v>4640</v>
       </c>
       <c r="W39" s="53" t="s">
@@ -27872,10 +27878,10 @@
       <c r="T40" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="U40" s="480" t="s">
+      <c r="U40" s="479" t="s">
         <v>396</v>
       </c>
-      <c r="V40" s="481">
+      <c r="V40" s="480">
         <v>0</v>
       </c>
       <c r="W40" s="53" t="s">
@@ -28369,13 +28375,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="534" t="s">
+      <c r="A55" s="533" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="508" t="s">
+      <c r="C55" s="507" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28386,7 +28392,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="537" t="s">
+      <c r="H55" s="536" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28405,10 +28411,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="514" t="s">
+      <c r="O55" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="520">
+      <c r="P55" s="519">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28419,11 +28425,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="536"/>
+      <c r="A56" s="535"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="509"/>
+      <c r="C56" s="508"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28432,7 +28438,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="538"/>
+      <c r="H56" s="537"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28449,8 +28455,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="515"/>
-      <c r="P56" s="521"/>
+      <c r="O56" s="514"/>
+      <c r="P56" s="520"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28467,7 +28473,7 @@
       <c r="B57" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="472" t="s">
+      <c r="C57" s="471" t="s">
         <v>318</v>
       </c>
       <c r="D57" s="168"/>
@@ -28478,7 +28484,7 @@
       <c r="G57" s="152">
         <v>44641</v>
       </c>
-      <c r="H57" s="469" t="s">
+      <c r="H57" s="468" t="s">
         <v>314</v>
       </c>
       <c r="I57" s="151">
@@ -28511,13 +28517,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="498" t="s">
+      <c r="A58" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="547" t="s">
+      <c r="C58" s="546" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28528,7 +28534,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="545" t="s">
+      <c r="H58" s="544" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28547,10 +28553,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="502" t="s">
+      <c r="O58" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="504">
+      <c r="P58" s="503">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28561,11 +28567,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="499"/>
+      <c r="A59" s="498"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="548"/>
+      <c r="C59" s="547"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28574,7 +28580,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="546"/>
+      <c r="H59" s="545"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28591,8 +28597,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="503"/>
-      <c r="P59" s="505"/>
+      <c r="O59" s="502"/>
+      <c r="P59" s="504"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28665,13 +28671,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="539" t="s">
+      <c r="A62" s="538" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="541" t="s">
+      <c r="C62" s="540" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28682,7 +28688,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="543">
+      <c r="H62" s="542">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28701,10 +28707,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="514" t="s">
+      <c r="O62" s="513" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="520">
+      <c r="P62" s="519">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28715,11 +28721,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="540"/>
+      <c r="A63" s="539"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="542"/>
+      <c r="C63" s="541"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28728,7 +28734,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="544"/>
+      <c r="H63" s="543"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28745,8 +28751,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="515"/>
-      <c r="P63" s="521"/>
+      <c r="O63" s="514"/>
+      <c r="P63" s="520"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29225,8 +29231,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="514"/>
-      <c r="P79" s="516"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29255,8 +29261,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="515"/>
-      <c r="P80" s="517"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29285,8 +29291,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="514"/>
-      <c r="P81" s="516"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29318,8 +29324,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="515"/>
-      <c r="P82" s="517"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29477,8 +29483,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="518"/>
-      <c r="M87" s="519"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29510,8 +29516,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="518"/>
-      <c r="M88" s="519"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29714,8 +29720,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="514"/>
-      <c r="P94" s="510"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29747,8 +29753,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="515"/>
-      <c r="P95" s="511"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35140,11 +35146,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="512" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="512"/>
-      <c r="H259" s="513"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35791,49 +35797,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="488" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
-      <c r="F1" s="489"/>
-      <c r="G1" s="489"/>
-      <c r="H1" s="489"/>
-      <c r="I1" s="489"/>
-      <c r="J1" s="489"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="532" t="s">
+      <c r="S1" s="531" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="532"/>
+      <c r="T1" s="531"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="490" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="491"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="489"/>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
-      <c r="J2" s="489"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35841,8 +35847,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="533"/>
-      <c r="T2" s="533"/>
+      <c r="S2" s="532"/>
+      <c r="T2" s="532"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -35887,10 +35893,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="492" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="493"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -36856,7 +36862,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="486" t="s">
+      <c r="A18" s="485" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -36913,10 +36919,10 @@
       <c r="T18" s="92"/>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
-      <c r="W18" s="488" t="s">
+      <c r="W18" s="487" t="s">
         <v>220</v>
       </c>
-      <c r="X18" s="487">
+      <c r="X18" s="486">
         <v>4176</v>
       </c>
     </row>
@@ -38784,7 +38790,7 @@
       <c r="B55" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="471" t="s">
+      <c r="C55" s="470" t="s">
         <v>316</v>
       </c>
       <c r="D55" s="439"/>
@@ -38795,7 +38801,7 @@
       <c r="G55" s="152">
         <v>44655</v>
       </c>
-      <c r="H55" s="469" t="s">
+      <c r="H55" s="468" t="s">
         <v>317</v>
       </c>
       <c r="I55" s="151">
@@ -38828,13 +38834,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="470" t="s">
+      <c r="A56" s="469" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="478" t="s">
+      <c r="C56" s="477" t="s">
         <v>344</v>
       </c>
       <c r="D56" s="440"/>
@@ -38845,7 +38851,7 @@
       <c r="G56" s="152">
         <v>44662</v>
       </c>
-      <c r="H56" s="469" t="s">
+      <c r="H56" s="468" t="s">
         <v>345</v>
       </c>
       <c r="I56" s="151">
@@ -39040,7 +39046,7 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="474" t="s">
+      <c r="A62" s="473" t="s">
         <v>328</v>
       </c>
       <c r="B62" s="178" t="s">
@@ -39057,7 +39063,7 @@
       <c r="G62" s="152">
         <v>44659</v>
       </c>
-      <c r="H62" s="477">
+      <c r="H62" s="476">
         <v>3311</v>
       </c>
       <c r="I62" s="151">
@@ -39090,13 +39096,13 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="475" t="s">
+      <c r="A63" s="474" t="s">
         <v>111</v>
       </c>
       <c r="B63" s="178" t="s">
         <v>384</v>
       </c>
-      <c r="C63" s="476" t="s">
+      <c r="C63" s="475" t="s">
         <v>385</v>
       </c>
       <c r="D63" s="168"/>
@@ -39107,7 +39113,7 @@
       <c r="G63" s="152">
         <v>44670</v>
       </c>
-      <c r="H63" s="477">
+      <c r="H63" s="476">
         <v>37713</v>
       </c>
       <c r="I63" s="151">
@@ -39610,8 +39616,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="514"/>
-      <c r="P79" s="516"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39640,8 +39646,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="515"/>
-      <c r="P80" s="517"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39670,8 +39676,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="514"/>
-      <c r="P81" s="516"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39703,8 +39709,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="515"/>
-      <c r="P82" s="517"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -39862,8 +39868,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="518"/>
-      <c r="M87" s="519"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39895,8 +39901,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="518"/>
-      <c r="M88" s="519"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40099,8 +40105,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="514"/>
-      <c r="P94" s="510"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40132,8 +40138,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="515"/>
-      <c r="P95" s="511"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45525,11 +45531,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="512" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="512"/>
-      <c r="H259" s="513"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -46129,10 +46135,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46161,49 +46167,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="488" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
-      <c r="F1" s="489"/>
-      <c r="G1" s="489"/>
-      <c r="H1" s="489"/>
-      <c r="I1" s="489"/>
-      <c r="J1" s="489"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="532" t="s">
+      <c r="S1" s="531" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="532"/>
+      <c r="T1" s="531"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="490" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="491"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="489"/>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
-      <c r="J2" s="489"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46211,8 +46217,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="533"/>
-      <c r="T2" s="533"/>
+      <c r="S2" s="532"/>
+      <c r="T2" s="532"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -46257,10 +46263,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="492" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="493"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -46298,7 +46304,7 @@
       <c r="G4" s="42">
         <v>44682</v>
       </c>
-      <c r="H4" s="485" t="s">
+      <c r="H4" s="484" t="s">
         <v>434</v>
       </c>
       <c r="I4" s="409">
@@ -46317,7 +46323,7 @@
         <f t="shared" ref="N4:N114" si="1">K4*I4</f>
         <v>794845</v>
       </c>
-      <c r="O4" s="482" t="s">
+      <c r="O4" s="481" t="s">
         <v>61</v>
       </c>
       <c r="P4" s="394">
@@ -46988,26 +46994,38 @@
       <c r="W16" s="53"/>
       <c r="X16" s="70"/>
     </row>
-    <row r="17" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="75"/>
-      <c r="B17" s="58"/>
+    <row r="17" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>290</v>
+      </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="61">
+        <v>21750</v>
+      </c>
+      <c r="G17" s="62">
+        <v>44696</v>
+      </c>
       <c r="H17" s="410"/>
-      <c r="I17" s="411"/>
+      <c r="I17" s="411">
+        <v>21850</v>
+      </c>
       <c r="J17" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="76"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L17" s="65"/>
       <c r="M17" s="65"/>
       <c r="N17" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>775675</v>
       </c>
       <c r="O17" s="397"/>
       <c r="P17" s="398"/>
@@ -47021,25 +47039,37 @@
       <c r="X17" s="70"/>
     </row>
     <row r="18" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="467"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="F18" s="61">
+        <v>0</v>
+      </c>
+      <c r="G18" s="62">
+        <v>44696</v>
+      </c>
       <c r="H18" s="410"/>
-      <c r="I18" s="411"/>
+      <c r="I18" s="411">
+        <v>5695</v>
+      </c>
       <c r="J18" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="76"/>
+        <v>5695</v>
+      </c>
+      <c r="K18" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L18" s="65"/>
       <c r="M18" s="65"/>
       <c r="N18" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>202172.5</v>
       </c>
       <c r="O18" s="397"/>
       <c r="P18" s="398"/>
@@ -47053,25 +47083,37 @@
       <c r="X18" s="70"/>
     </row>
     <row r="19" spans="1:24" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>436</v>
+      </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="61">
+        <v>20890</v>
+      </c>
+      <c r="G19" s="62">
+        <v>44698</v>
+      </c>
       <c r="H19" s="410"/>
-      <c r="I19" s="411"/>
+      <c r="I19" s="411">
+        <v>20865</v>
+      </c>
       <c r="J19" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="76"/>
+        <v>-25</v>
+      </c>
+      <c r="K19" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
       <c r="N19" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>740707.5</v>
       </c>
       <c r="O19" s="397"/>
       <c r="P19" s="398"/>
@@ -47085,25 +47127,37 @@
       <c r="X19" s="70"/>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="80"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
+      <c r="F20" s="61">
+        <v>0</v>
+      </c>
+      <c r="G20" s="62">
+        <v>44698</v>
+      </c>
       <c r="H20" s="410"/>
-      <c r="I20" s="411"/>
+      <c r="I20" s="411">
+        <v>5900</v>
+      </c>
       <c r="J20" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="76"/>
+        <v>5900</v>
+      </c>
+      <c r="K20" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
       <c r="N20" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>209450</v>
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="90"/>
@@ -47117,25 +47171,37 @@
       <c r="X20" s="70"/>
     </row>
     <row r="21" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="61">
+        <v>21320</v>
+      </c>
+      <c r="G21" s="62">
+        <v>44700</v>
+      </c>
       <c r="H21" s="410"/>
-      <c r="I21" s="411"/>
+      <c r="I21" s="411">
+        <v>21840</v>
+      </c>
       <c r="J21" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="76"/>
+        <v>520</v>
+      </c>
+      <c r="K21" s="76">
+        <v>36.5</v>
+      </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
       <c r="N21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>797160</v>
       </c>
       <c r="O21" s="89"/>
       <c r="P21" s="90"/>
@@ -47148,26 +47214,38 @@
       <c r="W21" s="53"/>
       <c r="X21" s="70"/>
     </row>
-    <row r="22" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="81"/>
-      <c r="B22" s="58"/>
+    <row r="22" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="61">
+        <v>0</v>
+      </c>
+      <c r="G22" s="62">
+        <v>44700</v>
+      </c>
       <c r="H22" s="410"/>
-      <c r="I22" s="411"/>
+      <c r="I22" s="411">
+        <v>5250</v>
+      </c>
       <c r="J22" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="76"/>
+        <v>5250</v>
+      </c>
+      <c r="K22" s="76">
+        <v>36.5</v>
+      </c>
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
       <c r="N22" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>191625</v>
       </c>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
@@ -47181,25 +47259,37 @@
       <c r="X22" s="70"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="61">
+        <v>21550</v>
+      </c>
+      <c r="G23" s="62">
+        <v>44701</v>
+      </c>
       <c r="H23" s="410"/>
-      <c r="I23" s="411"/>
+      <c r="I23" s="411">
+        <v>21420</v>
+      </c>
       <c r="J23" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="76"/>
+        <v>-130</v>
+      </c>
+      <c r="K23" s="76">
+        <v>36.5</v>
+      </c>
       <c r="L23" s="65"/>
       <c r="M23" s="65"/>
       <c r="N23" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>781830</v>
       </c>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
@@ -47212,26 +47302,38 @@
       <c r="W23" s="53"/>
       <c r="X23" s="70"/>
     </row>
-    <row r="24" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="58"/>
+    <row r="24" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+      <c r="F24" s="61">
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <v>44701</v>
+      </c>
       <c r="H24" s="410"/>
-      <c r="I24" s="411"/>
+      <c r="I24" s="411">
+        <v>5730</v>
+      </c>
       <c r="J24" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="76"/>
+        <v>5730</v>
+      </c>
+      <c r="K24" s="76">
+        <v>36.5</v>
+      </c>
       <c r="L24" s="65"/>
       <c r="M24" s="65"/>
       <c r="N24" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>209145</v>
       </c>
       <c r="O24" s="397"/>
       <c r="P24" s="90"/>
@@ -48213,7 +48315,7 @@
     <row r="54" spans="1:24" s="161" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="147"/>
       <c r="B54" s="437"/>
-      <c r="C54" s="483"/>
+      <c r="C54" s="482"/>
       <c r="D54" s="150"/>
       <c r="E54" s="40"/>
       <c r="F54" s="383"/>
@@ -48247,14 +48349,14 @@
       <c r="B55" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="471"/>
+      <c r="C55" s="470"/>
       <c r="D55" s="439" t="s">
         <v>403</v>
       </c>
       <c r="E55" s="60"/>
       <c r="F55" s="151"/>
       <c r="G55" s="152"/>
-      <c r="H55" s="469"/>
+      <c r="H55" s="468"/>
       <c r="I55" s="151"/>
       <c r="J55" s="45">
         <f t="shared" si="0"/>
@@ -48277,18 +48379,18 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="470" t="s">
+      <c r="A56" s="469" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="484"/>
+      <c r="C56" s="483"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151"/>
       <c r="G56" s="152"/>
-      <c r="H56" s="469"/>
+      <c r="H56" s="468"/>
       <c r="I56" s="151"/>
       <c r="J56" s="45">
         <f t="shared" si="0"/>
@@ -48473,14 +48575,14 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="474"/>
+      <c r="A62" s="473"/>
       <c r="B62" s="178"/>
       <c r="C62" s="183"/>
       <c r="D62" s="168"/>
       <c r="E62" s="60"/>
       <c r="F62" s="151"/>
       <c r="G62" s="152"/>
-      <c r="H62" s="477"/>
+      <c r="H62" s="476"/>
       <c r="I62" s="151"/>
       <c r="J62" s="45">
         <f t="shared" si="0"/>
@@ -48503,14 +48605,14 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="475"/>
+      <c r="A63" s="474"/>
       <c r="B63" s="178"/>
-      <c r="C63" s="476"/>
+      <c r="C63" s="475"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="477"/>
+      <c r="H63" s="476"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -49255,8 +49357,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="518"/>
-      <c r="M87" s="519"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49288,8 +49390,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="518"/>
-      <c r="M88" s="519"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49492,8 +49594,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="514"/>
-      <c r="P94" s="510"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -49525,8 +49627,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="515"/>
-      <c r="P95" s="511"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -54918,14 +55020,14 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="512" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="512"/>
-      <c r="H259" s="513"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>207465</v>
+        <v>316015</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -55024,7 +55126,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>7365007.5</v>
+        <v>11272772.5</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -55084,7 +55186,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>7563943.5</v>
+        <v>11471708.5</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -55506,6 +55608,7 @@
     <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="447">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1337,15 +1337,6 @@
     <t>20504--</t>
   </si>
   <si>
-    <t>20438--</t>
-  </si>
-  <si>
-    <t>20454--</t>
-  </si>
-  <si>
-    <t>20458--</t>
-  </si>
-  <si>
     <t>20422--10924</t>
   </si>
   <si>
@@ -1355,7 +1346,43 @@
     <t>CANALES  201-3</t>
   </si>
   <si>
-    <t>PORSICOLA SAN BERNARDO</t>
+    <t>T-54</t>
+  </si>
+  <si>
+    <t>T-55</t>
+  </si>
+  <si>
+    <t>T-56</t>
+  </si>
+  <si>
+    <t>20458--10954</t>
+  </si>
+  <si>
+    <t>20438--10929</t>
+  </si>
+  <si>
+    <t>20454--10946</t>
+  </si>
+  <si>
+    <t>20454--10948</t>
+  </si>
+  <si>
+    <t>D-4157</t>
+  </si>
+  <si>
+    <t>T-53</t>
+  </si>
+  <si>
+    <t>20511--</t>
+  </si>
+  <si>
+    <t>20528--</t>
+  </si>
+  <si>
+    <t>20547--</t>
+  </si>
+  <si>
+    <t>20554--</t>
   </si>
 </sst>
 </file>
@@ -4004,6 +4031,78 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4037,83 +4136,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4143,6 +4170,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4176,12 +4209,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4513,18 +4540,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4538,22 +4565,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4607,10 +4634,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5154,7 +5181,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="493" t="s">
+      <c r="C12" s="517" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5218,7 +5245,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="494"/>
+      <c r="C13" s="518"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7220,13 +7247,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="505" t="s">
+      <c r="A56" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="507" t="s">
+      <c r="C56" s="498" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7237,7 +7264,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="499">
+      <c r="H56" s="500">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7266,11 +7293,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="506"/>
+      <c r="A57" s="497"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="508"/>
+      <c r="C57" s="499"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7279,7 +7306,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="500"/>
+      <c r="H57" s="501"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7306,13 +7333,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="505" t="s">
+      <c r="A58" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="507" t="s">
+      <c r="C58" s="498" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7323,7 +7350,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="499">
+      <c r="H58" s="500">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7342,10 +7369,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="501" t="s">
+      <c r="O58" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="503">
+      <c r="P58" s="523">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7356,11 +7383,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="506"/>
+      <c r="A59" s="497"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="508"/>
+      <c r="C59" s="499"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7369,7 +7396,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="500"/>
+      <c r="H59" s="501"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7386,8 +7413,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="502"/>
-      <c r="P59" s="504"/>
+      <c r="O59" s="503"/>
+      <c r="P59" s="524"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7396,13 +7423,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="497" t="s">
+      <c r="A60" s="521" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="495" t="s">
+      <c r="C60" s="519" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7416,7 +7443,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="499">
+      <c r="H60" s="500">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7435,10 +7462,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="501" t="s">
+      <c r="O60" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="503">
+      <c r="P60" s="523">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7451,11 +7478,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="498"/>
+      <c r="A61" s="522"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="496"/>
+      <c r="C61" s="520"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7467,7 +7494,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="500"/>
+      <c r="H61" s="501"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7484,8 +7511,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="502"/>
-      <c r="P61" s="504"/>
+      <c r="O61" s="503"/>
+      <c r="P61" s="524"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7551,7 +7578,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="521"/>
+      <c r="C63" s="490"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7559,7 +7586,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="523"/>
+      <c r="H63" s="492"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7588,7 +7615,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="522"/>
+      <c r="C64" s="491"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7596,7 +7623,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="524"/>
+      <c r="H64" s="493"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7774,8 +7801,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="513"/>
-      <c r="P68" s="519"/>
+      <c r="O68" s="494"/>
+      <c r="P68" s="488"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7809,8 +7836,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="514"/>
-      <c r="P69" s="520"/>
+      <c r="O69" s="495"/>
+      <c r="P69" s="489"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8300,8 +8327,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="513"/>
-      <c r="P82" s="515"/>
+      <c r="O82" s="494"/>
+      <c r="P82" s="508"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8333,8 +8360,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="514"/>
-      <c r="P83" s="516"/>
+      <c r="O83" s="495"/>
+      <c r="P83" s="509"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8366,8 +8393,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="513"/>
-      <c r="P84" s="515"/>
+      <c r="O84" s="494"/>
+      <c r="P84" s="508"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8399,8 +8426,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="514"/>
-      <c r="P85" s="516"/>
+      <c r="O85" s="495"/>
+      <c r="P85" s="509"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8558,8 +8585,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="517"/>
-      <c r="M90" s="518"/>
+      <c r="L90" s="510"/>
+      <c r="M90" s="511"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8591,8 +8618,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="517"/>
-      <c r="M91" s="518"/>
+      <c r="L91" s="510"/>
+      <c r="M91" s="511"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8795,8 +8822,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="513"/>
-      <c r="P97" s="509"/>
+      <c r="O97" s="494"/>
+      <c r="P97" s="504"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8828,8 +8855,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="514"/>
-      <c r="P98" s="510"/>
+      <c r="O98" s="495"/>
+      <c r="P98" s="505"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14221,11 +14248,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="511" t="s">
+      <c r="F262" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="511"/>
-      <c r="H262" s="512"/>
+      <c r="G262" s="506"/>
+      <c r="H262" s="507"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14799,22 +14826,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14828,6 +14839,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14871,18 +14898,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14898,22 +14925,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14967,10 +14994,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17612,7 +17639,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="507" t="s">
+      <c r="C55" s="498" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17623,7 +17650,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="523" t="s">
+      <c r="H55" s="492" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17656,7 +17683,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="508"/>
+      <c r="C56" s="499"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17665,7 +17692,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="524"/>
+      <c r="H56" s="493"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17711,7 +17738,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="523" t="s">
+      <c r="H57" s="492" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17730,10 +17757,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="513" t="s">
+      <c r="O57" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="519">
+      <c r="P57" s="488">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17757,7 +17784,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="524"/>
+      <c r="H58" s="493"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17801,7 +17828,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="523" t="s">
+      <c r="H59" s="492" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17845,7 +17872,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="524"/>
+      <c r="H60" s="493"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18508,8 +18535,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18538,8 +18565,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18568,8 +18595,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18601,8 +18628,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18760,8 +18787,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18793,8 +18820,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18997,8 +19024,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19030,8 +19057,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24423,11 +24450,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25001,6 +25028,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25016,12 +25049,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25068,18 +25095,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25095,22 +25122,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25164,10 +25191,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28381,7 +28408,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="507" t="s">
+      <c r="C55" s="498" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28392,7 +28419,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="536" t="s">
+      <c r="H55" s="538" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28411,10 +28438,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="513" t="s">
+      <c r="O55" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="519">
+      <c r="P55" s="488">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28425,11 +28452,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="535"/>
+      <c r="A56" s="537"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="508"/>
+      <c r="C56" s="499"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28438,7 +28465,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="537"/>
+      <c r="H56" s="539"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28455,8 +28482,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="514"/>
-      <c r="P56" s="520"/>
+      <c r="O56" s="495"/>
+      <c r="P56" s="489"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28517,13 +28544,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="497" t="s">
+      <c r="A58" s="521" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="546" t="s">
+      <c r="C58" s="535" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28534,7 +28561,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="544" t="s">
+      <c r="H58" s="546" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28553,10 +28580,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="501" t="s">
+      <c r="O58" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="503">
+      <c r="P58" s="523">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28567,11 +28594,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="498"/>
+      <c r="A59" s="522"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="547"/>
+      <c r="C59" s="536"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28580,7 +28607,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="545"/>
+      <c r="H59" s="547"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28597,8 +28624,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="502"/>
-      <c r="P59" s="504"/>
+      <c r="O59" s="503"/>
+      <c r="P59" s="524"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28671,13 +28698,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="538" t="s">
+      <c r="A62" s="540" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="540" t="s">
+      <c r="C62" s="542" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28688,7 +28715,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="542">
+      <c r="H62" s="544">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28707,10 +28734,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="513" t="s">
+      <c r="O62" s="494" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="519">
+      <c r="P62" s="488">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28721,11 +28748,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="539"/>
+      <c r="A63" s="541"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="541"/>
+      <c r="C63" s="543"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28734,7 +28761,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="543"/>
+      <c r="H63" s="545"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28751,8 +28778,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="514"/>
-      <c r="P63" s="520"/>
+      <c r="O63" s="495"/>
+      <c r="P63" s="489"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29231,8 +29258,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29261,8 +29288,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29291,8 +29318,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29324,8 +29351,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29483,8 +29510,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29516,8 +29543,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29720,8 +29747,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29753,8 +29780,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35146,11 +35173,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35724,17 +35751,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35751,6 +35767,17 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35765,10 +35792,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="O25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35797,18 +35824,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35824,22 +35851,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35893,10 +35920,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -35978,8 +36005,12 @@
       <c r="T4" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
+      <c r="U4" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V4" s="54">
+        <v>0</v>
+      </c>
       <c r="W4" s="55" t="s">
         <v>415</v>
       </c>
@@ -36047,8 +36078,12 @@
       <c r="T5" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V5" s="54">
+        <v>4640</v>
+      </c>
       <c r="W5" s="68" t="s">
         <v>415</v>
       </c>
@@ -36116,8 +36151,12 @@
       <c r="T6" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="U6" s="53"/>
-      <c r="V6" s="54"/>
+      <c r="U6" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V6" s="54">
+        <v>4640</v>
+      </c>
       <c r="W6" s="53" t="s">
         <v>415</v>
       </c>
@@ -36185,8 +36224,12 @@
       <c r="T7" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="54"/>
+      <c r="U7" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V7" s="54">
+        <v>0</v>
+      </c>
       <c r="W7" s="53" t="s">
         <v>415</v>
       </c>
@@ -36254,8 +36297,12 @@
       <c r="T8" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="54"/>
+      <c r="U8" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V8" s="54">
+        <v>4640</v>
+      </c>
       <c r="W8" s="53" t="s">
         <v>415</v>
       </c>
@@ -36323,8 +36370,12 @@
       <c r="T9" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54"/>
+      <c r="U9" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V9" s="54">
+        <v>0</v>
+      </c>
       <c r="W9" s="53" t="s">
         <v>415</v>
       </c>
@@ -36392,8 +36443,12 @@
       <c r="T10" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
+      <c r="U10" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V10" s="54">
+        <v>4640</v>
+      </c>
       <c r="W10" s="53" t="s">
         <v>415</v>
       </c>
@@ -36461,8 +36516,12 @@
       <c r="T11" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="54"/>
+      <c r="U11" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V11" s="54">
+        <v>0</v>
+      </c>
       <c r="W11" s="53" t="s">
         <v>415</v>
       </c>
@@ -36526,8 +36585,12 @@
       </c>
       <c r="S12" s="51"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="54"/>
+      <c r="U12" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V12" s="54">
+        <v>4640</v>
+      </c>
       <c r="W12" s="53" t="s">
         <v>415</v>
       </c>
@@ -36591,8 +36654,12 @@
       </c>
       <c r="S13" s="51"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="54"/>
+      <c r="U13" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V13" s="54">
+        <v>0</v>
+      </c>
       <c r="W13" s="53" t="s">
         <v>415</v>
       </c>
@@ -36656,8 +36723,12 @@
       </c>
       <c r="S14" s="51"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="54"/>
+      <c r="U14" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V14" s="54">
+        <v>4640</v>
+      </c>
       <c r="W14" s="53" t="s">
         <v>415</v>
       </c>
@@ -36721,8 +36792,12 @@
       </c>
       <c r="S15" s="51"/>
       <c r="T15" s="92"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="54"/>
+      <c r="U15" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V15" s="54">
+        <v>0</v>
+      </c>
       <c r="W15" s="53" t="s">
         <v>415</v>
       </c>
@@ -36730,7 +36805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
         <v>297</v>
       </c>
@@ -36786,8 +36861,12 @@
       </c>
       <c r="S16" s="51"/>
       <c r="T16" s="92"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="54"/>
+      <c r="U16" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V16" s="54">
+        <v>4640</v>
+      </c>
       <c r="W16" s="53" t="s">
         <v>415</v>
       </c>
@@ -36852,8 +36931,12 @@
       </c>
       <c r="S17" s="51"/>
       <c r="T17" s="92"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="54"/>
+      <c r="U17" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V17" s="54">
+        <v>0</v>
+      </c>
       <c r="W17" s="53" t="s">
         <v>415</v>
       </c>
@@ -36917,8 +37000,12 @@
       </c>
       <c r="S18" s="51"/>
       <c r="T18" s="92"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="54"/>
+      <c r="U18" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="V18" s="54">
+        <v>0</v>
+      </c>
       <c r="W18" s="487" t="s">
         <v>220</v>
       </c>
@@ -36987,8 +37074,12 @@
       <c r="T19" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="54"/>
+      <c r="U19" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V19" s="54">
+        <v>4640</v>
+      </c>
       <c r="W19" s="53" t="s">
         <v>415</v>
       </c>
@@ -37056,8 +37147,12 @@
       <c r="T20" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="U20" s="53"/>
-      <c r="V20" s="54"/>
+      <c r="U20" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V20" s="54">
+        <v>0</v>
+      </c>
       <c r="W20" s="53" t="s">
         <v>415</v>
       </c>
@@ -37125,8 +37220,12 @@
       <c r="T21" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="U21" s="53"/>
-      <c r="V21" s="54"/>
+      <c r="U21" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V21" s="54">
+        <v>4640</v>
+      </c>
       <c r="W21" s="53" t="s">
         <v>415</v>
       </c>
@@ -37134,7 +37233,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
         <v>294</v>
       </c>
@@ -37194,8 +37293,12 @@
       <c r="T22" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="U22" s="53"/>
-      <c r="V22" s="54"/>
+      <c r="U22" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="V22" s="54">
+        <v>0</v>
+      </c>
       <c r="W22" s="53" t="s">
         <v>415</v>
       </c>
@@ -39616,8 +39719,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39646,8 +39749,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39676,8 +39779,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39709,8 +39812,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -39868,8 +39971,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39901,8 +40004,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40105,8 +40208,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40138,8 +40241,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45531,11 +45634,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -46109,18 +46212,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46135,10 +46238,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46167,18 +46270,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46194,22 +46297,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46263,10 +46366,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -46305,7 +46408,7 @@
         <v>44682</v>
       </c>
       <c r="H4" s="484" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I4" s="409">
         <v>22390</v>
@@ -46363,7 +46466,7 @@
         <v>44684</v>
       </c>
       <c r="H5" s="410" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="I5" s="411">
         <v>23430</v>
@@ -46381,8 +46484,12 @@
         <f t="shared" si="1"/>
         <v>831765</v>
       </c>
-      <c r="O5" s="395"/>
-      <c r="P5" s="396"/>
+      <c r="O5" s="395" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="396">
+        <v>44698</v>
+      </c>
       <c r="Q5" s="66">
         <v>21550</v>
       </c>
@@ -46417,7 +46524,7 @@
         <v>44686</v>
       </c>
       <c r="H6" s="410" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="I6" s="411">
         <v>22940</v>
@@ -46435,8 +46542,12 @@
         <f t="shared" si="1"/>
         <v>814370</v>
       </c>
-      <c r="O6" s="395"/>
-      <c r="P6" s="396"/>
+      <c r="O6" s="395" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="396">
+        <v>44700</v>
+      </c>
       <c r="Q6" s="66">
         <v>26900</v>
       </c>
@@ -46471,7 +46582,7 @@
         <v>44686</v>
       </c>
       <c r="H7" s="410" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="I7" s="411">
         <v>5925</v>
@@ -46489,8 +46600,12 @@
         <f t="shared" si="1"/>
         <v>210337.5</v>
       </c>
-      <c r="O7" s="395"/>
-      <c r="P7" s="396"/>
+      <c r="O7" s="395" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="396">
+        <v>44700</v>
+      </c>
       <c r="Q7" s="66">
         <v>0</v>
       </c>
@@ -46525,7 +46640,7 @@
         <v>44687</v>
       </c>
       <c r="H8" s="410" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I8" s="411">
         <v>21700</v>
@@ -46543,8 +46658,12 @@
         <f t="shared" si="1"/>
         <v>770350</v>
       </c>
-      <c r="O8" s="89"/>
-      <c r="P8" s="90"/>
+      <c r="O8" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="90">
+        <v>44701</v>
+      </c>
       <c r="Q8" s="66">
         <v>21443</v>
       </c>
@@ -47010,7 +47129,9 @@
       <c r="G17" s="62">
         <v>44696</v>
       </c>
-      <c r="H17" s="410"/>
+      <c r="H17" s="410" t="s">
+        <v>443</v>
+      </c>
       <c r="I17" s="411">
         <v>21850</v>
       </c>
@@ -47029,10 +47150,18 @@
       </c>
       <c r="O17" s="397"/>
       <c r="P17" s="398"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="92"/>
+      <c r="Q17" s="66">
+        <v>26893</v>
+      </c>
+      <c r="R17" s="67">
+        <v>44701</v>
+      </c>
+      <c r="S17" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T17" s="92" t="s">
+        <v>442</v>
+      </c>
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
       <c r="W17" s="53"/>
@@ -47054,7 +47183,9 @@
       <c r="G18" s="62">
         <v>44696</v>
       </c>
-      <c r="H18" s="410"/>
+      <c r="H18" s="410" t="s">
+        <v>443</v>
+      </c>
       <c r="I18" s="411">
         <v>5695</v>
       </c>
@@ -47073,10 +47204,18 @@
       </c>
       <c r="O18" s="397"/>
       <c r="P18" s="398"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="92"/>
+      <c r="Q18" s="66">
+        <v>0</v>
+      </c>
+      <c r="R18" s="67">
+        <v>44701</v>
+      </c>
+      <c r="S18" s="51">
+        <v>0</v>
+      </c>
+      <c r="T18" s="92" t="s">
+        <v>442</v>
+      </c>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
       <c r="W18" s="53"/>
@@ -47084,10 +47223,10 @@
     </row>
     <row r="19" spans="1:24" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
@@ -47098,7 +47237,9 @@
       <c r="G19" s="62">
         <v>44698</v>
       </c>
-      <c r="H19" s="410"/>
+      <c r="H19" s="410" t="s">
+        <v>444</v>
+      </c>
       <c r="I19" s="411">
         <v>20865</v>
       </c>
@@ -47117,10 +47258,18 @@
       </c>
       <c r="O19" s="397"/>
       <c r="P19" s="398"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="92"/>
+      <c r="Q19" s="79">
+        <v>27007</v>
+      </c>
+      <c r="R19" s="67">
+        <v>44701</v>
+      </c>
+      <c r="S19" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T19" s="92" t="s">
+        <v>434</v>
+      </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
       <c r="W19" s="53"/>
@@ -47142,7 +47291,9 @@
       <c r="G20" s="62">
         <v>44698</v>
       </c>
-      <c r="H20" s="410"/>
+      <c r="H20" s="410" t="s">
+        <v>444</v>
+      </c>
       <c r="I20" s="411">
         <v>5900</v>
       </c>
@@ -47161,10 +47312,18 @@
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="90"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="92"/>
+      <c r="Q20" s="79">
+        <v>0</v>
+      </c>
+      <c r="R20" s="67">
+        <v>44701</v>
+      </c>
+      <c r="S20" s="51">
+        <v>0</v>
+      </c>
+      <c r="T20" s="92" t="s">
+        <v>434</v>
+      </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
       <c r="W20" s="53"/>
@@ -47186,7 +47345,9 @@
       <c r="G21" s="62">
         <v>44700</v>
       </c>
-      <c r="H21" s="410"/>
+      <c r="H21" s="410" t="s">
+        <v>445</v>
+      </c>
       <c r="I21" s="411">
         <v>21840</v>
       </c>
@@ -47205,10 +47366,18 @@
       </c>
       <c r="O21" s="89"/>
       <c r="P21" s="90"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="92"/>
+      <c r="Q21" s="79">
+        <v>26900</v>
+      </c>
+      <c r="R21" s="67">
+        <v>44701</v>
+      </c>
+      <c r="S21" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T21" s="92" t="s">
+        <v>435</v>
+      </c>
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
       <c r="W21" s="53"/>
@@ -47230,7 +47399,9 @@
       <c r="G22" s="62">
         <v>44700</v>
       </c>
-      <c r="H22" s="410"/>
+      <c r="H22" s="410" t="s">
+        <v>445</v>
+      </c>
       <c r="I22" s="411">
         <v>5250</v>
       </c>
@@ -47249,16 +47420,24 @@
       </c>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="92"/>
+      <c r="Q22" s="79">
+        <v>0</v>
+      </c>
+      <c r="R22" s="67">
+        <v>44701</v>
+      </c>
+      <c r="S22" s="51">
+        <v>0</v>
+      </c>
+      <c r="T22" s="92" t="s">
+        <v>435</v>
+      </c>
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
       <c r="W22" s="53"/>
       <c r="X22" s="70"/>
     </row>
-    <row r="23" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
         <v>69</v>
       </c>
@@ -47274,7 +47453,9 @@
       <c r="G23" s="62">
         <v>44701</v>
       </c>
-      <c r="H23" s="410"/>
+      <c r="H23" s="410" t="s">
+        <v>446</v>
+      </c>
       <c r="I23" s="411">
         <v>21420</v>
       </c>
@@ -47293,10 +47474,18 @@
       </c>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="92"/>
+      <c r="Q23" s="79">
+        <v>26900</v>
+      </c>
+      <c r="R23" s="67">
+        <v>44701</v>
+      </c>
+      <c r="S23" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T23" s="92" t="s">
+        <v>436</v>
+      </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
       <c r="W23" s="53"/>
@@ -47304,7 +47493,7 @@
     </row>
     <row r="24" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
-        <v>437</v>
+        <v>25</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>32</v>
@@ -47318,7 +47507,9 @@
       <c r="G24" s="62">
         <v>44701</v>
       </c>
-      <c r="H24" s="410"/>
+      <c r="H24" s="410" t="s">
+        <v>446</v>
+      </c>
       <c r="I24" s="411">
         <v>5730</v>
       </c>
@@ -47337,10 +47528,18 @@
       </c>
       <c r="O24" s="397"/>
       <c r="P24" s="90"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="92"/>
+      <c r="Q24" s="79">
+        <v>0</v>
+      </c>
+      <c r="R24" s="67">
+        <v>44701</v>
+      </c>
+      <c r="S24" s="91">
+        <v>0</v>
+      </c>
+      <c r="T24" s="92" t="s">
+        <v>436</v>
+      </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
       <c r="W24" s="53"/>
@@ -49357,8 +49556,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49390,8 +49589,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49594,8 +49793,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -49627,8 +49826,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -55020,11 +55219,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>316015</v>
@@ -55131,12 +55330,12 @@
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>198936</v>
+        <v>306636</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>0</v>
+        <v>44800</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -55186,7 +55385,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>11471708.5</v>
+        <v>11624208.5</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="452">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1383,6 +1383,21 @@
   </si>
   <si>
     <t>20554--</t>
+  </si>
+  <si>
+    <t>0776 Z</t>
+  </si>
+  <si>
+    <t>0795 Z</t>
+  </si>
+  <si>
+    <t>0817 Z</t>
+  </si>
+  <si>
+    <t>0830 Z</t>
+  </si>
+  <si>
+    <t>0850 Z</t>
   </si>
 </sst>
 </file>
@@ -4031,78 +4046,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4136,11 +4079,83 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4170,12 +4185,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4209,6 +4218,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4540,18 +4555,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4565,22 +4580,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4634,10 +4649,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5181,7 +5196,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="517" t="s">
+      <c r="C12" s="493" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5245,7 +5260,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="518"/>
+      <c r="C13" s="494"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7247,13 +7262,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="496" t="s">
+      <c r="A56" s="505" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="498" t="s">
+      <c r="C56" s="507" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7264,7 +7279,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="500">
+      <c r="H56" s="499">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7293,11 +7308,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="497"/>
+      <c r="A57" s="506"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="499"/>
+      <c r="C57" s="508"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7306,7 +7321,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="501"/>
+      <c r="H57" s="500"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7333,13 +7348,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="496" t="s">
+      <c r="A58" s="505" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="498" t="s">
+      <c r="C58" s="507" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7350,7 +7365,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="500">
+      <c r="H58" s="499">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7369,10 +7384,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="502" t="s">
+      <c r="O58" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="523">
+      <c r="P58" s="503">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7383,11 +7398,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="497"/>
+      <c r="A59" s="506"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="499"/>
+      <c r="C59" s="508"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7396,7 +7411,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="501"/>
+      <c r="H59" s="500"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7413,8 +7428,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="503"/>
-      <c r="P59" s="524"/>
+      <c r="O59" s="502"/>
+      <c r="P59" s="504"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7423,13 +7438,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="521" t="s">
+      <c r="A60" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="519" t="s">
+      <c r="C60" s="495" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7443,7 +7458,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="500">
+      <c r="H60" s="499">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7462,10 +7477,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="502" t="s">
+      <c r="O60" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="523">
+      <c r="P60" s="503">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7478,11 +7493,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="522"/>
+      <c r="A61" s="498"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="520"/>
+      <c r="C61" s="496"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7494,7 +7509,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="501"/>
+      <c r="H61" s="500"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7511,8 +7526,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="503"/>
-      <c r="P61" s="524"/>
+      <c r="O61" s="502"/>
+      <c r="P61" s="504"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7578,7 +7593,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="490"/>
+      <c r="C63" s="521"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7586,7 +7601,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="492"/>
+      <c r="H63" s="523"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7615,7 +7630,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="491"/>
+      <c r="C64" s="522"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7623,7 +7638,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="493"/>
+      <c r="H64" s="524"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7801,8 +7816,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="494"/>
-      <c r="P68" s="488"/>
+      <c r="O68" s="513"/>
+      <c r="P68" s="519"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7836,8 +7851,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="495"/>
-      <c r="P69" s="489"/>
+      <c r="O69" s="514"/>
+      <c r="P69" s="520"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8327,8 +8342,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="494"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="513"/>
+      <c r="P82" s="515"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8360,8 +8375,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="495"/>
-      <c r="P83" s="509"/>
+      <c r="O83" s="514"/>
+      <c r="P83" s="516"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8393,8 +8408,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="494"/>
-      <c r="P84" s="508"/>
+      <c r="O84" s="513"/>
+      <c r="P84" s="515"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8426,8 +8441,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="495"/>
-      <c r="P85" s="509"/>
+      <c r="O85" s="514"/>
+      <c r="P85" s="516"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8585,8 +8600,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="510"/>
-      <c r="M90" s="511"/>
+      <c r="L90" s="517"/>
+      <c r="M90" s="518"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8618,8 +8633,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="510"/>
-      <c r="M91" s="511"/>
+      <c r="L91" s="517"/>
+      <c r="M91" s="518"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8822,8 +8837,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="494"/>
-      <c r="P97" s="504"/>
+      <c r="O97" s="513"/>
+      <c r="P97" s="509"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8855,8 +8870,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="495"/>
-      <c r="P98" s="505"/>
+      <c r="O98" s="514"/>
+      <c r="P98" s="510"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14248,11 +14263,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="506" t="s">
+      <c r="F262" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="506"/>
-      <c r="H262" s="507"/>
+      <c r="G262" s="511"/>
+      <c r="H262" s="512"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14826,6 +14841,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14839,22 +14870,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14898,18 +14913,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14925,22 +14940,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14994,10 +15009,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17639,7 +17654,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="498" t="s">
+      <c r="C55" s="507" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17650,7 +17665,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="492" t="s">
+      <c r="H55" s="523" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17683,7 +17698,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="499"/>
+      <c r="C56" s="508"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17692,7 +17707,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="493"/>
+      <c r="H56" s="524"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17738,7 +17753,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="492" t="s">
+      <c r="H57" s="523" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17757,10 +17772,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="494" t="s">
+      <c r="O57" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="488">
+      <c r="P57" s="519">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17784,7 +17799,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="493"/>
+      <c r="H58" s="524"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17828,7 +17843,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="492" t="s">
+      <c r="H59" s="523" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17872,7 +17887,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="493"/>
+      <c r="H60" s="524"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18535,8 +18550,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18565,8 +18580,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18595,8 +18610,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18628,8 +18643,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18787,8 +18802,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18820,8 +18835,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19024,8 +19039,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19057,8 +19072,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24450,11 +24465,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25028,12 +25043,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25049,6 +25058,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25095,18 +25110,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25122,22 +25137,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25191,10 +25206,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28408,7 +28423,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="498" t="s">
+      <c r="C55" s="507" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28419,7 +28434,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="538" t="s">
+      <c r="H55" s="536" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28438,10 +28453,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="494" t="s">
+      <c r="O55" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="488">
+      <c r="P55" s="519">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28452,11 +28467,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="537"/>
+      <c r="A56" s="535"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="499"/>
+      <c r="C56" s="508"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28465,7 +28480,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="539"/>
+      <c r="H56" s="537"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28482,8 +28497,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="495"/>
-      <c r="P56" s="489"/>
+      <c r="O56" s="514"/>
+      <c r="P56" s="520"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28544,13 +28559,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="521" t="s">
+      <c r="A58" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="535" t="s">
+      <c r="C58" s="546" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28561,7 +28576,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="546" t="s">
+      <c r="H58" s="544" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28580,10 +28595,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="502" t="s">
+      <c r="O58" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="523">
+      <c r="P58" s="503">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28594,11 +28609,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="522"/>
+      <c r="A59" s="498"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="536"/>
+      <c r="C59" s="547"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28607,7 +28622,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="547"/>
+      <c r="H59" s="545"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28624,8 +28639,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="503"/>
-      <c r="P59" s="524"/>
+      <c r="O59" s="502"/>
+      <c r="P59" s="504"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28698,13 +28713,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="540" t="s">
+      <c r="A62" s="538" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="542" t="s">
+      <c r="C62" s="540" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28715,7 +28730,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="544">
+      <c r="H62" s="542">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28734,10 +28749,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="494" t="s">
+      <c r="O62" s="513" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="488">
+      <c r="P62" s="519">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28748,11 +28763,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="541"/>
+      <c r="A63" s="539"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="543"/>
+      <c r="C63" s="541"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28761,7 +28776,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="545"/>
+      <c r="H63" s="543"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28778,8 +28793,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="495"/>
-      <c r="P63" s="489"/>
+      <c r="O63" s="514"/>
+      <c r="P63" s="520"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29258,8 +29273,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29288,8 +29303,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29318,8 +29333,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29351,8 +29366,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29510,8 +29525,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29543,8 +29558,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29747,8 +29762,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29780,8 +29795,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35173,11 +35188,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35751,6 +35766,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35767,17 +35793,6 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35824,18 +35839,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35851,22 +35866,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35920,10 +35935,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -39719,8 +39734,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39749,8 +39764,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39779,8 +39794,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39812,8 +39827,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -39971,8 +39986,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40004,8 +40019,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40208,8 +40223,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40241,8 +40256,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45634,11 +45649,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -46212,18 +46227,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
     <mergeCell ref="F259:H259"/>
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="P81:P82"/>
     <mergeCell ref="L87:M88"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="P94:P95"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46238,19 +46253,19 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="310" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -46270,18 +46285,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46297,22 +46312,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46366,10 +46381,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -46398,9 +46413,16 @@
       <c r="B4" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="39">
+        <v>50</v>
+      </c>
+      <c r="E4" s="40">
+        <f>D4*F4</f>
+        <v>899500</v>
+      </c>
       <c r="F4" s="41">
         <v>17990</v>
       </c>
@@ -46456,9 +46478,16 @@
       <c r="B5" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="60">
+        <v>50</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" ref="E5:E37" si="2">D5*F5</f>
+        <v>944500</v>
+      </c>
       <c r="F5" s="61">
         <v>18890</v>
       </c>
@@ -46514,9 +46543,16 @@
       <c r="B6" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="60">
+        <v>50</v>
+      </c>
+      <c r="E6" s="40">
+        <f t="shared" si="2"/>
+        <v>1157500</v>
+      </c>
       <c r="F6" s="61">
         <v>23150</v>
       </c>
@@ -46572,9 +46608,16 @@
       <c r="B7" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="61">
         <v>0</v>
       </c>
@@ -46630,9 +46673,16 @@
       <c r="B8" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="60">
+        <v>50</v>
+      </c>
+      <c r="E8" s="40">
+        <f t="shared" si="2"/>
+        <v>876500</v>
+      </c>
       <c r="F8" s="61">
         <v>17530</v>
       </c>
@@ -46688,9 +46738,16 @@
       <c r="B9" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="60">
+        <v>50</v>
+      </c>
+      <c r="E9" s="40">
+        <f t="shared" si="2"/>
+        <v>1058000</v>
+      </c>
       <c r="F9" s="61">
         <v>21160</v>
       </c>
@@ -46742,9 +46799,16 @@
       <c r="B10" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="40"/>
+      <c r="C10" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="72">
+        <v>0</v>
+      </c>
+      <c r="E10" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="61">
         <v>0</v>
       </c>
@@ -46798,7 +46862,10 @@
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="61">
         <v>21750</v>
       </c>
@@ -46852,7 +46919,10 @@
       </c>
       <c r="C12" s="431"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="61">
         <v>0</v>
       </c>
@@ -46906,7 +46976,10 @@
       </c>
       <c r="C13" s="432"/>
       <c r="D13" s="60"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="61">
         <v>22140</v>
       </c>
@@ -46960,7 +47033,10 @@
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="61">
         <v>0</v>
       </c>
@@ -47014,7 +47090,10 @@
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="61">
         <v>23140</v>
       </c>
@@ -47068,7 +47147,10 @@
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="60"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="61">
         <v>0</v>
       </c>
@@ -47122,7 +47204,10 @@
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="61">
         <v>21750</v>
       </c>
@@ -47176,7 +47261,10 @@
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="61">
         <v>0</v>
       </c>
@@ -47230,7 +47318,10 @@
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F19" s="61">
         <v>20890</v>
       </c>
@@ -47284,7 +47375,10 @@
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="61">
         <v>0</v>
       </c>
@@ -47338,7 +47432,10 @@
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F21" s="61">
         <v>21320</v>
       </c>
@@ -47392,7 +47489,10 @@
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="61">
         <v>0</v>
       </c>
@@ -47446,7 +47546,10 @@
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F23" s="61">
         <v>21550</v>
       </c>
@@ -47500,7 +47603,10 @@
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F24" s="61">
         <v>0</v>
       </c>
@@ -47550,7 +47656,10 @@
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
       <c r="D25" s="60"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F25" s="61"/>
       <c r="G25" s="62"/>
       <c r="H25" s="410"/>
@@ -47582,7 +47691,10 @@
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
       <c r="D26" s="60"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F26" s="61"/>
       <c r="G26" s="62"/>
       <c r="H26" s="410"/>
@@ -47614,7 +47726,10 @@
       <c r="B27" s="58"/>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F27" s="61"/>
       <c r="G27" s="62"/>
       <c r="H27" s="410"/>
@@ -47646,7 +47761,10 @@
       <c r="B28" s="58"/>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F28" s="61"/>
       <c r="G28" s="62"/>
       <c r="H28" s="410"/>
@@ -47678,7 +47796,10 @@
       <c r="B29" s="93"/>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F29" s="61"/>
       <c r="G29" s="62"/>
       <c r="H29" s="410"/>
@@ -47710,7 +47831,10 @@
       <c r="B30" s="93"/>
       <c r="C30" s="59"/>
       <c r="D30" s="60"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F30" s="61"/>
       <c r="G30" s="62"/>
       <c r="H30" s="410"/>
@@ -47742,7 +47866,10 @@
       <c r="B31" s="93"/>
       <c r="C31" s="59"/>
       <c r="D31" s="60"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F31" s="61"/>
       <c r="G31" s="62"/>
       <c r="H31" s="410"/>
@@ -47774,7 +47901,10 @@
       <c r="B32" s="93"/>
       <c r="C32" s="59"/>
       <c r="D32" s="60"/>
-      <c r="E32" s="40"/>
+      <c r="E32" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F32" s="61"/>
       <c r="G32" s="62"/>
       <c r="H32" s="410"/>
@@ -47806,7 +47936,10 @@
       <c r="B33" s="93"/>
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F33" s="61"/>
       <c r="G33" s="62"/>
       <c r="H33" s="410"/>
@@ -47838,7 +47971,10 @@
       <c r="B34" s="93"/>
       <c r="C34" s="59"/>
       <c r="D34" s="60"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F34" s="61"/>
       <c r="G34" s="62"/>
       <c r="H34" s="410"/>
@@ -47870,7 +48006,10 @@
       <c r="B35" s="93"/>
       <c r="C35" s="59"/>
       <c r="D35" s="60"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F35" s="61"/>
       <c r="G35" s="62"/>
       <c r="H35" s="410"/>
@@ -47902,7 +48041,10 @@
       <c r="B36" s="93"/>
       <c r="C36" s="59"/>
       <c r="D36" s="60"/>
-      <c r="E36" s="40"/>
+      <c r="E36" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F36" s="61"/>
       <c r="G36" s="62"/>
       <c r="H36" s="410"/>
@@ -47934,7 +48076,10 @@
       <c r="B37" s="93"/>
       <c r="C37" s="59"/>
       <c r="D37" s="60"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F37" s="61"/>
       <c r="G37" s="62"/>
       <c r="H37" s="410"/>
@@ -47967,7 +48112,7 @@
       <c r="C38" s="59"/>
       <c r="D38" s="60"/>
       <c r="E38" s="40">
-        <f t="shared" ref="E38:E40" si="2">D38*F38</f>
+        <f t="shared" ref="E38:E40" si="3">D38*F38</f>
         <v>0</v>
       </c>
       <c r="F38" s="61"/>
@@ -48002,7 +48147,7 @@
       <c r="C39" s="59"/>
       <c r="D39" s="60"/>
       <c r="E39" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" s="61"/>
@@ -48037,7 +48182,7 @@
       <c r="C40" s="59"/>
       <c r="D40" s="60"/>
       <c r="E40" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" s="61"/>
@@ -48072,7 +48217,7 @@
       <c r="C41" s="59"/>
       <c r="D41" s="60"/>
       <c r="E41" s="40">
-        <f t="shared" ref="E41" si="3">F41*D41</f>
+        <f t="shared" ref="E41" si="4">F41*D41</f>
         <v>0</v>
       </c>
       <c r="F41" s="61"/>
@@ -48107,7 +48252,7 @@
       <c r="C42" s="108"/>
       <c r="D42" s="109"/>
       <c r="E42" s="40">
-        <f t="shared" ref="E42:E106" si="4">D42*F42</f>
+        <f t="shared" ref="E42:E106" si="5">D42*F42</f>
         <v>0</v>
       </c>
       <c r="F42" s="61"/>
@@ -48142,7 +48287,7 @@
       <c r="C43" s="59"/>
       <c r="D43" s="109"/>
       <c r="E43" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F43" s="61"/>
@@ -48177,7 +48322,7 @@
       <c r="C44" s="59"/>
       <c r="D44" s="109"/>
       <c r="E44" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F44" s="61"/>
@@ -48212,7 +48357,7 @@
       <c r="C45" s="59"/>
       <c r="D45" s="109"/>
       <c r="E45" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F45" s="61"/>
@@ -48247,7 +48392,7 @@
       <c r="C46" s="115"/>
       <c r="D46" s="109"/>
       <c r="E46" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F46" s="116"/>
@@ -48282,7 +48427,7 @@
       <c r="C47" s="119"/>
       <c r="D47" s="109"/>
       <c r="E47" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F47" s="116"/>
@@ -48317,7 +48462,7 @@
       <c r="C48" s="119"/>
       <c r="D48" s="109"/>
       <c r="E48" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F48" s="116"/>
@@ -48351,7 +48496,7 @@
       <c r="C49" s="119"/>
       <c r="D49" s="109"/>
       <c r="E49" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F49" s="116"/>
@@ -48385,7 +48530,7 @@
       <c r="C50" s="119"/>
       <c r="D50" s="109"/>
       <c r="E50" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F50" s="116"/>
@@ -48418,7 +48563,7 @@
       <c r="C51" s="119"/>
       <c r="D51" s="119"/>
       <c r="E51" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F51" s="116"/>
@@ -48451,7 +48596,7 @@
       <c r="C52" s="119"/>
       <c r="D52" s="119"/>
       <c r="E52" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F52" s="64"/>
@@ -48484,7 +48629,7 @@
       <c r="C53" s="132"/>
       <c r="D53" s="132"/>
       <c r="E53" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F53" s="133"/>
@@ -49379,7 +49524,7 @@
       <c r="C82" s="183"/>
       <c r="D82" s="190"/>
       <c r="E82" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F82" s="151"/>
@@ -49412,7 +49557,7 @@
       <c r="C83" s="191"/>
       <c r="D83" s="192"/>
       <c r="E83" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F83" s="151"/>
@@ -49445,7 +49590,7 @@
       <c r="C84" s="193"/>
       <c r="D84" s="192"/>
       <c r="E84" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F84" s="151"/>
@@ -49478,7 +49623,7 @@
       <c r="C85" s="192"/>
       <c r="D85" s="195"/>
       <c r="E85" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F85" s="151"/>
@@ -49511,7 +49656,7 @@
       <c r="C86" s="189"/>
       <c r="D86" s="197"/>
       <c r="E86" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F86" s="64"/>
@@ -49544,7 +49689,7 @@
       <c r="C87" s="199"/>
       <c r="D87" s="197"/>
       <c r="E87" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F87" s="64"/>
@@ -49556,8 +49701,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49577,7 +49722,7 @@
       <c r="C88" s="200"/>
       <c r="D88" s="197"/>
       <c r="E88" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F88" s="64"/>
@@ -49589,8 +49734,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49610,7 +49755,7 @@
       <c r="C89" s="202"/>
       <c r="D89" s="197"/>
       <c r="E89" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F89" s="64"/>
@@ -49643,7 +49788,7 @@
       <c r="C90" s="205"/>
       <c r="D90" s="197"/>
       <c r="E90" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F90" s="64"/>
@@ -49676,7 +49821,7 @@
       <c r="C91" s="197"/>
       <c r="D91" s="197"/>
       <c r="E91" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F91" s="64"/>
@@ -49709,7 +49854,7 @@
       <c r="C92" s="197"/>
       <c r="D92" s="197"/>
       <c r="E92" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F92" s="64"/>
@@ -49742,7 +49887,7 @@
       <c r="C93" s="197"/>
       <c r="D93" s="197"/>
       <c r="E93" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F93" s="64"/>
@@ -49775,7 +49920,7 @@
       <c r="C94" s="189"/>
       <c r="D94" s="197"/>
       <c r="E94" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F94" s="64"/>
@@ -49793,8 +49938,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -49808,7 +49953,7 @@
       <c r="C95" s="189"/>
       <c r="D95" s="197"/>
       <c r="E95" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F95" s="64"/>
@@ -49826,8 +49971,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -49841,7 +49986,7 @@
       <c r="C96" s="197"/>
       <c r="D96" s="197"/>
       <c r="E96" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F96" s="64"/>
@@ -49874,7 +50019,7 @@
       <c r="C97" s="197"/>
       <c r="D97" s="197"/>
       <c r="E97" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F97" s="64"/>
@@ -49907,7 +50052,7 @@
       <c r="C98" s="207"/>
       <c r="D98" s="207"/>
       <c r="E98" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F98" s="64"/>
@@ -49940,7 +50085,7 @@
       <c r="C99" s="202"/>
       <c r="D99" s="202"/>
       <c r="E99" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F99" s="64"/>
@@ -49973,7 +50118,7 @@
       <c r="C100" s="207"/>
       <c r="D100" s="207"/>
       <c r="E100" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F100" s="64"/>
@@ -50006,7 +50151,7 @@
       <c r="C101" s="207"/>
       <c r="D101" s="207"/>
       <c r="E101" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F101" s="64"/>
@@ -50039,7 +50184,7 @@
       <c r="C102" s="207"/>
       <c r="D102" s="207"/>
       <c r="E102" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F102" s="64"/>
@@ -50072,7 +50217,7 @@
       <c r="C103" s="207"/>
       <c r="D103" s="207"/>
       <c r="E103" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F103" s="64"/>
@@ -50105,7 +50250,7 @@
       <c r="C104" s="207"/>
       <c r="D104" s="207"/>
       <c r="E104" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F104" s="64"/>
@@ -50138,7 +50283,7 @@
       <c r="C105" s="207"/>
       <c r="D105" s="207"/>
       <c r="E105" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F105" s="64"/>
@@ -50171,7 +50316,7 @@
       <c r="C106" s="207"/>
       <c r="D106" s="207"/>
       <c r="E106" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F106" s="64"/>
@@ -50204,7 +50349,7 @@
       <c r="C107" s="207"/>
       <c r="D107" s="207"/>
       <c r="E107" s="60">
-        <f t="shared" ref="E107:E176" si="5">D107*F107</f>
+        <f t="shared" ref="E107:E176" si="6">D107*F107</f>
         <v>0</v>
       </c>
       <c r="F107" s="64"/>
@@ -50237,7 +50382,7 @@
       <c r="C108" s="207"/>
       <c r="D108" s="207"/>
       <c r="E108" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F108" s="64"/>
@@ -50270,7 +50415,7 @@
       <c r="C109" s="384"/>
       <c r="D109" s="384"/>
       <c r="E109" s="385">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F109" s="44"/>
@@ -50303,7 +50448,7 @@
       <c r="C110" s="207"/>
       <c r="D110" s="207"/>
       <c r="E110" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F110" s="64"/>
@@ -50336,7 +50481,7 @@
       <c r="C111" s="207"/>
       <c r="D111" s="207"/>
       <c r="E111" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F111" s="64"/>
@@ -50369,7 +50514,7 @@
       <c r="C112" s="207"/>
       <c r="D112" s="207"/>
       <c r="E112" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F112" s="64"/>
@@ -50402,7 +50547,7 @@
       <c r="C113" s="207"/>
       <c r="D113" s="207"/>
       <c r="E113" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F113" s="64"/>
@@ -50435,7 +50580,7 @@
       <c r="C114" s="207"/>
       <c r="D114" s="207"/>
       <c r="E114" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F114" s="64"/>
@@ -50468,7 +50613,7 @@
       <c r="C115" s="207"/>
       <c r="D115" s="207"/>
       <c r="E115" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F115" s="64"/>
@@ -50483,7 +50628,7 @@
       <c r="L115" s="99"/>
       <c r="M115" s="99"/>
       <c r="N115" s="48">
-        <f t="shared" ref="N115:N178" si="6">K115*I115</f>
+        <f t="shared" ref="N115:N178" si="7">K115*I115</f>
         <v>0</v>
       </c>
       <c r="O115" s="164"/>
@@ -50501,7 +50646,7 @@
       <c r="C116" s="207"/>
       <c r="D116" s="207"/>
       <c r="E116" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F116" s="64"/>
@@ -50516,7 +50661,7 @@
       <c r="L116" s="99"/>
       <c r="M116" s="99"/>
       <c r="N116" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O116" s="164"/>
@@ -50534,7 +50679,7 @@
       <c r="C117" s="207"/>
       <c r="D117" s="207"/>
       <c r="E117" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F117" s="64"/>
@@ -50549,7 +50694,7 @@
       <c r="L117" s="99"/>
       <c r="M117" s="99"/>
       <c r="N117" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O117" s="164"/>
@@ -50567,7 +50712,7 @@
       <c r="C118" s="207"/>
       <c r="D118" s="207"/>
       <c r="E118" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F118" s="64"/>
@@ -50582,7 +50727,7 @@
       <c r="L118" s="99"/>
       <c r="M118" s="99"/>
       <c r="N118" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O118" s="164"/>
@@ -50600,7 +50745,7 @@
       <c r="C119" s="207"/>
       <c r="D119" s="207"/>
       <c r="E119" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F119" s="64"/>
@@ -50615,7 +50760,7 @@
       <c r="L119" s="99"/>
       <c r="M119" s="99"/>
       <c r="N119" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O119" s="164"/>
@@ -50633,7 +50778,7 @@
       <c r="C120" s="207"/>
       <c r="D120" s="207"/>
       <c r="E120" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F120" s="64"/>
@@ -50648,7 +50793,7 @@
       <c r="L120" s="99"/>
       <c r="M120" s="99"/>
       <c r="N120" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O120" s="164"/>
@@ -50666,7 +50811,7 @@
       <c r="C121" s="205"/>
       <c r="D121" s="205"/>
       <c r="E121" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F121" s="64"/>
@@ -50681,7 +50826,7 @@
       <c r="L121" s="99"/>
       <c r="M121" s="99"/>
       <c r="N121" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O121" s="164"/>
@@ -50699,7 +50844,7 @@
       <c r="C122" s="207"/>
       <c r="D122" s="207"/>
       <c r="E122" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F122" s="64"/>
@@ -50714,7 +50859,7 @@
       <c r="L122" s="99"/>
       <c r="M122" s="99"/>
       <c r="N122" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O122" s="164"/>
@@ -50732,7 +50877,7 @@
       <c r="C123" s="205"/>
       <c r="D123" s="205"/>
       <c r="E123" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F123" s="64"/>
@@ -50747,7 +50892,7 @@
       <c r="L123" s="99"/>
       <c r="M123" s="99"/>
       <c r="N123" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O123" s="164"/>
@@ -50765,7 +50910,7 @@
       <c r="C124" s="207"/>
       <c r="D124" s="207"/>
       <c r="E124" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F124" s="64"/>
@@ -50780,7 +50925,7 @@
       <c r="L124" s="99"/>
       <c r="M124" s="99"/>
       <c r="N124" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O124" s="164"/>
@@ -50798,7 +50943,7 @@
       <c r="C125" s="202"/>
       <c r="D125" s="202"/>
       <c r="E125" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F125" s="64"/>
@@ -50813,7 +50958,7 @@
       <c r="L125" s="99"/>
       <c r="M125" s="99"/>
       <c r="N125" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O125" s="164"/>
@@ -50831,7 +50976,7 @@
       <c r="C126" s="207"/>
       <c r="D126" s="207"/>
       <c r="E126" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F126" s="64"/>
@@ -50846,7 +50991,7 @@
       <c r="L126" s="99"/>
       <c r="M126" s="99"/>
       <c r="N126" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O126" s="164"/>
@@ -50864,7 +51009,7 @@
       <c r="C127" s="207"/>
       <c r="D127" s="207"/>
       <c r="E127" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F127" s="64"/>
@@ -50879,7 +51024,7 @@
       <c r="L127" s="99"/>
       <c r="M127" s="99"/>
       <c r="N127" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O127" s="164"/>
@@ -50897,7 +51042,7 @@
       <c r="C128" s="207"/>
       <c r="D128" s="207"/>
       <c r="E128" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F128" s="64"/>
@@ -50912,7 +51057,7 @@
       <c r="L128" s="99"/>
       <c r="M128" s="99"/>
       <c r="N128" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O128" s="164"/>
@@ -50930,7 +51075,7 @@
       <c r="C129" s="207"/>
       <c r="D129" s="207"/>
       <c r="E129" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F129" s="64"/>
@@ -50945,7 +51090,7 @@
       <c r="L129" s="99"/>
       <c r="M129" s="99"/>
       <c r="N129" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O129" s="164"/>
@@ -50963,7 +51108,7 @@
       <c r="C130" s="207"/>
       <c r="D130" s="207"/>
       <c r="E130" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F130" s="64"/>
@@ -50978,7 +51123,7 @@
       <c r="L130" s="99"/>
       <c r="M130" s="99"/>
       <c r="N130" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O130" s="98"/>
@@ -50996,7 +51141,7 @@
       <c r="C131" s="207"/>
       <c r="D131" s="207"/>
       <c r="E131" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F131" s="64"/>
@@ -51011,7 +51156,7 @@
       <c r="L131" s="99"/>
       <c r="M131" s="99"/>
       <c r="N131" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O131" s="98"/>
@@ -51029,7 +51174,7 @@
       <c r="C132" s="219"/>
       <c r="D132" s="219"/>
       <c r="E132" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F132" s="64"/>
@@ -51044,7 +51189,7 @@
       <c r="L132" s="99"/>
       <c r="M132" s="99"/>
       <c r="N132" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O132" s="98"/>
@@ -51062,7 +51207,7 @@
       <c r="C133" s="219"/>
       <c r="D133" s="219"/>
       <c r="E133" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F133" s="64"/>
@@ -51077,7 +51222,7 @@
       <c r="L133" s="99"/>
       <c r="M133" s="99"/>
       <c r="N133" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O133" s="98"/>
@@ -51095,7 +51240,7 @@
       <c r="C134" s="219"/>
       <c r="D134" s="219"/>
       <c r="E134" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F134" s="64"/>
@@ -51110,7 +51255,7 @@
       <c r="L134" s="99"/>
       <c r="M134" s="99"/>
       <c r="N134" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O134" s="98"/>
@@ -51128,7 +51273,7 @@
       <c r="C135" s="219"/>
       <c r="D135" s="219"/>
       <c r="E135" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F135" s="64"/>
@@ -51143,7 +51288,7 @@
       <c r="L135" s="99"/>
       <c r="M135" s="99"/>
       <c r="N135" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O135" s="98"/>
@@ -51161,7 +51306,7 @@
       <c r="C136" s="219"/>
       <c r="D136" s="219"/>
       <c r="E136" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F136" s="64"/>
@@ -51176,7 +51321,7 @@
       <c r="L136" s="99"/>
       <c r="M136" s="99"/>
       <c r="N136" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O136" s="98"/>
@@ -51194,7 +51339,7 @@
       <c r="C137" s="207"/>
       <c r="D137" s="207"/>
       <c r="E137" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F137" s="64"/>
@@ -51209,7 +51354,7 @@
       <c r="L137" s="99"/>
       <c r="M137" s="99"/>
       <c r="N137" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O137" s="98"/>
@@ -51227,7 +51372,7 @@
       <c r="C138" s="200"/>
       <c r="D138" s="200"/>
       <c r="E138" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F138" s="64"/>
@@ -51242,7 +51387,7 @@
       <c r="L138" s="99"/>
       <c r="M138" s="99"/>
       <c r="N138" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O138" s="98"/>
@@ -51260,7 +51405,7 @@
       <c r="C139" s="200"/>
       <c r="D139" s="200"/>
       <c r="E139" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F139" s="64"/>
@@ -51275,7 +51420,7 @@
       <c r="L139" s="99"/>
       <c r="M139" s="99"/>
       <c r="N139" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O139" s="98"/>
@@ -51293,7 +51438,7 @@
       <c r="C140" s="200"/>
       <c r="D140" s="200"/>
       <c r="E140" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F140" s="64"/>
@@ -51308,7 +51453,7 @@
       <c r="L140" s="99"/>
       <c r="M140" s="99"/>
       <c r="N140" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O140" s="98"/>
@@ -51326,7 +51471,7 @@
       <c r="C141" s="207"/>
       <c r="D141" s="207"/>
       <c r="E141" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F141" s="64"/>
@@ -51341,7 +51486,7 @@
       <c r="L141" s="99"/>
       <c r="M141" s="99"/>
       <c r="N141" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O141" s="98"/>
@@ -51359,7 +51504,7 @@
       <c r="C142" s="207"/>
       <c r="D142" s="207"/>
       <c r="E142" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F142" s="64"/>
@@ -51374,7 +51519,7 @@
       <c r="L142" s="99"/>
       <c r="M142" s="99"/>
       <c r="N142" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O142" s="98"/>
@@ -51392,7 +51537,7 @@
       <c r="C143" s="207"/>
       <c r="D143" s="207"/>
       <c r="E143" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F143" s="64"/>
@@ -51407,7 +51552,7 @@
       <c r="L143" s="99"/>
       <c r="M143" s="99"/>
       <c r="N143" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O143" s="98"/>
@@ -51425,7 +51570,7 @@
       <c r="C144" s="207"/>
       <c r="D144" s="207"/>
       <c r="E144" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F144" s="64"/>
@@ -51440,7 +51585,7 @@
       <c r="L144" s="99"/>
       <c r="M144" s="99"/>
       <c r="N144" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O144" s="98"/>
@@ -51458,7 +51603,7 @@
       <c r="C145" s="207"/>
       <c r="D145" s="207"/>
       <c r="E145" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F145" s="64"/>
@@ -51473,7 +51618,7 @@
       <c r="L145" s="99"/>
       <c r="M145" s="99"/>
       <c r="N145" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O145" s="227"/>
@@ -51491,7 +51636,7 @@
       <c r="C146" s="207"/>
       <c r="D146" s="207"/>
       <c r="E146" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F146" s="64"/>
@@ -51506,7 +51651,7 @@
       <c r="L146" s="99"/>
       <c r="M146" s="99"/>
       <c r="N146" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O146" s="234"/>
@@ -51524,7 +51669,7 @@
       <c r="C147" s="207"/>
       <c r="D147" s="207"/>
       <c r="E147" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F147" s="64"/>
@@ -51539,7 +51684,7 @@
       <c r="L147" s="99"/>
       <c r="M147" s="99"/>
       <c r="N147" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O147" s="234"/>
@@ -51557,7 +51702,7 @@
       <c r="C148" s="207"/>
       <c r="D148" s="207"/>
       <c r="E148" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F148" s="64"/>
@@ -51574,7 +51719,7 @@
         <v>25</v>
       </c>
       <c r="N148" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O148" s="227"/>
@@ -51592,7 +51737,7 @@
       <c r="C149" s="207"/>
       <c r="D149" s="207"/>
       <c r="E149" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F149" s="64"/>
@@ -51607,7 +51752,7 @@
       <c r="L149" s="99"/>
       <c r="M149" s="99"/>
       <c r="N149" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O149" s="234"/>
@@ -51625,7 +51770,7 @@
       <c r="C150" s="237"/>
       <c r="D150" s="237"/>
       <c r="E150" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F150" s="64"/>
@@ -51640,7 +51785,7 @@
       <c r="L150" s="99"/>
       <c r="M150" s="99"/>
       <c r="N150" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O150" s="239"/>
@@ -51658,7 +51803,7 @@
       <c r="C151" s="207"/>
       <c r="D151" s="207"/>
       <c r="E151" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F151" s="64"/>
@@ -51666,14 +51811,14 @@
       <c r="H151" s="212"/>
       <c r="I151" s="64"/>
       <c r="J151" s="45">
-        <f t="shared" ref="J151:J214" si="7">I151-F151</f>
+        <f t="shared" ref="J151:J214" si="8">I151-F151</f>
         <v>0</v>
       </c>
       <c r="K151" s="236"/>
       <c r="L151" s="242"/>
       <c r="M151" s="242"/>
       <c r="N151" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O151" s="239"/>
@@ -51691,7 +51836,7 @@
       <c r="C152" s="207"/>
       <c r="D152" s="207"/>
       <c r="E152" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F152" s="64"/>
@@ -51699,14 +51844,14 @@
       <c r="H152" s="212"/>
       <c r="I152" s="64"/>
       <c r="J152" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K152" s="236"/>
       <c r="L152" s="242"/>
       <c r="M152" s="242"/>
       <c r="N152" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O152" s="98"/>
@@ -51724,7 +51869,7 @@
       <c r="C153" s="207"/>
       <c r="D153" s="207"/>
       <c r="E153" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F153" s="64"/>
@@ -51732,14 +51877,14 @@
       <c r="H153" s="243"/>
       <c r="I153" s="64"/>
       <c r="J153" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K153" s="244"/>
       <c r="L153" s="242"/>
       <c r="M153" s="242"/>
       <c r="N153" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O153" s="234"/>
@@ -51757,7 +51902,7 @@
       <c r="C154" s="207"/>
       <c r="D154" s="207"/>
       <c r="E154" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F154" s="64"/>
@@ -51765,14 +51910,14 @@
       <c r="H154" s="212"/>
       <c r="I154" s="64"/>
       <c r="J154" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K154" s="246"/>
       <c r="L154" s="247"/>
       <c r="M154" s="247"/>
       <c r="N154" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O154" s="227"/>
@@ -51790,7 +51935,7 @@
       <c r="C155" s="207"/>
       <c r="D155" s="207"/>
       <c r="E155" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F155" s="249"/>
@@ -51798,14 +51943,14 @@
       <c r="H155" s="224"/>
       <c r="I155" s="64"/>
       <c r="J155" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K155" s="246"/>
       <c r="L155" s="250"/>
       <c r="M155" s="250"/>
       <c r="N155" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O155" s="234"/>
@@ -51823,7 +51968,7 @@
       <c r="C156" s="207"/>
       <c r="D156" s="207"/>
       <c r="E156" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F156" s="64"/>
@@ -51831,14 +51976,14 @@
       <c r="H156" s="212"/>
       <c r="I156" s="64"/>
       <c r="J156" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K156" s="246"/>
       <c r="L156" s="242"/>
       <c r="M156" s="242"/>
       <c r="N156" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O156" s="227"/>
@@ -51856,7 +52001,7 @@
       <c r="C157" s="207"/>
       <c r="D157" s="207"/>
       <c r="E157" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F157" s="64"/>
@@ -51864,14 +52009,14 @@
       <c r="H157" s="251"/>
       <c r="I157" s="64"/>
       <c r="J157" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K157" s="100"/>
       <c r="L157" s="242"/>
       <c r="M157" s="242"/>
       <c r="N157" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O157" s="227"/>
@@ -51889,7 +52034,7 @@
       <c r="C158" s="207"/>
       <c r="D158" s="207"/>
       <c r="E158" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F158" s="64"/>
@@ -51897,14 +52042,14 @@
       <c r="H158" s="226"/>
       <c r="I158" s="64"/>
       <c r="J158" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K158" s="246"/>
       <c r="L158" s="242"/>
       <c r="M158" s="242"/>
       <c r="N158" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O158" s="227"/>
@@ -51922,7 +52067,7 @@
       <c r="C159" s="207"/>
       <c r="D159" s="207"/>
       <c r="E159" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F159" s="64"/>
@@ -51930,14 +52075,14 @@
       <c r="H159" s="252"/>
       <c r="I159" s="64"/>
       <c r="J159" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K159" s="246"/>
       <c r="L159" s="242"/>
       <c r="M159" s="242"/>
       <c r="N159" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O159" s="227"/>
@@ -51955,7 +52100,7 @@
       <c r="C160" s="207"/>
       <c r="D160" s="207"/>
       <c r="E160" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F160" s="64"/>
@@ -51963,14 +52108,14 @@
       <c r="H160" s="253"/>
       <c r="I160" s="64"/>
       <c r="J160" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K160" s="246"/>
       <c r="L160" s="254"/>
       <c r="M160" s="254"/>
       <c r="N160" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O160" s="227"/>
@@ -51988,7 +52133,7 @@
       <c r="C161" s="207"/>
       <c r="D161" s="207"/>
       <c r="E161" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F161" s="64"/>
@@ -51996,14 +52141,14 @@
       <c r="H161" s="252"/>
       <c r="I161" s="64"/>
       <c r="J161" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K161" s="246"/>
       <c r="L161" s="254"/>
       <c r="M161" s="254"/>
       <c r="N161" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O161" s="227"/>
@@ -52021,7 +52166,7 @@
       <c r="C162" s="207"/>
       <c r="D162" s="207"/>
       <c r="E162" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F162" s="64"/>
@@ -52029,14 +52174,14 @@
       <c r="H162" s="252"/>
       <c r="I162" s="64"/>
       <c r="J162" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K162" s="246"/>
       <c r="L162" s="254"/>
       <c r="M162" s="254"/>
       <c r="N162" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O162" s="227"/>
@@ -52054,7 +52199,7 @@
       <c r="C163" s="207"/>
       <c r="D163" s="207"/>
       <c r="E163" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F163" s="64"/>
@@ -52062,14 +52207,14 @@
       <c r="H163" s="252"/>
       <c r="I163" s="64"/>
       <c r="J163" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K163" s="100"/>
       <c r="L163" s="99"/>
       <c r="M163" s="99"/>
       <c r="N163" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O163" s="227"/>
@@ -52087,7 +52232,7 @@
       <c r="C164" s="255"/>
       <c r="D164" s="255"/>
       <c r="E164" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F164" s="64"/>
@@ -52095,14 +52240,14 @@
       <c r="H164" s="252"/>
       <c r="I164" s="64"/>
       <c r="J164" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K164" s="100"/>
       <c r="L164" s="99"/>
       <c r="M164" s="99"/>
       <c r="N164" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O164" s="234"/>
@@ -52120,7 +52265,7 @@
       <c r="C165" s="255"/>
       <c r="D165" s="255"/>
       <c r="E165" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F165" s="64"/>
@@ -52128,14 +52273,14 @@
       <c r="H165" s="252"/>
       <c r="I165" s="64"/>
       <c r="J165" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K165" s="100"/>
       <c r="L165" s="99"/>
       <c r="M165" s="99"/>
       <c r="N165" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O165" s="234"/>
@@ -52153,7 +52298,7 @@
       <c r="C166" s="237"/>
       <c r="D166" s="237"/>
       <c r="E166" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F166" s="64"/>
@@ -52161,14 +52306,14 @@
       <c r="H166" s="238"/>
       <c r="I166" s="64"/>
       <c r="J166" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K166" s="100"/>
       <c r="L166" s="99"/>
       <c r="M166" s="99"/>
       <c r="N166" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O166" s="98"/>
@@ -52186,7 +52331,7 @@
       <c r="C167" s="257"/>
       <c r="D167" s="257"/>
       <c r="E167" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F167" s="64"/>
@@ -52194,14 +52339,14 @@
       <c r="H167" s="63"/>
       <c r="I167" s="64"/>
       <c r="J167" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K167" s="100"/>
       <c r="L167" s="99"/>
       <c r="M167" s="99"/>
       <c r="N167" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O167" s="98"/>
@@ -52219,7 +52364,7 @@
       <c r="C168" s="237"/>
       <c r="D168" s="237"/>
       <c r="E168" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F168" s="64"/>
@@ -52227,14 +52372,14 @@
       <c r="H168" s="238"/>
       <c r="I168" s="64"/>
       <c r="J168" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K168" s="100"/>
       <c r="L168" s="99"/>
       <c r="M168" s="99"/>
       <c r="N168" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O168" s="98"/>
@@ -52252,7 +52397,7 @@
       <c r="C169" s="219"/>
       <c r="D169" s="219"/>
       <c r="E169" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F169" s="64"/>
@@ -52260,14 +52405,14 @@
       <c r="H169" s="238"/>
       <c r="I169" s="64"/>
       <c r="J169" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K169" s="100"/>
       <c r="L169" s="99"/>
       <c r="M169" s="99"/>
       <c r="N169" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O169" s="239"/>
@@ -52285,7 +52430,7 @@
       <c r="C170" s="260"/>
       <c r="D170" s="260"/>
       <c r="E170" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F170" s="64"/>
@@ -52293,14 +52438,14 @@
       <c r="H170" s="238"/>
       <c r="I170" s="64"/>
       <c r="J170" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K170" s="100"/>
       <c r="L170" s="99"/>
       <c r="M170" s="99"/>
       <c r="N170" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O170" s="98"/>
@@ -52318,7 +52463,7 @@
       <c r="C171" s="260"/>
       <c r="D171" s="260"/>
       <c r="E171" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F171" s="64"/>
@@ -52326,14 +52471,14 @@
       <c r="H171" s="238"/>
       <c r="I171" s="64"/>
       <c r="J171" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K171" s="100"/>
       <c r="L171" s="99"/>
       <c r="M171" s="99"/>
       <c r="N171" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O171" s="98"/>
@@ -52351,7 +52496,7 @@
       <c r="C172" s="262"/>
       <c r="D172" s="262"/>
       <c r="E172" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F172" s="64"/>
@@ -52359,14 +52504,14 @@
       <c r="H172" s="238"/>
       <c r="I172" s="64"/>
       <c r="J172" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K172" s="100"/>
       <c r="L172" s="99"/>
       <c r="M172" s="99"/>
       <c r="N172" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O172" s="98"/>
@@ -52384,7 +52529,7 @@
       <c r="C173" s="263"/>
       <c r="D173" s="263"/>
       <c r="E173" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F173" s="64"/>
@@ -52392,14 +52537,14 @@
       <c r="H173" s="238"/>
       <c r="I173" s="64"/>
       <c r="J173" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K173" s="100"/>
       <c r="L173" s="99"/>
       <c r="M173" s="99"/>
       <c r="N173" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O173" s="265"/>
@@ -52417,7 +52562,7 @@
       <c r="C174" s="263"/>
       <c r="D174" s="263"/>
       <c r="E174" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F174" s="64"/>
@@ -52425,14 +52570,14 @@
       <c r="H174" s="238"/>
       <c r="I174" s="64"/>
       <c r="J174" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K174" s="100"/>
       <c r="L174" s="99"/>
       <c r="M174" s="99"/>
       <c r="N174" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O174" s="265"/>
@@ -52450,7 +52595,7 @@
       <c r="C175" s="267"/>
       <c r="D175" s="267"/>
       <c r="E175" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F175" s="268"/>
@@ -52458,11 +52603,11 @@
       <c r="H175" s="269"/>
       <c r="I175" s="268"/>
       <c r="J175" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N175" s="48">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N175" s="48">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O175" s="270"/>
@@ -52480,7 +52625,7 @@
       <c r="C176" s="262"/>
       <c r="D176" s="262"/>
       <c r="E176" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F176" s="268"/>
@@ -52488,11 +52633,11 @@
       <c r="H176" s="269"/>
       <c r="I176" s="268"/>
       <c r="J176" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N176" s="48">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N176" s="48">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O176" s="270"/>
@@ -52510,7 +52655,7 @@
       <c r="C177" s="262"/>
       <c r="D177" s="262"/>
       <c r="E177" s="40">
-        <f t="shared" ref="E177:E240" si="8">D177*F177</f>
+        <f t="shared" ref="E177:E240" si="9">D177*F177</f>
         <v>0</v>
       </c>
       <c r="F177" s="64"/>
@@ -52518,14 +52663,14 @@
       <c r="H177" s="238"/>
       <c r="I177" s="64"/>
       <c r="J177" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K177" s="100"/>
       <c r="L177" s="99"/>
       <c r="M177" s="99"/>
       <c r="N177" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O177" s="98"/>
@@ -52543,7 +52688,7 @@
       <c r="C178" s="262"/>
       <c r="D178" s="262"/>
       <c r="E178" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F178" s="64"/>
@@ -52551,14 +52696,14 @@
       <c r="H178" s="238"/>
       <c r="I178" s="64"/>
       <c r="J178" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K178" s="100"/>
       <c r="L178" s="99"/>
       <c r="M178" s="99"/>
       <c r="N178" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O178" s="98"/>
@@ -52576,7 +52721,7 @@
       <c r="C179" s="277"/>
       <c r="D179" s="277"/>
       <c r="E179" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F179" s="64"/>
@@ -52584,14 +52729,14 @@
       <c r="H179" s="238"/>
       <c r="I179" s="64"/>
       <c r="J179" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K179" s="100"/>
       <c r="L179" s="99"/>
       <c r="M179" s="99"/>
       <c r="N179" s="48">
-        <f t="shared" ref="N179:N242" si="9">K179*I179</f>
+        <f t="shared" ref="N179:N242" si="10">K179*I179</f>
         <v>0</v>
       </c>
       <c r="O179" s="98"/>
@@ -52609,7 +52754,7 @@
       <c r="C180" s="277"/>
       <c r="D180" s="277"/>
       <c r="E180" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F180" s="64"/>
@@ -52617,14 +52762,14 @@
       <c r="H180" s="238"/>
       <c r="I180" s="64"/>
       <c r="J180" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K180" s="100"/>
       <c r="L180" s="99"/>
       <c r="M180" s="99"/>
       <c r="N180" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O180" s="98"/>
@@ -52642,7 +52787,7 @@
       <c r="C181" s="277"/>
       <c r="D181" s="277"/>
       <c r="E181" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F181" s="64"/>
@@ -52650,14 +52795,14 @@
       <c r="H181" s="238"/>
       <c r="I181" s="64"/>
       <c r="J181" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K181" s="100"/>
       <c r="L181" s="99"/>
       <c r="M181" s="99"/>
       <c r="N181" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O181" s="98"/>
@@ -52675,7 +52820,7 @@
       <c r="C182" s="278"/>
       <c r="D182" s="278"/>
       <c r="E182" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F182" s="64"/>
@@ -52683,14 +52828,14 @@
       <c r="H182" s="238"/>
       <c r="I182" s="64"/>
       <c r="J182" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K182" s="100"/>
       <c r="L182" s="99"/>
       <c r="M182" s="99"/>
       <c r="N182" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O182" s="98"/>
@@ -52708,7 +52853,7 @@
       <c r="C183" s="277"/>
       <c r="D183" s="277"/>
       <c r="E183" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F183" s="64"/>
@@ -52716,14 +52861,14 @@
       <c r="H183" s="238"/>
       <c r="I183" s="64"/>
       <c r="J183" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K183" s="100"/>
       <c r="L183" s="99"/>
       <c r="M183" s="99"/>
       <c r="N183" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O183" s="98"/>
@@ -52741,7 +52886,7 @@
       <c r="C184" s="257"/>
       <c r="D184" s="257"/>
       <c r="E184" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F184" s="64"/>
@@ -52749,14 +52894,14 @@
       <c r="H184" s="238"/>
       <c r="I184" s="64"/>
       <c r="J184" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K184" s="100"/>
       <c r="L184" s="99"/>
       <c r="M184" s="99"/>
       <c r="N184" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O184" s="98"/>
@@ -52774,7 +52919,7 @@
       <c r="C185" s="257"/>
       <c r="D185" s="257"/>
       <c r="E185" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F185" s="64"/>
@@ -52782,14 +52927,14 @@
       <c r="H185" s="238"/>
       <c r="I185" s="64"/>
       <c r="J185" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K185" s="100"/>
       <c r="L185" s="99"/>
       <c r="M185" s="99"/>
       <c r="N185" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O185" s="98"/>
@@ -52807,7 +52952,7 @@
       <c r="C186" s="257"/>
       <c r="D186" s="257"/>
       <c r="E186" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F186" s="64"/>
@@ -52815,14 +52960,14 @@
       <c r="H186" s="238"/>
       <c r="I186" s="64"/>
       <c r="J186" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K186" s="100"/>
       <c r="L186" s="99"/>
       <c r="M186" s="99"/>
       <c r="N186" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O186" s="98"/>
@@ -52840,7 +52985,7 @@
       <c r="C187" s="257"/>
       <c r="D187" s="257"/>
       <c r="E187" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F187" s="64"/>
@@ -52848,14 +52993,14 @@
       <c r="H187" s="238"/>
       <c r="I187" s="64"/>
       <c r="J187" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K187" s="100"/>
       <c r="L187" s="99"/>
       <c r="M187" s="99"/>
       <c r="N187" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O187" s="98"/>
@@ -52873,7 +53018,7 @@
       <c r="C188" s="262"/>
       <c r="D188" s="262"/>
       <c r="E188" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F188" s="64"/>
@@ -52881,14 +53026,14 @@
       <c r="H188" s="238"/>
       <c r="I188" s="64"/>
       <c r="J188" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K188" s="100"/>
       <c r="L188" s="99"/>
       <c r="M188" s="99"/>
       <c r="N188" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O188" s="98"/>
@@ -52906,7 +53051,7 @@
       <c r="C189" s="263"/>
       <c r="D189" s="263"/>
       <c r="E189" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F189" s="64"/>
@@ -52914,14 +53059,14 @@
       <c r="H189" s="238"/>
       <c r="I189" s="64"/>
       <c r="J189" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K189" s="100"/>
       <c r="L189" s="99"/>
       <c r="M189" s="99"/>
       <c r="N189" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O189" s="265"/>
@@ -52939,7 +53084,7 @@
       <c r="C190" s="280"/>
       <c r="D190" s="280"/>
       <c r="E190" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F190" s="64"/>
@@ -52947,14 +53092,14 @@
       <c r="H190" s="238"/>
       <c r="I190" s="64"/>
       <c r="J190" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K190" s="100"/>
       <c r="L190" s="99"/>
       <c r="M190" s="99"/>
       <c r="N190" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O190" s="98"/>
@@ -52972,7 +53117,7 @@
       <c r="C191" s="280"/>
       <c r="D191" s="280"/>
       <c r="E191" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F191" s="64"/>
@@ -52980,14 +53125,14 @@
       <c r="H191" s="238"/>
       <c r="I191" s="64"/>
       <c r="J191" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K191" s="100"/>
       <c r="L191" s="99"/>
       <c r="M191" s="99"/>
       <c r="N191" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O191" s="98"/>
@@ -53005,7 +53150,7 @@
       <c r="C192" s="280"/>
       <c r="D192" s="280"/>
       <c r="E192" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F192" s="64"/>
@@ -53013,14 +53158,14 @@
       <c r="H192" s="238"/>
       <c r="I192" s="64"/>
       <c r="J192" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K192" s="100"/>
       <c r="L192" s="99"/>
       <c r="M192" s="99"/>
       <c r="N192" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O192" s="98"/>
@@ -53038,7 +53183,7 @@
       <c r="C193" s="280"/>
       <c r="D193" s="280"/>
       <c r="E193" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F193" s="281"/>
@@ -53046,14 +53191,14 @@
       <c r="H193" s="238"/>
       <c r="I193" s="64"/>
       <c r="J193" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K193" s="100"/>
       <c r="L193" s="99"/>
       <c r="M193" s="99"/>
       <c r="N193" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O193" s="98"/>
@@ -53071,7 +53216,7 @@
       <c r="C194" s="280"/>
       <c r="D194" s="280"/>
       <c r="E194" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F194" s="281"/>
@@ -53079,14 +53224,14 @@
       <c r="H194" s="238"/>
       <c r="I194" s="64"/>
       <c r="J194" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K194" s="100"/>
       <c r="L194" s="99"/>
       <c r="M194" s="99"/>
       <c r="N194" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O194" s="98"/>
@@ -53104,7 +53249,7 @@
       <c r="C195" s="280"/>
       <c r="D195" s="280"/>
       <c r="E195" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F195" s="281"/>
@@ -53112,14 +53257,14 @@
       <c r="H195" s="238"/>
       <c r="I195" s="64"/>
       <c r="J195" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K195" s="100"/>
       <c r="L195" s="99"/>
       <c r="M195" s="99"/>
       <c r="N195" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O195" s="98"/>
@@ -53137,7 +53282,7 @@
       <c r="C196" s="280"/>
       <c r="D196" s="280"/>
       <c r="E196" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F196" s="281"/>
@@ -53145,14 +53290,14 @@
       <c r="H196" s="238"/>
       <c r="I196" s="64"/>
       <c r="J196" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K196" s="100"/>
       <c r="L196" s="99"/>
       <c r="M196" s="99"/>
       <c r="N196" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O196" s="98"/>
@@ -53170,7 +53315,7 @@
       <c r="C197" s="280"/>
       <c r="D197" s="280"/>
       <c r="E197" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F197" s="281"/>
@@ -53178,14 +53323,14 @@
       <c r="H197" s="238"/>
       <c r="I197" s="64"/>
       <c r="J197" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K197" s="100"/>
       <c r="L197" s="99"/>
       <c r="M197" s="99"/>
       <c r="N197" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O197" s="98"/>
@@ -53203,7 +53348,7 @@
       <c r="C198" s="280"/>
       <c r="D198" s="280"/>
       <c r="E198" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F198" s="281"/>
@@ -53211,14 +53356,14 @@
       <c r="H198" s="238"/>
       <c r="I198" s="64"/>
       <c r="J198" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K198" s="100"/>
       <c r="L198" s="99"/>
       <c r="M198" s="99"/>
       <c r="N198" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O198" s="98"/>
@@ -53236,7 +53381,7 @@
       <c r="C199" s="280"/>
       <c r="D199" s="280"/>
       <c r="E199" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F199" s="281"/>
@@ -53244,14 +53389,14 @@
       <c r="H199" s="238"/>
       <c r="I199" s="64"/>
       <c r="J199" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K199" s="100"/>
       <c r="L199" s="99"/>
       <c r="M199" s="99"/>
       <c r="N199" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O199" s="98"/>
@@ -53269,7 +53414,7 @@
       <c r="C200" s="280"/>
       <c r="D200" s="280"/>
       <c r="E200" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F200" s="64"/>
@@ -53277,14 +53422,14 @@
       <c r="H200" s="238"/>
       <c r="I200" s="64"/>
       <c r="J200" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K200" s="100"/>
       <c r="L200" s="99"/>
       <c r="M200" s="99"/>
       <c r="N200" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O200" s="98"/>
@@ -53302,7 +53447,7 @@
       <c r="C201" s="257"/>
       <c r="D201" s="257"/>
       <c r="E201" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F201" s="64"/>
@@ -53310,14 +53455,14 @@
       <c r="H201" s="238"/>
       <c r="I201" s="64"/>
       <c r="J201" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K201" s="100"/>
       <c r="L201" s="99"/>
       <c r="M201" s="99"/>
       <c r="N201" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O201" s="98"/>
@@ -53335,7 +53480,7 @@
       <c r="C202" s="257"/>
       <c r="D202" s="257"/>
       <c r="E202" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F202" s="64"/>
@@ -53343,14 +53488,14 @@
       <c r="H202" s="238"/>
       <c r="I202" s="64"/>
       <c r="J202" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K202" s="100"/>
       <c r="L202" s="99"/>
       <c r="M202" s="99"/>
       <c r="N202" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O202" s="98"/>
@@ -53368,7 +53513,7 @@
       <c r="C203" s="257"/>
       <c r="D203" s="257"/>
       <c r="E203" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F203" s="64"/>
@@ -53376,14 +53521,14 @@
       <c r="H203" s="238"/>
       <c r="I203" s="64"/>
       <c r="J203" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K203" s="100"/>
       <c r="L203" s="99"/>
       <c r="M203" s="99"/>
       <c r="N203" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O203" s="98"/>
@@ -53401,7 +53546,7 @@
       <c r="C204" s="257"/>
       <c r="D204" s="257"/>
       <c r="E204" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F204" s="64"/>
@@ -53409,14 +53554,14 @@
       <c r="H204" s="238"/>
       <c r="I204" s="64"/>
       <c r="J204" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K204" s="100"/>
       <c r="L204" s="99"/>
       <c r="M204" s="99"/>
       <c r="N204" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O204" s="98"/>
@@ -53434,7 +53579,7 @@
       <c r="C205" s="257"/>
       <c r="D205" s="257"/>
       <c r="E205" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F205" s="64"/>
@@ -53442,14 +53587,14 @@
       <c r="H205" s="238"/>
       <c r="I205" s="64"/>
       <c r="J205" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K205" s="100"/>
       <c r="L205" s="99"/>
       <c r="M205" s="99"/>
       <c r="N205" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O205" s="98"/>
@@ -53467,7 +53612,7 @@
       <c r="C206" s="257"/>
       <c r="D206" s="257"/>
       <c r="E206" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F206" s="64"/>
@@ -53475,14 +53620,14 @@
       <c r="H206" s="238"/>
       <c r="I206" s="64"/>
       <c r="J206" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K206" s="100"/>
       <c r="L206" s="99"/>
       <c r="M206" s="99"/>
       <c r="N206" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O206" s="98"/>
@@ -53500,7 +53645,7 @@
       <c r="C207" s="257"/>
       <c r="D207" s="257"/>
       <c r="E207" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F207" s="64"/>
@@ -53508,14 +53653,14 @@
       <c r="H207" s="238"/>
       <c r="I207" s="64"/>
       <c r="J207" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K207" s="100"/>
       <c r="L207" s="99"/>
       <c r="M207" s="99"/>
       <c r="N207" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O207" s="98"/>
@@ -53533,7 +53678,7 @@
       <c r="C208" s="257"/>
       <c r="D208" s="257"/>
       <c r="E208" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F208" s="64"/>
@@ -53541,14 +53686,14 @@
       <c r="H208" s="238"/>
       <c r="I208" s="64"/>
       <c r="J208" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K208" s="100"/>
       <c r="L208" s="99"/>
       <c r="M208" s="99"/>
       <c r="N208" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O208" s="98"/>
@@ -53566,7 +53711,7 @@
       <c r="C209" s="257"/>
       <c r="D209" s="257"/>
       <c r="E209" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F209" s="64"/>
@@ -53574,14 +53719,14 @@
       <c r="H209" s="63"/>
       <c r="I209" s="64"/>
       <c r="J209" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K209" s="100"/>
       <c r="L209" s="99"/>
       <c r="M209" s="99"/>
       <c r="N209" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O209" s="98"/>
@@ -53599,7 +53744,7 @@
       <c r="C210" s="257"/>
       <c r="D210" s="257"/>
       <c r="E210" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F210" s="64"/>
@@ -53607,14 +53752,14 @@
       <c r="H210" s="238"/>
       <c r="I210" s="64"/>
       <c r="J210" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K210" s="100"/>
       <c r="L210" s="99"/>
       <c r="M210" s="99"/>
       <c r="N210" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O210" s="98"/>
@@ -53632,7 +53777,7 @@
       <c r="C211" s="257"/>
       <c r="D211" s="257"/>
       <c r="E211" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F211" s="64"/>
@@ -53640,14 +53785,14 @@
       <c r="H211" s="238"/>
       <c r="I211" s="64"/>
       <c r="J211" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K211" s="100"/>
       <c r="L211" s="99"/>
       <c r="M211" s="99"/>
       <c r="N211" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O211" s="98"/>
@@ -53665,7 +53810,7 @@
       <c r="C212" s="257"/>
       <c r="D212" s="257"/>
       <c r="E212" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F212" s="64"/>
@@ -53673,14 +53818,14 @@
       <c r="H212" s="238"/>
       <c r="I212" s="64"/>
       <c r="J212" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K212" s="100"/>
       <c r="L212" s="99"/>
       <c r="M212" s="99"/>
       <c r="N212" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O212" s="98"/>
@@ -53698,7 +53843,7 @@
       <c r="C213" s="257"/>
       <c r="D213" s="257"/>
       <c r="E213" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F213" s="64"/>
@@ -53706,14 +53851,14 @@
       <c r="H213" s="238"/>
       <c r="I213" s="64"/>
       <c r="J213" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K213" s="100"/>
       <c r="L213" s="99"/>
       <c r="M213" s="99"/>
       <c r="N213" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O213" s="98"/>
@@ -53731,7 +53876,7 @@
       <c r="C214" s="257"/>
       <c r="D214" s="257"/>
       <c r="E214" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F214" s="64"/>
@@ -53739,14 +53884,14 @@
       <c r="H214" s="238"/>
       <c r="I214" s="64"/>
       <c r="J214" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K214" s="100"/>
       <c r="L214" s="99"/>
       <c r="M214" s="99"/>
       <c r="N214" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O214" s="98"/>
@@ -53764,7 +53909,7 @@
       <c r="C215" s="257"/>
       <c r="D215" s="257"/>
       <c r="E215" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F215" s="64"/>
@@ -53772,14 +53917,14 @@
       <c r="H215" s="238"/>
       <c r="I215" s="64"/>
       <c r="J215" s="45">
-        <f t="shared" ref="J215:J258" si="10">I215-F215</f>
+        <f t="shared" ref="J215:J258" si="11">I215-F215</f>
         <v>0</v>
       </c>
       <c r="K215" s="100"/>
       <c r="L215" s="99"/>
       <c r="M215" s="99"/>
       <c r="N215" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O215" s="98"/>
@@ -53797,7 +53942,7 @@
       <c r="C216" s="257"/>
       <c r="D216" s="257"/>
       <c r="E216" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F216" s="64"/>
@@ -53805,14 +53950,14 @@
       <c r="H216" s="238"/>
       <c r="I216" s="64"/>
       <c r="J216" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K216" s="100"/>
       <c r="L216" s="99"/>
       <c r="M216" s="99"/>
       <c r="N216" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O216" s="98"/>
@@ -53830,7 +53975,7 @@
       <c r="C217" s="257"/>
       <c r="D217" s="257"/>
       <c r="E217" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F217" s="64"/>
@@ -53838,14 +53983,14 @@
       <c r="H217" s="238"/>
       <c r="I217" s="64"/>
       <c r="J217" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K217" s="100"/>
       <c r="L217" s="99"/>
       <c r="M217" s="99"/>
       <c r="N217" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O217" s="98"/>
@@ -53863,7 +54008,7 @@
       <c r="C218" s="257"/>
       <c r="D218" s="257"/>
       <c r="E218" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F218" s="64"/>
@@ -53871,14 +54016,14 @@
       <c r="H218" s="238"/>
       <c r="I218" s="64"/>
       <c r="J218" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K218" s="100"/>
       <c r="L218" s="99"/>
       <c r="M218" s="99"/>
       <c r="N218" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O218" s="98"/>
@@ -53896,7 +54041,7 @@
       <c r="C219" s="257"/>
       <c r="D219" s="257"/>
       <c r="E219" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F219" s="64"/>
@@ -53904,14 +54049,14 @@
       <c r="H219" s="238"/>
       <c r="I219" s="64"/>
       <c r="J219" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K219" s="100"/>
       <c r="L219" s="99"/>
       <c r="M219" s="99"/>
       <c r="N219" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O219" s="98"/>
@@ -53929,7 +54074,7 @@
       <c r="C220" s="257"/>
       <c r="D220" s="257"/>
       <c r="E220" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F220" s="64"/>
@@ -53937,14 +54082,14 @@
       <c r="H220" s="238"/>
       <c r="I220" s="64"/>
       <c r="J220" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K220" s="100"/>
       <c r="L220" s="99"/>
       <c r="M220" s="99"/>
       <c r="N220" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O220" s="98"/>
@@ -53962,7 +54107,7 @@
       <c r="C221" s="257"/>
       <c r="D221" s="257"/>
       <c r="E221" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F221" s="64"/>
@@ -53970,14 +54115,14 @@
       <c r="H221" s="238"/>
       <c r="I221" s="64"/>
       <c r="J221" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K221" s="100"/>
       <c r="L221" s="99"/>
       <c r="M221" s="99"/>
       <c r="N221" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O221" s="98"/>
@@ -53995,7 +54140,7 @@
       <c r="C222" s="257"/>
       <c r="D222" s="257"/>
       <c r="E222" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F222" s="64"/>
@@ -54003,14 +54148,14 @@
       <c r="H222" s="238"/>
       <c r="I222" s="64"/>
       <c r="J222" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K222" s="100"/>
       <c r="L222" s="99"/>
       <c r="M222" s="99"/>
       <c r="N222" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O222" s="98"/>
@@ -54028,7 +54173,7 @@
       <c r="C223" s="257"/>
       <c r="D223" s="257"/>
       <c r="E223" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F223" s="64"/>
@@ -54036,14 +54181,14 @@
       <c r="H223" s="238"/>
       <c r="I223" s="64"/>
       <c r="J223" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K223" s="100"/>
       <c r="L223" s="99"/>
       <c r="M223" s="99"/>
       <c r="N223" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O223" s="98"/>
@@ -54061,7 +54206,7 @@
       <c r="C224" s="283"/>
       <c r="D224" s="283"/>
       <c r="E224" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F224" s="64"/>
@@ -54069,14 +54214,14 @@
       <c r="H224" s="238"/>
       <c r="I224" s="64"/>
       <c r="J224" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K224" s="100"/>
       <c r="L224" s="99"/>
       <c r="M224" s="99"/>
       <c r="N224" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O224" s="98"/>
@@ -54094,7 +54239,7 @@
       <c r="C225" s="257"/>
       <c r="D225" s="257"/>
       <c r="E225" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F225" s="64"/>
@@ -54102,14 +54247,14 @@
       <c r="H225" s="238"/>
       <c r="I225" s="64"/>
       <c r="J225" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K225" s="100"/>
       <c r="L225" s="99"/>
       <c r="M225" s="99"/>
       <c r="N225" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O225" s="98"/>
@@ -54127,7 +54272,7 @@
       <c r="C226" s="277"/>
       <c r="D226" s="277"/>
       <c r="E226" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F226" s="64"/>
@@ -54135,14 +54280,14 @@
       <c r="H226" s="238"/>
       <c r="I226" s="64"/>
       <c r="J226" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K226" s="100"/>
       <c r="L226" s="99"/>
       <c r="M226" s="99"/>
       <c r="N226" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O226" s="98"/>
@@ -54160,7 +54305,7 @@
       <c r="C227" s="278"/>
       <c r="D227" s="278"/>
       <c r="E227" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F227" s="64"/>
@@ -54168,14 +54313,14 @@
       <c r="H227" s="238"/>
       <c r="I227" s="64"/>
       <c r="J227" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K227" s="100"/>
       <c r="L227" s="99"/>
       <c r="M227" s="99"/>
       <c r="N227" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O227" s="98"/>
@@ -54193,7 +54338,7 @@
       <c r="C228" s="278"/>
       <c r="D228" s="278"/>
       <c r="E228" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F228" s="64"/>
@@ -54201,14 +54346,14 @@
       <c r="H228" s="238"/>
       <c r="I228" s="64"/>
       <c r="J228" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K228" s="100"/>
       <c r="L228" s="99"/>
       <c r="M228" s="99"/>
       <c r="N228" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O228" s="98"/>
@@ -54226,7 +54371,7 @@
       <c r="C229" s="277"/>
       <c r="D229" s="277"/>
       <c r="E229" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F229" s="64"/>
@@ -54234,14 +54379,14 @@
       <c r="H229" s="238"/>
       <c r="I229" s="64"/>
       <c r="J229" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K229" s="100"/>
       <c r="L229" s="99"/>
       <c r="M229" s="99"/>
       <c r="N229" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O229" s="98"/>
@@ -54259,7 +54404,7 @@
       <c r="C230" s="262"/>
       <c r="D230" s="262"/>
       <c r="E230" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F230" s="64"/>
@@ -54267,14 +54412,14 @@
       <c r="H230" s="238"/>
       <c r="I230" s="64"/>
       <c r="J230" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K230" s="100"/>
       <c r="L230" s="99"/>
       <c r="M230" s="99"/>
       <c r="N230" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O230" s="98"/>
@@ -54292,7 +54437,7 @@
       <c r="C231" s="207"/>
       <c r="D231" s="207"/>
       <c r="E231" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F231" s="64"/>
@@ -54300,14 +54445,14 @@
       <c r="H231" s="238"/>
       <c r="I231" s="64"/>
       <c r="J231" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K231" s="100"/>
       <c r="L231" s="99"/>
       <c r="M231" s="99"/>
       <c r="N231" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O231" s="98"/>
@@ -54325,7 +54470,7 @@
       <c r="C232" s="237"/>
       <c r="D232" s="237"/>
       <c r="E232" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F232" s="64"/>
@@ -54333,14 +54478,14 @@
       <c r="H232" s="238"/>
       <c r="I232" s="64"/>
       <c r="J232" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K232" s="100"/>
       <c r="L232" s="99"/>
       <c r="M232" s="99"/>
       <c r="N232" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O232" s="98"/>
@@ -54358,7 +54503,7 @@
       <c r="C233" s="237"/>
       <c r="D233" s="237"/>
       <c r="E233" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F233" s="64"/>
@@ -54366,14 +54511,14 @@
       <c r="H233" s="238"/>
       <c r="I233" s="64"/>
       <c r="J233" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K233" s="100"/>
       <c r="L233" s="99"/>
       <c r="M233" s="99"/>
       <c r="N233" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O233" s="98"/>
@@ -54391,7 +54536,7 @@
       <c r="C234" s="237"/>
       <c r="D234" s="237"/>
       <c r="E234" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F234" s="64"/>
@@ -54399,14 +54544,14 @@
       <c r="H234" s="238"/>
       <c r="I234" s="64"/>
       <c r="J234" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K234" s="100"/>
       <c r="L234" s="99"/>
       <c r="M234" s="99"/>
       <c r="N234" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O234" s="98"/>
@@ -54424,7 +54569,7 @@
       <c r="C235" s="237"/>
       <c r="D235" s="237"/>
       <c r="E235" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F235" s="64"/>
@@ -54432,14 +54577,14 @@
       <c r="H235" s="238"/>
       <c r="I235" s="64"/>
       <c r="J235" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K235" s="100"/>
       <c r="L235" s="99"/>
       <c r="M235" s="99"/>
       <c r="N235" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O235" s="98"/>
@@ -54457,7 +54602,7 @@
       <c r="C236" s="237"/>
       <c r="D236" s="237"/>
       <c r="E236" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F236" s="64"/>
@@ -54465,14 +54610,14 @@
       <c r="H236" s="63"/>
       <c r="I236" s="64"/>
       <c r="J236" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K236" s="100"/>
       <c r="L236" s="99"/>
       <c r="M236" s="99"/>
       <c r="N236" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O236" s="98"/>
@@ -54490,7 +54635,7 @@
       <c r="C237" s="237"/>
       <c r="D237" s="237"/>
       <c r="E237" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F237" s="64"/>
@@ -54498,14 +54643,14 @@
       <c r="H237" s="238"/>
       <c r="I237" s="64"/>
       <c r="J237" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K237" s="100"/>
       <c r="L237" s="99"/>
       <c r="M237" s="99"/>
       <c r="N237" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O237" s="98"/>
@@ -54523,7 +54668,7 @@
       <c r="C238" s="219"/>
       <c r="D238" s="219"/>
       <c r="E238" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F238" s="64"/>
@@ -54531,14 +54676,14 @@
       <c r="H238" s="238"/>
       <c r="I238" s="64"/>
       <c r="J238" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K238" s="100"/>
       <c r="L238" s="99"/>
       <c r="M238" s="99"/>
       <c r="N238" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O238" s="98"/>
@@ -54556,7 +54701,7 @@
       <c r="C239" s="219"/>
       <c r="D239" s="219"/>
       <c r="E239" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F239" s="64"/>
@@ -54564,14 +54709,14 @@
       <c r="H239" s="238"/>
       <c r="I239" s="64"/>
       <c r="J239" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K239" s="100"/>
       <c r="L239" s="99"/>
       <c r="M239" s="99"/>
       <c r="N239" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O239" s="98"/>
@@ -54589,7 +54734,7 @@
       <c r="C240" s="255"/>
       <c r="D240" s="255"/>
       <c r="E240" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F240" s="64"/>
@@ -54597,14 +54742,14 @@
       <c r="H240" s="252"/>
       <c r="I240" s="64"/>
       <c r="J240" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K240" s="100"/>
       <c r="L240" s="99"/>
       <c r="M240" s="99"/>
       <c r="N240" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O240" s="234"/>
@@ -54622,7 +54767,7 @@
       <c r="C241" s="189"/>
       <c r="D241" s="189"/>
       <c r="E241" s="40">
-        <f t="shared" ref="E241:E262" si="11">D241*F241</f>
+        <f t="shared" ref="E241:E262" si="12">D241*F241</f>
         <v>0</v>
       </c>
       <c r="F241" s="64"/>
@@ -54630,14 +54775,14 @@
       <c r="H241" s="252"/>
       <c r="I241" s="64"/>
       <c r="J241" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K241" s="100"/>
       <c r="L241" s="286"/>
       <c r="M241" s="287"/>
       <c r="N241" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O241" s="234"/>
@@ -54655,7 +54800,7 @@
       <c r="C242" s="200"/>
       <c r="D242" s="200"/>
       <c r="E242" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F242" s="200"/>
@@ -54663,14 +54808,14 @@
       <c r="H242" s="290"/>
       <c r="I242" s="116"/>
       <c r="J242" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K242" s="100"/>
       <c r="L242" s="286"/>
       <c r="M242" s="287"/>
       <c r="N242" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O242" s="234"/>
@@ -54688,7 +54833,7 @@
       <c r="C243" s="200"/>
       <c r="D243" s="200"/>
       <c r="E243" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F243" s="200"/>
@@ -54696,14 +54841,14 @@
       <c r="H243" s="290"/>
       <c r="I243" s="116"/>
       <c r="J243" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K243" s="100"/>
       <c r="L243" s="286"/>
       <c r="M243" s="287"/>
       <c r="N243" s="48">
-        <f t="shared" ref="N243:N262" si="12">K243*I243</f>
+        <f t="shared" ref="N243:N262" si="13">K243*I243</f>
         <v>0</v>
       </c>
       <c r="O243" s="234"/>
@@ -54721,7 +54866,7 @@
       <c r="C244" s="200"/>
       <c r="D244" s="200"/>
       <c r="E244" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F244" s="200"/>
@@ -54729,14 +54874,14 @@
       <c r="H244" s="290"/>
       <c r="I244" s="116"/>
       <c r="J244" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K244" s="100"/>
       <c r="L244" s="286"/>
       <c r="M244" s="287"/>
       <c r="N244" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O244" s="98"/>
@@ -54754,7 +54899,7 @@
       <c r="C245" s="200"/>
       <c r="D245" s="200"/>
       <c r="E245" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F245" s="200"/>
@@ -54762,14 +54907,14 @@
       <c r="H245" s="290"/>
       <c r="I245" s="116"/>
       <c r="J245" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K245" s="100"/>
       <c r="L245" s="286"/>
       <c r="M245" s="287"/>
       <c r="N245" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O245" s="98"/>
@@ -54787,7 +54932,7 @@
       <c r="C246" s="200"/>
       <c r="D246" s="200"/>
       <c r="E246" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F246" s="200"/>
@@ -54795,14 +54940,14 @@
       <c r="H246" s="290"/>
       <c r="I246" s="116"/>
       <c r="J246" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K246" s="100"/>
       <c r="L246" s="286"/>
       <c r="M246" s="287"/>
       <c r="N246" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O246" s="98"/>
@@ -54820,7 +54965,7 @@
       <c r="C247" s="292"/>
       <c r="D247" s="293"/>
       <c r="E247" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F247" s="44"/>
@@ -54828,14 +54973,14 @@
       <c r="H247" s="295"/>
       <c r="I247" s="64"/>
       <c r="J247" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K247" s="100"/>
       <c r="L247" s="286"/>
       <c r="M247" s="296"/>
       <c r="N247" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O247" s="234"/>
@@ -54853,7 +54998,7 @@
       <c r="C248" s="292"/>
       <c r="D248" s="292"/>
       <c r="E248" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F248" s="64"/>
@@ -54861,14 +55006,14 @@
       <c r="H248" s="252"/>
       <c r="I248" s="64"/>
       <c r="J248" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K248" s="100"/>
       <c r="L248" s="286"/>
       <c r="M248" s="296"/>
       <c r="N248" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O248" s="234"/>
@@ -54886,7 +55031,7 @@
       <c r="C249" s="292"/>
       <c r="D249" s="292"/>
       <c r="E249" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F249" s="64"/>
@@ -54894,14 +55039,14 @@
       <c r="H249" s="252"/>
       <c r="I249" s="64"/>
       <c r="J249" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K249" s="100"/>
       <c r="L249" s="286"/>
       <c r="M249" s="296"/>
       <c r="N249" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O249" s="234"/>
@@ -54919,7 +55064,7 @@
       <c r="C250" s="297"/>
       <c r="D250" s="297"/>
       <c r="E250" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F250" s="64"/>
@@ -54927,14 +55072,14 @@
       <c r="H250" s="252"/>
       <c r="I250" s="64"/>
       <c r="J250" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K250" s="100"/>
       <c r="L250" s="286"/>
       <c r="M250" s="296"/>
       <c r="N250" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O250" s="234"/>
@@ -54952,7 +55097,7 @@
       <c r="C251" s="210"/>
       <c r="D251" s="210"/>
       <c r="E251" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F251" s="268"/>
@@ -54962,14 +55107,14 @@
         <v>0</v>
       </c>
       <c r="J251" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K251" s="299"/>
       <c r="L251" s="299"/>
       <c r="M251" s="299"/>
       <c r="N251" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O251" s="301"/>
@@ -54987,7 +55132,7 @@
       <c r="C252" s="210"/>
       <c r="D252" s="210"/>
       <c r="E252" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F252" s="268"/>
@@ -54997,14 +55142,14 @@
         <v>0</v>
       </c>
       <c r="J252" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K252" s="299"/>
       <c r="L252" s="299"/>
       <c r="M252" s="299"/>
       <c r="N252" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O252" s="301"/>
@@ -55022,7 +55167,7 @@
       <c r="C253" s="210"/>
       <c r="D253" s="210"/>
       <c r="E253" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F253" s="268"/>
@@ -55032,14 +55177,14 @@
         <v>0</v>
       </c>
       <c r="J253" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K253" s="299"/>
       <c r="L253" s="299"/>
       <c r="M253" s="299"/>
       <c r="N253" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O253" s="301"/>
@@ -55057,7 +55202,7 @@
       <c r="C254" s="210"/>
       <c r="D254" s="210"/>
       <c r="E254" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F254" s="268"/>
@@ -55067,14 +55212,14 @@
         <v>0</v>
       </c>
       <c r="J254" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K254" s="299"/>
       <c r="L254" s="299"/>
       <c r="M254" s="299"/>
       <c r="N254" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O254" s="301"/>
@@ -55092,7 +55237,7 @@
       <c r="C255" s="210"/>
       <c r="D255" s="210"/>
       <c r="E255" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F255" s="268"/>
@@ -55102,14 +55247,14 @@
         <v>0</v>
       </c>
       <c r="J255" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K255" s="299"/>
       <c r="L255" s="299"/>
       <c r="M255" s="299"/>
       <c r="N255" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O255" s="301"/>
@@ -55125,7 +55270,7 @@
       <c r="A256" s="308"/>
       <c r="B256" s="309"/>
       <c r="E256" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H256" s="313"/>
@@ -55133,14 +55278,14 @@
         <v>0</v>
       </c>
       <c r="J256" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K256" s="314"/>
       <c r="L256" s="314"/>
       <c r="M256" s="314"/>
       <c r="N256" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O256" s="301"/>
@@ -55156,21 +55301,21 @@
       <c r="A257" s="308"/>
       <c r="B257" s="309"/>
       <c r="E257" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I257" s="311">
+        <v>0</v>
+      </c>
+      <c r="J257" s="45">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I257" s="311">
-        <v>0</v>
-      </c>
-      <c r="J257" s="45">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K257" s="314"/>
       <c r="L257" s="314"/>
       <c r="M257" s="314"/>
       <c r="N257" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O257" s="301"/>
@@ -55186,21 +55331,21 @@
       <c r="A258" s="308"/>
       <c r="B258" s="309"/>
       <c r="E258" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I258" s="316">
+        <v>0</v>
+      </c>
+      <c r="J258" s="45">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I258" s="316">
-        <v>0</v>
-      </c>
-      <c r="J258" s="45">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K258" s="314"/>
       <c r="L258" s="314"/>
       <c r="M258" s="314"/>
       <c r="N258" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O258" s="301"/>
@@ -55216,14 +55361,14 @@
       <c r="A259" s="308"/>
       <c r="B259" s="309"/>
       <c r="E259" s="40" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>316015</v>
@@ -55233,7 +55378,7 @@
       <c r="L259" s="319"/>
       <c r="M259" s="314"/>
       <c r="N259" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O259" s="301"/>
@@ -55249,7 +55394,7 @@
       <c r="A260" s="321"/>
       <c r="B260" s="309"/>
       <c r="E260" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I260" s="322"/>
@@ -55258,7 +55403,7 @@
       <c r="L260" s="319"/>
       <c r="M260" s="314"/>
       <c r="N260" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O260" s="323"/>
@@ -55272,7 +55417,7 @@
       <c r="A261" s="308"/>
       <c r="B261" s="309"/>
       <c r="E261" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J261" s="311"/>
@@ -55280,7 +55425,7 @@
       <c r="L261" s="314"/>
       <c r="M261" s="314"/>
       <c r="N261" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O261" s="323"/>
@@ -55294,13 +55439,13 @@
       <c r="A262" s="308"/>
       <c r="B262" s="309"/>
       <c r="E262" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J262" s="311"/>
       <c r="K262" s="328"/>
       <c r="N262" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O262" s="329"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="459">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1398,6 +1398,27 @@
   </si>
   <si>
     <t>0850 Z</t>
+  </si>
+  <si>
+    <t>0873 Z</t>
+  </si>
+  <si>
+    <t>0900 Z</t>
+  </si>
+  <si>
+    <t>0918 Z</t>
+  </si>
+  <si>
+    <t>0932 Z</t>
+  </si>
+  <si>
+    <t>0954 Z</t>
+  </si>
+  <si>
+    <t>0980 Z</t>
+  </si>
+  <si>
+    <t>0994 Z</t>
   </si>
 </sst>
 </file>
@@ -4046,6 +4067,78 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4079,83 +4172,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4185,6 +4206,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4218,12 +4245,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4555,18 +4576,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4580,22 +4601,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4649,10 +4670,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5196,7 +5217,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="493" t="s">
+      <c r="C12" s="517" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5260,7 +5281,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="494"/>
+      <c r="C13" s="518"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7262,13 +7283,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="505" t="s">
+      <c r="A56" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="507" t="s">
+      <c r="C56" s="498" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7279,7 +7300,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="499">
+      <c r="H56" s="500">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7308,11 +7329,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="506"/>
+      <c r="A57" s="497"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="508"/>
+      <c r="C57" s="499"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7321,7 +7342,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="500"/>
+      <c r="H57" s="501"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7348,13 +7369,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="505" t="s">
+      <c r="A58" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="507" t="s">
+      <c r="C58" s="498" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7365,7 +7386,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="499">
+      <c r="H58" s="500">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7384,10 +7405,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="501" t="s">
+      <c r="O58" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="503">
+      <c r="P58" s="523">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7398,11 +7419,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="506"/>
+      <c r="A59" s="497"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="508"/>
+      <c r="C59" s="499"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7411,7 +7432,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="500"/>
+      <c r="H59" s="501"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7428,8 +7449,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="502"/>
-      <c r="P59" s="504"/>
+      <c r="O59" s="503"/>
+      <c r="P59" s="524"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7438,13 +7459,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="497" t="s">
+      <c r="A60" s="521" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="495" t="s">
+      <c r="C60" s="519" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7458,7 +7479,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="499">
+      <c r="H60" s="500">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7477,10 +7498,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="501" t="s">
+      <c r="O60" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="503">
+      <c r="P60" s="523">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7493,11 +7514,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="498"/>
+      <c r="A61" s="522"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="496"/>
+      <c r="C61" s="520"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7509,7 +7530,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="500"/>
+      <c r="H61" s="501"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7526,8 +7547,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="502"/>
-      <c r="P61" s="504"/>
+      <c r="O61" s="503"/>
+      <c r="P61" s="524"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7593,7 +7614,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="521"/>
+      <c r="C63" s="490"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7601,7 +7622,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="523"/>
+      <c r="H63" s="492"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7630,7 +7651,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="522"/>
+      <c r="C64" s="491"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7638,7 +7659,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="524"/>
+      <c r="H64" s="493"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7816,8 +7837,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="513"/>
-      <c r="P68" s="519"/>
+      <c r="O68" s="494"/>
+      <c r="P68" s="488"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7851,8 +7872,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="514"/>
-      <c r="P69" s="520"/>
+      <c r="O69" s="495"/>
+      <c r="P69" s="489"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8342,8 +8363,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="513"/>
-      <c r="P82" s="515"/>
+      <c r="O82" s="494"/>
+      <c r="P82" s="508"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8375,8 +8396,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="514"/>
-      <c r="P83" s="516"/>
+      <c r="O83" s="495"/>
+      <c r="P83" s="509"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8408,8 +8429,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="513"/>
-      <c r="P84" s="515"/>
+      <c r="O84" s="494"/>
+      <c r="P84" s="508"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8441,8 +8462,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="514"/>
-      <c r="P85" s="516"/>
+      <c r="O85" s="495"/>
+      <c r="P85" s="509"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8600,8 +8621,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="517"/>
-      <c r="M90" s="518"/>
+      <c r="L90" s="510"/>
+      <c r="M90" s="511"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8633,8 +8654,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="517"/>
-      <c r="M91" s="518"/>
+      <c r="L91" s="510"/>
+      <c r="M91" s="511"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8837,8 +8858,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="513"/>
-      <c r="P97" s="509"/>
+      <c r="O97" s="494"/>
+      <c r="P97" s="504"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8870,8 +8891,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="514"/>
-      <c r="P98" s="510"/>
+      <c r="O98" s="495"/>
+      <c r="P98" s="505"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14263,11 +14284,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="511" t="s">
+      <c r="F262" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="511"/>
-      <c r="H262" s="512"/>
+      <c r="G262" s="506"/>
+      <c r="H262" s="507"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14841,22 +14862,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14870,6 +14875,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14913,18 +14934,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14940,22 +14961,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -15009,10 +15030,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17654,7 +17675,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="507" t="s">
+      <c r="C55" s="498" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17665,7 +17686,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="523" t="s">
+      <c r="H55" s="492" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17698,7 +17719,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="508"/>
+      <c r="C56" s="499"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17707,7 +17728,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="524"/>
+      <c r="H56" s="493"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17753,7 +17774,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="523" t="s">
+      <c r="H57" s="492" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17772,10 +17793,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="513" t="s">
+      <c r="O57" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="519">
+      <c r="P57" s="488">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17799,7 +17820,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="524"/>
+      <c r="H58" s="493"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17843,7 +17864,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="523" t="s">
+      <c r="H59" s="492" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17887,7 +17908,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="524"/>
+      <c r="H60" s="493"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18550,8 +18571,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18580,8 +18601,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18610,8 +18631,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18643,8 +18664,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18802,8 +18823,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18835,8 +18856,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19039,8 +19060,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19072,8 +19093,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24465,11 +24486,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25043,6 +25064,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25058,12 +25085,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25110,18 +25131,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25137,22 +25158,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25206,10 +25227,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28423,7 +28444,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="507" t="s">
+      <c r="C55" s="498" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28434,7 +28455,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="536" t="s">
+      <c r="H55" s="538" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28453,10 +28474,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="513" t="s">
+      <c r="O55" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="519">
+      <c r="P55" s="488">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28467,11 +28488,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="535"/>
+      <c r="A56" s="537"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="508"/>
+      <c r="C56" s="499"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28480,7 +28501,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="537"/>
+      <c r="H56" s="539"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28497,8 +28518,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="514"/>
-      <c r="P56" s="520"/>
+      <c r="O56" s="495"/>
+      <c r="P56" s="489"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28559,13 +28580,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="497" t="s">
+      <c r="A58" s="521" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="546" t="s">
+      <c r="C58" s="535" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28576,7 +28597,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="544" t="s">
+      <c r="H58" s="546" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28595,10 +28616,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="501" t="s">
+      <c r="O58" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="503">
+      <c r="P58" s="523">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28609,11 +28630,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="498"/>
+      <c r="A59" s="522"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="547"/>
+      <c r="C59" s="536"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28622,7 +28643,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="545"/>
+      <c r="H59" s="547"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28639,8 +28660,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="502"/>
-      <c r="P59" s="504"/>
+      <c r="O59" s="503"/>
+      <c r="P59" s="524"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28713,13 +28734,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="538" t="s">
+      <c r="A62" s="540" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="540" t="s">
+      <c r="C62" s="542" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28730,7 +28751,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="542">
+      <c r="H62" s="544">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28749,10 +28770,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="513" t="s">
+      <c r="O62" s="494" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="519">
+      <c r="P62" s="488">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28763,11 +28784,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="539"/>
+      <c r="A63" s="541"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="541"/>
+      <c r="C63" s="543"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28776,7 +28797,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="543"/>
+      <c r="H63" s="545"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28793,8 +28814,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="514"/>
-      <c r="P63" s="520"/>
+      <c r="O63" s="495"/>
+      <c r="P63" s="489"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29273,8 +29294,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29303,8 +29324,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29333,8 +29354,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29366,8 +29387,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29525,8 +29546,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29558,8 +29579,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29762,8 +29783,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29795,8 +29816,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35188,11 +35209,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35766,17 +35787,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35793,6 +35803,17 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35839,18 +35860,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35866,22 +35887,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35935,10 +35956,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -39734,8 +39755,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39764,8 +39785,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39794,8 +39815,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39827,8 +39848,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -39986,8 +40007,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40019,8 +40040,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40223,8 +40244,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40256,8 +40277,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45649,11 +45670,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -46227,18 +46248,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46253,10 +46274,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46285,18 +46306,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46312,22 +46333,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46381,10 +46402,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -46860,11 +46881,15 @@
       <c r="B11" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="60">
+        <v>50</v>
+      </c>
       <c r="E11" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1087500</v>
       </c>
       <c r="F11" s="61">
         <v>21750</v>
@@ -46917,8 +46942,12 @@
       <c r="B12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="431"/>
-      <c r="D12" s="60"/>
+      <c r="C12" s="431" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="60">
+        <v>50</v>
+      </c>
       <c r="E12" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -46974,11 +47003,15 @@
       <c r="B13" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="432"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="432" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="60">
+        <v>50</v>
+      </c>
       <c r="E13" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1107000</v>
       </c>
       <c r="F13" s="61">
         <v>22140</v>
@@ -47031,8 +47064,12 @@
       <c r="B14" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="60">
+        <v>50</v>
+      </c>
       <c r="E14" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -47088,11 +47125,15 @@
       <c r="B15" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" s="60">
+        <v>50</v>
+      </c>
       <c r="E15" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1157000</v>
       </c>
       <c r="F15" s="61">
         <v>23140</v>
@@ -47145,8 +47186,12 @@
       <c r="B16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="D16" s="60">
+        <v>50</v>
+      </c>
       <c r="E16" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -47202,11 +47247,15 @@
       <c r="B17" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="D17" s="60">
+        <v>50</v>
+      </c>
       <c r="E17" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1087500</v>
       </c>
       <c r="F17" s="61">
         <v>21750</v>
@@ -47259,8 +47308,12 @@
       <c r="B18" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" s="60">
+        <v>50</v>
+      </c>
       <c r="E18" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -47316,11 +47369,15 @@
       <c r="B19" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" s="60">
+        <v>50</v>
+      </c>
       <c r="E19" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1044500</v>
       </c>
       <c r="F19" s="61">
         <v>20890</v>
@@ -47373,8 +47430,12 @@
       <c r="B20" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
+      <c r="C20" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" s="60">
+        <v>50</v>
+      </c>
       <c r="E20" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -47430,11 +47491,15 @@
       <c r="B21" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="D21" s="60">
+        <v>50</v>
+      </c>
       <c r="E21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1066000</v>
       </c>
       <c r="F21" s="61">
         <v>21320</v>
@@ -47487,8 +47552,12 @@
       <c r="B22" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="D22" s="60">
+        <v>50</v>
+      </c>
       <c r="E22" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -47544,11 +47613,15 @@
       <c r="B23" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="D23" s="60">
+        <v>51</v>
+      </c>
       <c r="E23" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1099050</v>
       </c>
       <c r="F23" s="61">
         <v>21550</v>
@@ -47601,8 +47674,12 @@
       <c r="B24" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
+      <c r="C24" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="60">
+        <v>51</v>
+      </c>
       <c r="E24" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -49701,8 +49778,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49734,8 +49811,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49938,8 +50015,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -49971,8 +50048,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -55364,11 +55441,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>316015</v>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="460">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1419,6 +1419,9 @@
   </si>
   <si>
     <t>0994 Z</t>
+  </si>
+  <si>
+    <t>20482--10968</t>
   </si>
 </sst>
 </file>
@@ -4067,78 +4070,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4172,11 +4103,83 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4206,12 +4209,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4245,6 +4242,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4576,18 +4579,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4601,22 +4604,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4670,10 +4673,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5217,7 +5220,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="517" t="s">
+      <c r="C12" s="493" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5281,7 +5284,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="518"/>
+      <c r="C13" s="494"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7283,13 +7286,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="496" t="s">
+      <c r="A56" s="505" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="498" t="s">
+      <c r="C56" s="507" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7300,7 +7303,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="500">
+      <c r="H56" s="499">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7329,11 +7332,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="497"/>
+      <c r="A57" s="506"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="499"/>
+      <c r="C57" s="508"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7342,7 +7345,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="501"/>
+      <c r="H57" s="500"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7369,13 +7372,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="496" t="s">
+      <c r="A58" s="505" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="498" t="s">
+      <c r="C58" s="507" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7386,7 +7389,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="500">
+      <c r="H58" s="499">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7405,10 +7408,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="502" t="s">
+      <c r="O58" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="523">
+      <c r="P58" s="503">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7419,11 +7422,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="497"/>
+      <c r="A59" s="506"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="499"/>
+      <c r="C59" s="508"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7432,7 +7435,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="501"/>
+      <c r="H59" s="500"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7449,8 +7452,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="503"/>
-      <c r="P59" s="524"/>
+      <c r="O59" s="502"/>
+      <c r="P59" s="504"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7459,13 +7462,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="521" t="s">
+      <c r="A60" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="519" t="s">
+      <c r="C60" s="495" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7479,7 +7482,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="500">
+      <c r="H60" s="499">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7498,10 +7501,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="502" t="s">
+      <c r="O60" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="523">
+      <c r="P60" s="503">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7514,11 +7517,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="522"/>
+      <c r="A61" s="498"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="520"/>
+      <c r="C61" s="496"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7530,7 +7533,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="501"/>
+      <c r="H61" s="500"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7547,8 +7550,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="503"/>
-      <c r="P61" s="524"/>
+      <c r="O61" s="502"/>
+      <c r="P61" s="504"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7614,7 +7617,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="490"/>
+      <c r="C63" s="521"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7622,7 +7625,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="492"/>
+      <c r="H63" s="523"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7651,7 +7654,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="491"/>
+      <c r="C64" s="522"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7659,7 +7662,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="493"/>
+      <c r="H64" s="524"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7837,8 +7840,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="494"/>
-      <c r="P68" s="488"/>
+      <c r="O68" s="513"/>
+      <c r="P68" s="519"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7872,8 +7875,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="495"/>
-      <c r="P69" s="489"/>
+      <c r="O69" s="514"/>
+      <c r="P69" s="520"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8363,8 +8366,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="494"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="513"/>
+      <c r="P82" s="515"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8396,8 +8399,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="495"/>
-      <c r="P83" s="509"/>
+      <c r="O83" s="514"/>
+      <c r="P83" s="516"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8429,8 +8432,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="494"/>
-      <c r="P84" s="508"/>
+      <c r="O84" s="513"/>
+      <c r="P84" s="515"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8462,8 +8465,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="495"/>
-      <c r="P85" s="509"/>
+      <c r="O85" s="514"/>
+      <c r="P85" s="516"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8621,8 +8624,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="510"/>
-      <c r="M90" s="511"/>
+      <c r="L90" s="517"/>
+      <c r="M90" s="518"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8654,8 +8657,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="510"/>
-      <c r="M91" s="511"/>
+      <c r="L91" s="517"/>
+      <c r="M91" s="518"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8858,8 +8861,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="494"/>
-      <c r="P97" s="504"/>
+      <c r="O97" s="513"/>
+      <c r="P97" s="509"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8891,8 +8894,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="495"/>
-      <c r="P98" s="505"/>
+      <c r="O98" s="514"/>
+      <c r="P98" s="510"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14284,11 +14287,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="506" t="s">
+      <c r="F262" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="506"/>
-      <c r="H262" s="507"/>
+      <c r="G262" s="511"/>
+      <c r="H262" s="512"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14862,6 +14865,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14875,22 +14894,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14934,18 +14937,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14961,22 +14964,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -15030,10 +15033,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17675,7 +17678,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="498" t="s">
+      <c r="C55" s="507" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17686,7 +17689,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="492" t="s">
+      <c r="H55" s="523" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17719,7 +17722,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="499"/>
+      <c r="C56" s="508"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17728,7 +17731,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="493"/>
+      <c r="H56" s="524"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17774,7 +17777,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="492" t="s">
+      <c r="H57" s="523" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17793,10 +17796,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="494" t="s">
+      <c r="O57" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="488">
+      <c r="P57" s="519">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17820,7 +17823,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="493"/>
+      <c r="H58" s="524"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17864,7 +17867,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="492" t="s">
+      <c r="H59" s="523" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17908,7 +17911,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="493"/>
+      <c r="H60" s="524"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18571,8 +18574,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18601,8 +18604,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18631,8 +18634,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18664,8 +18667,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18823,8 +18826,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18856,8 +18859,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19060,8 +19063,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19093,8 +19096,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24486,11 +24489,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25064,12 +25067,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25085,6 +25082,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25131,18 +25134,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25158,22 +25161,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25227,10 +25230,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28444,7 +28447,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="498" t="s">
+      <c r="C55" s="507" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28455,7 +28458,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="538" t="s">
+      <c r="H55" s="536" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28474,10 +28477,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="494" t="s">
+      <c r="O55" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="488">
+      <c r="P55" s="519">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28488,11 +28491,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="537"/>
+      <c r="A56" s="535"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="499"/>
+      <c r="C56" s="508"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28501,7 +28504,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="539"/>
+      <c r="H56" s="537"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28518,8 +28521,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="495"/>
-      <c r="P56" s="489"/>
+      <c r="O56" s="514"/>
+      <c r="P56" s="520"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28580,13 +28583,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="521" t="s">
+      <c r="A58" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="535" t="s">
+      <c r="C58" s="546" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28597,7 +28600,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="546" t="s">
+      <c r="H58" s="544" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28616,10 +28619,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="502" t="s">
+      <c r="O58" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="523">
+      <c r="P58" s="503">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28630,11 +28633,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="522"/>
+      <c r="A59" s="498"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="536"/>
+      <c r="C59" s="547"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28643,7 +28646,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="547"/>
+      <c r="H59" s="545"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28660,8 +28663,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="503"/>
-      <c r="P59" s="524"/>
+      <c r="O59" s="502"/>
+      <c r="P59" s="504"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28734,13 +28737,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="540" t="s">
+      <c r="A62" s="538" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="542" t="s">
+      <c r="C62" s="540" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28751,7 +28754,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="544">
+      <c r="H62" s="542">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28770,10 +28773,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="494" t="s">
+      <c r="O62" s="513" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="488">
+      <c r="P62" s="519">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28784,11 +28787,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="541"/>
+      <c r="A63" s="539"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="543"/>
+      <c r="C63" s="541"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28797,7 +28800,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="545"/>
+      <c r="H63" s="543"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28814,8 +28817,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="495"/>
-      <c r="P63" s="489"/>
+      <c r="O63" s="514"/>
+      <c r="P63" s="520"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29294,8 +29297,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29324,8 +29327,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29354,8 +29357,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29387,8 +29390,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29546,8 +29549,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29579,8 +29582,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29783,8 +29786,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29816,8 +29819,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35209,11 +35212,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35787,6 +35790,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35803,17 +35817,6 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35860,18 +35863,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35887,22 +35890,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35956,10 +35959,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -39755,8 +39758,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39785,8 +39788,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39815,8 +39818,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39848,8 +39851,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -40007,8 +40010,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40040,8 +40043,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40244,8 +40247,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40277,8 +40280,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45670,11 +45673,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -46248,18 +46251,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
     <mergeCell ref="F259:H259"/>
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="P81:P82"/>
     <mergeCell ref="L87:M88"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="P94:P95"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46274,19 +46277,19 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="310" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -46306,18 +46309,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46333,22 +46336,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46402,10 +46405,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -46935,7 +46938,7 @@
       <c r="W11" s="53"/>
       <c r="X11" s="70"/>
     </row>
-    <row r="12" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="71" t="s">
         <v>36</v>
       </c>
@@ -46959,7 +46962,7 @@
         <v>44691</v>
       </c>
       <c r="H12" s="410" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="I12" s="411">
         <v>5965</v>
@@ -46977,8 +46980,12 @@
         <f t="shared" si="1"/>
         <v>211757.5</v>
       </c>
-      <c r="O12" s="397"/>
-      <c r="P12" s="398"/>
+      <c r="O12" s="397" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="398">
+        <v>44705</v>
+      </c>
       <c r="Q12" s="66">
         <v>0</v>
       </c>
@@ -49778,8 +49785,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49811,8 +49818,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50015,8 +50022,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -50048,8 +50055,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -55441,11 +55448,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>316015</v>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="462">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1325,12 +1325,6 @@
     <t>T-49</t>
   </si>
   <si>
-    <t>20464--</t>
-  </si>
-  <si>
-    <t>20482--</t>
-  </si>
-  <si>
     <t>20495--</t>
   </si>
   <si>
@@ -1422,6 +1416,18 @@
   </si>
   <si>
     <t>20482--10968</t>
+  </si>
+  <si>
+    <t>20464--10961</t>
+  </si>
+  <si>
+    <t>20464--3324</t>
+  </si>
+  <si>
+    <t>20482--10967</t>
+  </si>
+  <si>
+    <t>20495--10981</t>
   </si>
 </sst>
 </file>
@@ -4060,15 +4066,87 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4103,83 +4181,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4209,6 +4215,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4242,12 +4254,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4579,18 +4585,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4604,22 +4610,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4673,10 +4679,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5220,7 +5226,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="493" t="s">
+      <c r="C12" s="517" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5284,7 +5290,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="494"/>
+      <c r="C13" s="518"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7286,13 +7292,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="505" t="s">
+      <c r="A56" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="507" t="s">
+      <c r="C56" s="498" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7303,7 +7309,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="499">
+      <c r="H56" s="500">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7332,11 +7338,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="506"/>
+      <c r="A57" s="497"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="508"/>
+      <c r="C57" s="499"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7345,7 +7351,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="500"/>
+      <c r="H57" s="501"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7372,13 +7378,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="505" t="s">
+      <c r="A58" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="507" t="s">
+      <c r="C58" s="498" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7389,7 +7395,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="499">
+      <c r="H58" s="500">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7408,10 +7414,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="501" t="s">
+      <c r="O58" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="503">
+      <c r="P58" s="523">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7422,11 +7428,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="506"/>
+      <c r="A59" s="497"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="508"/>
+      <c r="C59" s="499"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7435,7 +7441,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="500"/>
+      <c r="H59" s="501"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7452,8 +7458,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="502"/>
-      <c r="P59" s="504"/>
+      <c r="O59" s="503"/>
+      <c r="P59" s="524"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7462,13 +7468,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="497" t="s">
+      <c r="A60" s="521" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="495" t="s">
+      <c r="C60" s="519" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7482,7 +7488,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="499">
+      <c r="H60" s="500">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7501,10 +7507,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="501" t="s">
+      <c r="O60" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="503">
+      <c r="P60" s="523">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7517,11 +7523,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="498"/>
+      <c r="A61" s="522"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="496"/>
+      <c r="C61" s="520"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7533,7 +7539,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="500"/>
+      <c r="H61" s="501"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7550,8 +7556,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="502"/>
-      <c r="P61" s="504"/>
+      <c r="O61" s="503"/>
+      <c r="P61" s="524"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7617,7 +7623,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="521"/>
+      <c r="C63" s="490"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7625,7 +7631,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="523"/>
+      <c r="H63" s="492"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7654,7 +7660,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="522"/>
+      <c r="C64" s="491"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7662,7 +7668,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="524"/>
+      <c r="H64" s="493"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7840,8 +7846,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="513"/>
-      <c r="P68" s="519"/>
+      <c r="O68" s="494"/>
+      <c r="P68" s="488"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7875,8 +7881,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="514"/>
-      <c r="P69" s="520"/>
+      <c r="O69" s="495"/>
+      <c r="P69" s="489"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8366,8 +8372,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="513"/>
-      <c r="P82" s="515"/>
+      <c r="O82" s="494"/>
+      <c r="P82" s="508"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8399,8 +8405,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="514"/>
-      <c r="P83" s="516"/>
+      <c r="O83" s="495"/>
+      <c r="P83" s="509"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8432,8 +8438,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="513"/>
-      <c r="P84" s="515"/>
+      <c r="O84" s="494"/>
+      <c r="P84" s="508"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8465,8 +8471,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="514"/>
-      <c r="P85" s="516"/>
+      <c r="O85" s="495"/>
+      <c r="P85" s="509"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8624,8 +8630,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="517"/>
-      <c r="M90" s="518"/>
+      <c r="L90" s="510"/>
+      <c r="M90" s="511"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8657,8 +8663,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="517"/>
-      <c r="M91" s="518"/>
+      <c r="L91" s="510"/>
+      <c r="M91" s="511"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8861,8 +8867,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="513"/>
-      <c r="P97" s="509"/>
+      <c r="O97" s="494"/>
+      <c r="P97" s="504"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8894,8 +8900,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="514"/>
-      <c r="P98" s="510"/>
+      <c r="O98" s="495"/>
+      <c r="P98" s="505"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14287,11 +14293,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="511" t="s">
+      <c r="F262" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="511"/>
-      <c r="H262" s="512"/>
+      <c r="G262" s="506"/>
+      <c r="H262" s="507"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14865,22 +14871,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14894,6 +14884,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14937,18 +14943,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14964,22 +14970,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -15033,10 +15039,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17678,7 +17684,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="507" t="s">
+      <c r="C55" s="498" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17689,7 +17695,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="523" t="s">
+      <c r="H55" s="492" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17722,7 +17728,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="508"/>
+      <c r="C56" s="499"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17731,7 +17737,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="524"/>
+      <c r="H56" s="493"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17777,7 +17783,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="523" t="s">
+      <c r="H57" s="492" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17796,10 +17802,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="513" t="s">
+      <c r="O57" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="519">
+      <c r="P57" s="488">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17823,7 +17829,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="524"/>
+      <c r="H58" s="493"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17867,7 +17873,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="523" t="s">
+      <c r="H59" s="492" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17911,7 +17917,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="524"/>
+      <c r="H60" s="493"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18574,8 +18580,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18604,8 +18610,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18634,8 +18640,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18667,8 +18673,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18826,8 +18832,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18859,8 +18865,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19063,8 +19069,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19096,8 +19102,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24489,11 +24495,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25067,6 +25073,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25082,12 +25094,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25134,18 +25140,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25161,22 +25167,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25230,10 +25236,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28447,7 +28453,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="507" t="s">
+      <c r="C55" s="498" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28458,7 +28464,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="536" t="s">
+      <c r="H55" s="538" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28477,10 +28483,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="513" t="s">
+      <c r="O55" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="519">
+      <c r="P55" s="488">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28491,11 +28497,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="535"/>
+      <c r="A56" s="537"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="508"/>
+      <c r="C56" s="499"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28504,7 +28510,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="537"/>
+      <c r="H56" s="539"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28521,8 +28527,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="514"/>
-      <c r="P56" s="520"/>
+      <c r="O56" s="495"/>
+      <c r="P56" s="489"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28583,13 +28589,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="497" t="s">
+      <c r="A58" s="521" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="546" t="s">
+      <c r="C58" s="535" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28600,7 +28606,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="544" t="s">
+      <c r="H58" s="546" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28619,10 +28625,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="501" t="s">
+      <c r="O58" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="503">
+      <c r="P58" s="523">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28633,11 +28639,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="498"/>
+      <c r="A59" s="522"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="547"/>
+      <c r="C59" s="536"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28646,7 +28652,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="545"/>
+      <c r="H59" s="547"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28663,8 +28669,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="502"/>
-      <c r="P59" s="504"/>
+      <c r="O59" s="503"/>
+      <c r="P59" s="524"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28737,13 +28743,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="538" t="s">
+      <c r="A62" s="540" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="540" t="s">
+      <c r="C62" s="542" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28754,7 +28760,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="542">
+      <c r="H62" s="544">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28773,10 +28779,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="513" t="s">
+      <c r="O62" s="494" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="519">
+      <c r="P62" s="488">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28787,11 +28793,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="539"/>
+      <c r="A63" s="541"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="541"/>
+      <c r="C63" s="543"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28800,7 +28806,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="543"/>
+      <c r="H63" s="545"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28817,8 +28823,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="514"/>
-      <c r="P63" s="520"/>
+      <c r="O63" s="495"/>
+      <c r="P63" s="489"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29297,8 +29303,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29327,8 +29333,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29357,8 +29363,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29390,8 +29396,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29549,8 +29555,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29582,8 +29588,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29786,8 +29792,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29819,8 +29825,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35212,11 +35218,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35790,17 +35796,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35817,6 +35812,17 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35863,18 +35869,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35890,22 +35896,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35959,10 +35965,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -36045,7 +36051,7 @@
         <v>305</v>
       </c>
       <c r="U4" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V4" s="54">
         <v>0</v>
@@ -36118,7 +36124,7 @@
         <v>305</v>
       </c>
       <c r="U5" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V5" s="54">
         <v>4640</v>
@@ -36191,7 +36197,7 @@
         <v>306</v>
       </c>
       <c r="U6" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V6" s="54">
         <v>4640</v>
@@ -36264,7 +36270,7 @@
         <v>306</v>
       </c>
       <c r="U7" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V7" s="54">
         <v>0</v>
@@ -36337,7 +36343,7 @@
         <v>307</v>
       </c>
       <c r="U8" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V8" s="54">
         <v>4640</v>
@@ -36410,7 +36416,7 @@
         <v>307</v>
       </c>
       <c r="U9" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V9" s="54">
         <v>0</v>
@@ -36483,7 +36489,7 @@
         <v>308</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V10" s="54">
         <v>4640</v>
@@ -36556,7 +36562,7 @@
         <v>308</v>
       </c>
       <c r="U11" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V11" s="54">
         <v>0</v>
@@ -36625,7 +36631,7 @@
       <c r="S12" s="51"/>
       <c r="T12" s="52"/>
       <c r="U12" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V12" s="54">
         <v>4640</v>
@@ -36694,7 +36700,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="52"/>
       <c r="U13" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V13" s="54">
         <v>0</v>
@@ -36763,7 +36769,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="52"/>
       <c r="U14" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V14" s="54">
         <v>4640</v>
@@ -36832,7 +36838,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="92"/>
       <c r="U15" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V15" s="54">
         <v>0</v>
@@ -36901,7 +36907,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="92"/>
       <c r="U16" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V16" s="54">
         <v>4640</v>
@@ -36971,7 +36977,7 @@
       <c r="S17" s="51"/>
       <c r="T17" s="92"/>
       <c r="U17" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V17" s="54">
         <v>0</v>
@@ -36984,7 +36990,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="485" t="s">
+      <c r="A18" s="484" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -37045,10 +37051,10 @@
       <c r="V18" s="54">
         <v>0</v>
       </c>
-      <c r="W18" s="487" t="s">
+      <c r="W18" s="486" t="s">
         <v>220</v>
       </c>
-      <c r="X18" s="486">
+      <c r="X18" s="485">
         <v>4176</v>
       </c>
     </row>
@@ -37114,7 +37120,7 @@
         <v>310</v>
       </c>
       <c r="U19" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V19" s="54">
         <v>4640</v>
@@ -37187,7 +37193,7 @@
         <v>310</v>
       </c>
       <c r="U20" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V20" s="54">
         <v>0</v>
@@ -37260,7 +37266,7 @@
         <v>309</v>
       </c>
       <c r="U21" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V21" s="54">
         <v>4640</v>
@@ -37333,7 +37339,7 @@
         <v>309</v>
       </c>
       <c r="U22" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V22" s="54">
         <v>0</v>
@@ -39758,8 +39764,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="513"/>
-      <c r="P79" s="515"/>
+      <c r="O79" s="494"/>
+      <c r="P79" s="508"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39788,8 +39794,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="514"/>
-      <c r="P80" s="516"/>
+      <c r="O80" s="495"/>
+      <c r="P80" s="509"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39818,8 +39824,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="513"/>
-      <c r="P81" s="515"/>
+      <c r="O81" s="494"/>
+      <c r="P81" s="508"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39851,8 +39857,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="514"/>
-      <c r="P82" s="516"/>
+      <c r="O82" s="495"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -40010,8 +40016,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40043,8 +40049,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40247,8 +40253,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40280,8 +40286,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45673,11 +45679,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -46251,18 +46257,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46280,7 +46286,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46309,18 +46315,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="512" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46336,22 +46342,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="514"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="512"/>
+      <c r="C2" s="512"/>
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46405,10 +46411,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="515" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="516"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -46438,7 +46444,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D4" s="39">
         <v>50</v>
@@ -46453,8 +46459,8 @@
       <c r="G4" s="42">
         <v>44682</v>
       </c>
-      <c r="H4" s="484" t="s">
-        <v>431</v>
+      <c r="H4" s="487" t="s">
+        <v>429</v>
       </c>
       <c r="I4" s="409">
         <v>22390</v>
@@ -46503,7 +46509,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D5" s="60">
         <v>50</v>
@@ -46519,7 +46525,7 @@
         <v>44684</v>
       </c>
       <c r="H5" s="410" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I5" s="411">
         <v>23430</v>
@@ -46568,7 +46574,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D6" s="60">
         <v>50</v>
@@ -46584,7 +46590,7 @@
         <v>44686</v>
       </c>
       <c r="H6" s="410" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I6" s="411">
         <v>22940</v>
@@ -46633,7 +46639,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D7" s="60">
         <v>0</v>
@@ -46649,7 +46655,7 @@
         <v>44686</v>
       </c>
       <c r="H7" s="410" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I7" s="411">
         <v>5925</v>
@@ -46698,7 +46704,7 @@
         <v>290</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D8" s="60">
         <v>50</v>
@@ -46714,7 +46720,7 @@
         <v>44687</v>
       </c>
       <c r="H8" s="410" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I8" s="411">
         <v>21700</v>
@@ -46755,7 +46761,7 @@
       <c r="W8" s="53"/>
       <c r="X8" s="70"/>
     </row>
-    <row r="9" spans="1:24" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71" t="s">
         <v>295</v>
       </c>
@@ -46763,7 +46769,7 @@
         <v>290</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D9" s="60">
         <v>50</v>
@@ -46779,7 +46785,7 @@
         <v>44689</v>
       </c>
       <c r="H9" s="410" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="I9" s="411">
         <v>20830</v>
@@ -46797,8 +46803,12 @@
         <f t="shared" si="1"/>
         <v>739465</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
+      <c r="O9" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="90">
+        <v>44704</v>
+      </c>
       <c r="Q9" s="66">
         <v>26793</v>
       </c>
@@ -46824,7 +46834,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D10" s="72">
         <v>0</v>
@@ -46840,7 +46850,7 @@
         <v>44689</v>
       </c>
       <c r="H10" s="410" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="I10" s="411">
         <v>5720</v>
@@ -46858,8 +46868,12 @@
         <f t="shared" si="1"/>
         <v>203060</v>
       </c>
-      <c r="O10" s="397"/>
-      <c r="P10" s="398"/>
+      <c r="O10" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="398">
+        <v>44704</v>
+      </c>
       <c r="Q10" s="66">
         <v>0</v>
       </c>
@@ -46877,7 +46891,7 @@
       <c r="W10" s="53"/>
       <c r="X10" s="70"/>
     </row>
-    <row r="11" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
         <v>47</v>
       </c>
@@ -46885,7 +46899,7 @@
         <v>290</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D11" s="60">
         <v>50</v>
@@ -46901,7 +46915,7 @@
         <v>44691</v>
       </c>
       <c r="H11" s="410" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="I11" s="411">
         <v>21315</v>
@@ -46919,8 +46933,12 @@
         <f t="shared" si="1"/>
         <v>756682.5</v>
       </c>
-      <c r="O11" s="397"/>
-      <c r="P11" s="398"/>
+      <c r="O11" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="398">
+        <v>44705</v>
+      </c>
       <c r="Q11" s="66">
         <v>26793</v>
       </c>
@@ -46946,7 +46964,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="431" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D12" s="60">
         <v>50</v>
@@ -46962,7 +46980,7 @@
         <v>44691</v>
       </c>
       <c r="H12" s="410" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I12" s="411">
         <v>5965</v>
@@ -47011,7 +47029,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="432" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D13" s="60">
         <v>50</v>
@@ -47027,7 +47045,7 @@
         <v>44693</v>
       </c>
       <c r="H13" s="410" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I13" s="411">
         <v>22380</v>
@@ -47045,8 +47063,12 @@
         <f t="shared" si="1"/>
         <v>794490</v>
       </c>
-      <c r="O13" s="397"/>
-      <c r="P13" s="398"/>
+      <c r="O13" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="398">
+        <v>44707</v>
+      </c>
       <c r="Q13" s="66">
         <v>26900</v>
       </c>
@@ -47064,7 +47086,7 @@
       <c r="W13" s="53"/>
       <c r="X13" s="70"/>
     </row>
-    <row r="14" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
         <v>36</v>
       </c>
@@ -47072,7 +47094,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D14" s="60">
         <v>50</v>
@@ -47088,7 +47110,7 @@
         <v>44693</v>
       </c>
       <c r="H14" s="410" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="I14" s="411">
         <v>5505</v>
@@ -47106,8 +47128,12 @@
         <f t="shared" si="1"/>
         <v>195427.5</v>
       </c>
-      <c r="O14" s="397"/>
-      <c r="P14" s="398"/>
+      <c r="O14" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="398">
+        <v>44707</v>
+      </c>
       <c r="Q14" s="66">
         <v>0</v>
       </c>
@@ -47133,7 +47159,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D15" s="60">
         <v>50</v>
@@ -47149,7 +47175,7 @@
         <v>44694</v>
       </c>
       <c r="H15" s="410" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I15" s="411">
         <v>23490</v>
@@ -47194,7 +47220,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D16" s="60">
         <v>50</v>
@@ -47210,7 +47236,7 @@
         <v>44694</v>
       </c>
       <c r="H16" s="410" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I16" s="411">
         <v>5875</v>
@@ -47255,7 +47281,7 @@
         <v>290</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D17" s="60">
         <v>50</v>
@@ -47271,7 +47297,7 @@
         <v>44696</v>
       </c>
       <c r="H17" s="410" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I17" s="411">
         <v>21850</v>
@@ -47301,7 +47327,7 @@
         <v>11200</v>
       </c>
       <c r="T17" s="92" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
@@ -47316,7 +47342,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D18" s="60">
         <v>50</v>
@@ -47332,7 +47358,7 @@
         <v>44696</v>
       </c>
       <c r="H18" s="410" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I18" s="411">
         <v>5695</v>
@@ -47362,7 +47388,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="92" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
@@ -47371,13 +47397,13 @@
     </row>
     <row r="19" spans="1:24" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D19" s="60">
         <v>50</v>
@@ -47393,7 +47419,7 @@
         <v>44698</v>
       </c>
       <c r="H19" s="410" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I19" s="411">
         <v>20865</v>
@@ -47423,7 +47449,7 @@
         <v>11200</v>
       </c>
       <c r="T19" s="92" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
@@ -47438,7 +47464,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D20" s="60">
         <v>50</v>
@@ -47454,7 +47480,7 @@
         <v>44698</v>
       </c>
       <c r="H20" s="410" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I20" s="411">
         <v>5900</v>
@@ -47484,7 +47510,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="92" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
@@ -47499,7 +47525,7 @@
         <v>72</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D21" s="60">
         <v>50</v>
@@ -47515,7 +47541,7 @@
         <v>44700</v>
       </c>
       <c r="H21" s="410" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I21" s="411">
         <v>21840</v>
@@ -47545,7 +47571,7 @@
         <v>11200</v>
       </c>
       <c r="T21" s="92" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
@@ -47560,7 +47586,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D22" s="60">
         <v>50</v>
@@ -47576,7 +47602,7 @@
         <v>44700</v>
       </c>
       <c r="H22" s="410" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I22" s="411">
         <v>5250</v>
@@ -47606,7 +47632,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="92" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
@@ -47621,7 +47647,7 @@
         <v>72</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D23" s="60">
         <v>51</v>
@@ -47637,7 +47663,7 @@
         <v>44701</v>
       </c>
       <c r="H23" s="410" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I23" s="411">
         <v>21420</v>
@@ -47667,7 +47693,7 @@
         <v>11200</v>
       </c>
       <c r="T23" s="92" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
@@ -47682,7 +47708,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D24" s="60">
         <v>51</v>
@@ -47698,7 +47724,7 @@
         <v>44701</v>
       </c>
       <c r="H24" s="410" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I24" s="411">
         <v>5730</v>
@@ -47728,7 +47754,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="92" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
@@ -49745,7 +49771,7 @@
       </c>
       <c r="F86" s="64"/>
       <c r="G86" s="117"/>
-      <c r="H86" s="198"/>
+      <c r="H86" s="63"/>
       <c r="I86" s="64"/>
       <c r="J86" s="45">
         <f t="shared" si="0"/>
@@ -49778,15 +49804,15 @@
       </c>
       <c r="F87" s="64"/>
       <c r="G87" s="117"/>
-      <c r="H87" s="198"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="64"/>
       <c r="J87" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="517"/>
-      <c r="M87" s="518"/>
+      <c r="L87" s="510"/>
+      <c r="M87" s="511"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49811,15 +49837,15 @@
       </c>
       <c r="F88" s="64"/>
       <c r="G88" s="117"/>
-      <c r="H88" s="198"/>
+      <c r="H88" s="63"/>
       <c r="I88" s="64"/>
       <c r="J88" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="517"/>
-      <c r="M88" s="518"/>
+      <c r="L88" s="510"/>
+      <c r="M88" s="511"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49844,7 +49870,7 @@
       </c>
       <c r="F89" s="64"/>
       <c r="G89" s="117"/>
-      <c r="H89" s="198"/>
+      <c r="H89" s="63"/>
       <c r="I89" s="64"/>
       <c r="J89" s="45">
         <f t="shared" si="0"/>
@@ -49877,7 +49903,7 @@
       </c>
       <c r="F90" s="64"/>
       <c r="G90" s="117"/>
-      <c r="H90" s="198"/>
+      <c r="H90" s="63"/>
       <c r="I90" s="64"/>
       <c r="J90" s="45">
         <f t="shared" si="0"/>
@@ -49910,7 +49936,7 @@
       </c>
       <c r="F91" s="64"/>
       <c r="G91" s="117"/>
-      <c r="H91" s="198"/>
+      <c r="H91" s="63"/>
       <c r="I91" s="64"/>
       <c r="J91" s="45">
         <f t="shared" si="0"/>
@@ -49943,7 +49969,7 @@
       </c>
       <c r="F92" s="64"/>
       <c r="G92" s="117"/>
-      <c r="H92" s="198"/>
+      <c r="H92" s="63"/>
       <c r="I92" s="64"/>
       <c r="J92" s="45">
         <f t="shared" si="0"/>
@@ -49976,7 +50002,7 @@
       </c>
       <c r="F93" s="64"/>
       <c r="G93" s="117"/>
-      <c r="H93" s="198"/>
+      <c r="H93" s="63"/>
       <c r="I93" s="64"/>
       <c r="J93" s="45">
         <f t="shared" si="0"/>
@@ -50009,7 +50035,7 @@
       </c>
       <c r="F94" s="64"/>
       <c r="G94" s="117"/>
-      <c r="H94" s="198"/>
+      <c r="H94" s="63"/>
       <c r="I94" s="64"/>
       <c r="J94" s="45">
         <f t="shared" si="0"/>
@@ -50022,8 +50048,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="513"/>
-      <c r="P94" s="509"/>
+      <c r="O94" s="494"/>
+      <c r="P94" s="504"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -50042,7 +50068,7 @@
       </c>
       <c r="F95" s="64"/>
       <c r="G95" s="117"/>
-      <c r="H95" s="198"/>
+      <c r="H95" s="63"/>
       <c r="I95" s="64"/>
       <c r="J95" s="45">
         <f t="shared" si="0"/>
@@ -50055,8 +50081,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="514"/>
-      <c r="P95" s="510"/>
+      <c r="O95" s="495"/>
+      <c r="P95" s="505"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -50075,7 +50101,7 @@
       </c>
       <c r="F96" s="64"/>
       <c r="G96" s="117"/>
-      <c r="H96" s="198"/>
+      <c r="H96" s="63"/>
       <c r="I96" s="64"/>
       <c r="J96" s="45">
         <f t="shared" si="0"/>
@@ -50108,7 +50134,7 @@
       </c>
       <c r="F97" s="64"/>
       <c r="G97" s="117"/>
-      <c r="H97" s="198"/>
+      <c r="H97" s="63"/>
       <c r="I97" s="64"/>
       <c r="J97" s="45">
         <f t="shared" si="0"/>
@@ -51065,7 +51091,7 @@
       </c>
       <c r="F126" s="64"/>
       <c r="G126" s="117"/>
-      <c r="H126" s="213"/>
+      <c r="H126" s="223"/>
       <c r="I126" s="64"/>
       <c r="J126" s="45">
         <f t="shared" si="0"/>
@@ -51098,7 +51124,7 @@
       </c>
       <c r="F127" s="64"/>
       <c r="G127" s="117"/>
-      <c r="H127" s="213"/>
+      <c r="H127" s="223"/>
       <c r="I127" s="64"/>
       <c r="J127" s="45">
         <f t="shared" si="0"/>
@@ -51131,7 +51157,7 @@
       </c>
       <c r="F128" s="64"/>
       <c r="G128" s="117"/>
-      <c r="H128" s="213"/>
+      <c r="H128" s="223"/>
       <c r="I128" s="64"/>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -51164,7 +51190,7 @@
       </c>
       <c r="F129" s="64"/>
       <c r="G129" s="117"/>
-      <c r="H129" s="213"/>
+      <c r="H129" s="223"/>
       <c r="I129" s="64"/>
       <c r="J129" s="45">
         <f t="shared" si="0"/>
@@ -51197,7 +51223,7 @@
       </c>
       <c r="F130" s="64"/>
       <c r="G130" s="117"/>
-      <c r="H130" s="216"/>
+      <c r="H130" s="212"/>
       <c r="I130" s="64"/>
       <c r="J130" s="45">
         <f t="shared" si="0"/>
@@ -51230,7 +51256,7 @@
       </c>
       <c r="F131" s="64"/>
       <c r="G131" s="117"/>
-      <c r="H131" s="216"/>
+      <c r="H131" s="212"/>
       <c r="I131" s="64"/>
       <c r="J131" s="45">
         <f t="shared" si="0"/>
@@ -51263,7 +51289,7 @@
       </c>
       <c r="F132" s="64"/>
       <c r="G132" s="117"/>
-      <c r="H132" s="216"/>
+      <c r="H132" s="212"/>
       <c r="I132" s="64"/>
       <c r="J132" s="45">
         <f t="shared" si="0"/>
@@ -51296,7 +51322,7 @@
       </c>
       <c r="F133" s="64"/>
       <c r="G133" s="117"/>
-      <c r="H133" s="216"/>
+      <c r="H133" s="212"/>
       <c r="I133" s="64"/>
       <c r="J133" s="45">
         <f t="shared" si="0"/>
@@ -51329,7 +51355,7 @@
       </c>
       <c r="F134" s="64"/>
       <c r="G134" s="117"/>
-      <c r="H134" s="216"/>
+      <c r="H134" s="212"/>
       <c r="I134" s="64"/>
       <c r="J134" s="45">
         <f t="shared" si="0"/>
@@ -51362,7 +51388,7 @@
       </c>
       <c r="F135" s="64"/>
       <c r="G135" s="117"/>
-      <c r="H135" s="216"/>
+      <c r="H135" s="212"/>
       <c r="I135" s="64"/>
       <c r="J135" s="45">
         <f t="shared" si="0"/>
@@ -51395,7 +51421,7 @@
       </c>
       <c r="F136" s="64"/>
       <c r="G136" s="117"/>
-      <c r="H136" s="216"/>
+      <c r="H136" s="212"/>
       <c r="I136" s="64"/>
       <c r="J136" s="45">
         <f t="shared" si="0"/>
@@ -51428,7 +51454,7 @@
       </c>
       <c r="F137" s="64"/>
       <c r="G137" s="117"/>
-      <c r="H137" s="216"/>
+      <c r="H137" s="212"/>
       <c r="I137" s="64"/>
       <c r="J137" s="45">
         <f t="shared" si="0"/>
@@ -55448,11 +55474,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="511" t="s">
+      <c r="F259" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="511"/>
-      <c r="H259" s="512"/>
+      <c r="G259" s="506"/>
+      <c r="H259" s="507"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>316015</v>
@@ -55772,7 +55798,7 @@
       <c r="E280" s="367"/>
       <c r="F280" s="368"/>
       <c r="G280" s="369"/>
-      <c r="H280" s="370"/>
+      <c r="H280" s="448"/>
       <c r="I280" s="371"/>
       <c r="J280"/>
       <c r="K280"/>
@@ -55792,7 +55818,7 @@
       <c r="E281" s="367"/>
       <c r="F281" s="368"/>
       <c r="G281" s="369"/>
-      <c r="H281" s="370"/>
+      <c r="H281" s="448"/>
       <c r="I281" s="371"/>
       <c r="J281"/>
       <c r="K281"/>
@@ -55812,7 +55838,7 @@
       <c r="E282" s="367"/>
       <c r="F282" s="368"/>
       <c r="G282" s="369"/>
-      <c r="H282" s="370"/>
+      <c r="H282" s="448"/>
       <c r="I282" s="371"/>
       <c r="J282"/>
       <c r="K282"/>
@@ -55832,7 +55858,7 @@
       <c r="E283" s="367"/>
       <c r="F283" s="368"/>
       <c r="G283" s="369"/>
-      <c r="H283" s="370"/>
+      <c r="H283" s="448"/>
       <c r="I283" s="371"/>
       <c r="J283"/>
       <c r="K283"/>
@@ -55852,7 +55878,7 @@
       <c r="E284" s="367"/>
       <c r="F284" s="368"/>
       <c r="G284" s="369"/>
-      <c r="H284" s="370"/>
+      <c r="H284" s="448"/>
       <c r="I284" s="371"/>
       <c r="J284"/>
       <c r="K284"/>
@@ -55872,7 +55898,7 @@
       <c r="E285" s="367"/>
       <c r="F285" s="368"/>
       <c r="G285" s="369"/>
-      <c r="H285" s="370"/>
+      <c r="H285" s="448"/>
       <c r="I285" s="371"/>
       <c r="J285"/>
       <c r="K285"/>
@@ -55892,7 +55918,7 @@
       <c r="E286" s="367"/>
       <c r="F286" s="368"/>
       <c r="G286" s="369"/>
-      <c r="H286" s="370"/>
+      <c r="H286" s="448"/>
       <c r="I286" s="371"/>
       <c r="J286"/>
       <c r="K286"/>
@@ -55912,7 +55938,7 @@
       <c r="E287" s="367"/>
       <c r="F287" s="368"/>
       <c r="G287" s="369"/>
-      <c r="H287" s="370"/>
+      <c r="H287" s="448"/>
       <c r="I287" s="371"/>
       <c r="J287"/>
       <c r="K287"/>
@@ -55932,7 +55958,7 @@
       <c r="E288" s="367"/>
       <c r="F288" s="368"/>
       <c r="G288" s="369"/>
-      <c r="H288" s="370"/>
+      <c r="H288" s="448"/>
       <c r="I288" s="371"/>
       <c r="J288"/>
       <c r="K288"/>
@@ -55952,7 +55978,7 @@
       <c r="E289" s="367"/>
       <c r="F289" s="368"/>
       <c r="G289" s="369"/>
-      <c r="H289" s="370"/>
+      <c r="H289" s="448"/>
       <c r="I289" s="371"/>
       <c r="J289"/>
       <c r="K289"/>
@@ -55972,7 +55998,7 @@
       <c r="E290" s="367"/>
       <c r="F290" s="368"/>
       <c r="G290" s="369"/>
-      <c r="H290" s="370"/>
+      <c r="H290" s="448"/>
       <c r="I290" s="371"/>
       <c r="J290"/>
       <c r="K290"/>
@@ -55992,7 +56018,7 @@
       <c r="E291" s="367"/>
       <c r="F291" s="368"/>
       <c r="G291" s="369"/>
-      <c r="H291" s="370"/>
+      <c r="H291" s="448"/>
       <c r="I291" s="371"/>
       <c r="J291"/>
       <c r="K291"/>
@@ -56012,7 +56038,7 @@
       <c r="E292" s="367"/>
       <c r="F292" s="368"/>
       <c r="G292" s="369"/>
-      <c r="H292" s="370"/>
+      <c r="H292" s="448"/>
       <c r="I292" s="371"/>
       <c r="J292"/>
       <c r="K292"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="467">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1428,6 +1428,21 @@
   </si>
   <si>
     <t>20495--10981</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE   244</t>
+  </si>
+  <si>
+    <t>CANALES  199-5</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE   246</t>
+  </si>
+  <si>
+    <t>CANALES  200-4</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE  246</t>
   </si>
 </sst>
 </file>
@@ -4076,78 +4091,6 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4181,11 +4124,83 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4215,12 +4230,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4254,6 +4263,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4585,18 +4600,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4610,22 +4625,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4679,10 +4694,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5226,7 +5241,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="517" t="s">
+      <c r="C12" s="493" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5290,7 +5305,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="518"/>
+      <c r="C13" s="494"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7292,13 +7307,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="496" t="s">
+      <c r="A56" s="505" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="498" t="s">
+      <c r="C56" s="507" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7309,7 +7324,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="500">
+      <c r="H56" s="499">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7338,11 +7353,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="497"/>
+      <c r="A57" s="506"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="499"/>
+      <c r="C57" s="508"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7351,7 +7366,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="501"/>
+      <c r="H57" s="500"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7378,13 +7393,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="496" t="s">
+      <c r="A58" s="505" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="498" t="s">
+      <c r="C58" s="507" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7395,7 +7410,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="500">
+      <c r="H58" s="499">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7414,10 +7429,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="502" t="s">
+      <c r="O58" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="523">
+      <c r="P58" s="503">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7428,11 +7443,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="497"/>
+      <c r="A59" s="506"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="499"/>
+      <c r="C59" s="508"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7441,7 +7456,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="501"/>
+      <c r="H59" s="500"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7458,8 +7473,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="503"/>
-      <c r="P59" s="524"/>
+      <c r="O59" s="502"/>
+      <c r="P59" s="504"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7468,13 +7483,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="521" t="s">
+      <c r="A60" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="519" t="s">
+      <c r="C60" s="495" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7488,7 +7503,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="500">
+      <c r="H60" s="499">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7507,10 +7522,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="502" t="s">
+      <c r="O60" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="523">
+      <c r="P60" s="503">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7523,11 +7538,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="522"/>
+      <c r="A61" s="498"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="520"/>
+      <c r="C61" s="496"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7539,7 +7554,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="501"/>
+      <c r="H61" s="500"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7556,8 +7571,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="503"/>
-      <c r="P61" s="524"/>
+      <c r="O61" s="502"/>
+      <c r="P61" s="504"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7623,7 +7638,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="490"/>
+      <c r="C63" s="521"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7631,7 +7646,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="492"/>
+      <c r="H63" s="523"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7660,7 +7675,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="491"/>
+      <c r="C64" s="522"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7668,7 +7683,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="493"/>
+      <c r="H64" s="524"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7846,8 +7861,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="494"/>
-      <c r="P68" s="488"/>
+      <c r="O68" s="513"/>
+      <c r="P68" s="519"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7881,8 +7896,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="495"/>
-      <c r="P69" s="489"/>
+      <c r="O69" s="514"/>
+      <c r="P69" s="520"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8372,8 +8387,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="494"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="513"/>
+      <c r="P82" s="515"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8405,8 +8420,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="495"/>
-      <c r="P83" s="509"/>
+      <c r="O83" s="514"/>
+      <c r="P83" s="516"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8438,8 +8453,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="494"/>
-      <c r="P84" s="508"/>
+      <c r="O84" s="513"/>
+      <c r="P84" s="515"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8471,8 +8486,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="495"/>
-      <c r="P85" s="509"/>
+      <c r="O85" s="514"/>
+      <c r="P85" s="516"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8630,8 +8645,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="510"/>
-      <c r="M90" s="511"/>
+      <c r="L90" s="517"/>
+      <c r="M90" s="518"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8663,8 +8678,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="510"/>
-      <c r="M91" s="511"/>
+      <c r="L91" s="517"/>
+      <c r="M91" s="518"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8867,8 +8882,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="494"/>
-      <c r="P97" s="504"/>
+      <c r="O97" s="513"/>
+      <c r="P97" s="509"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8900,8 +8915,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="495"/>
-      <c r="P98" s="505"/>
+      <c r="O98" s="514"/>
+      <c r="P98" s="510"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14293,11 +14308,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="506" t="s">
+      <c r="F262" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="506"/>
-      <c r="H262" s="507"/>
+      <c r="G262" s="511"/>
+      <c r="H262" s="512"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14871,6 +14886,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14884,22 +14915,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14943,18 +14958,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14970,22 +14985,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -15039,10 +15054,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17684,7 +17699,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="498" t="s">
+      <c r="C55" s="507" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17695,7 +17710,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="492" t="s">
+      <c r="H55" s="523" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17728,7 +17743,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="499"/>
+      <c r="C56" s="508"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17737,7 +17752,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="493"/>
+      <c r="H56" s="524"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17783,7 +17798,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="492" t="s">
+      <c r="H57" s="523" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17802,10 +17817,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="494" t="s">
+      <c r="O57" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="488">
+      <c r="P57" s="519">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17829,7 +17844,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="493"/>
+      <c r="H58" s="524"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17873,7 +17888,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="492" t="s">
+      <c r="H59" s="523" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17917,7 +17932,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="493"/>
+      <c r="H60" s="524"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18580,8 +18595,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18610,8 +18625,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18640,8 +18655,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18673,8 +18688,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18832,8 +18847,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18865,8 +18880,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19069,8 +19084,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19102,8 +19117,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24495,11 +24510,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25073,12 +25088,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25094,6 +25103,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25140,18 +25155,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25167,22 +25182,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25236,10 +25251,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28453,7 +28468,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="498" t="s">
+      <c r="C55" s="507" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28464,7 +28479,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="538" t="s">
+      <c r="H55" s="536" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28483,10 +28498,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="494" t="s">
+      <c r="O55" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="488">
+      <c r="P55" s="519">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28497,11 +28512,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="537"/>
+      <c r="A56" s="535"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="499"/>
+      <c r="C56" s="508"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28510,7 +28525,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="539"/>
+      <c r="H56" s="537"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28527,8 +28542,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="495"/>
-      <c r="P56" s="489"/>
+      <c r="O56" s="514"/>
+      <c r="P56" s="520"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28589,13 +28604,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="521" t="s">
+      <c r="A58" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="535" t="s">
+      <c r="C58" s="546" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28606,7 +28621,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="546" t="s">
+      <c r="H58" s="544" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28625,10 +28640,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="502" t="s">
+      <c r="O58" s="501" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="523">
+      <c r="P58" s="503">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28639,11 +28654,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="522"/>
+      <c r="A59" s="498"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="536"/>
+      <c r="C59" s="547"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28652,7 +28667,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="547"/>
+      <c r="H59" s="545"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28669,8 +28684,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="503"/>
-      <c r="P59" s="524"/>
+      <c r="O59" s="502"/>
+      <c r="P59" s="504"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28743,13 +28758,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="540" t="s">
+      <c r="A62" s="538" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="542" t="s">
+      <c r="C62" s="540" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28760,7 +28775,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="544">
+      <c r="H62" s="542">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28779,10 +28794,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="494" t="s">
+      <c r="O62" s="513" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="488">
+      <c r="P62" s="519">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28793,11 +28808,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="541"/>
+      <c r="A63" s="539"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="543"/>
+      <c r="C63" s="541"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28806,7 +28821,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="545"/>
+      <c r="H63" s="543"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28823,8 +28838,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="495"/>
-      <c r="P63" s="489"/>
+      <c r="O63" s="514"/>
+      <c r="P63" s="520"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29303,8 +29318,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29333,8 +29348,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29363,8 +29378,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29396,8 +29411,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29555,8 +29570,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29588,8 +29603,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29792,8 +29807,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29825,8 +29840,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35218,11 +35233,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35796,6 +35811,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35812,17 +35838,6 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35869,18 +35884,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35896,22 +35911,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35965,10 +35980,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -39764,8 +39779,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="494"/>
-      <c r="P79" s="508"/>
+      <c r="O79" s="513"/>
+      <c r="P79" s="515"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39794,8 +39809,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="495"/>
-      <c r="P80" s="509"/>
+      <c r="O80" s="514"/>
+      <c r="P80" s="516"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39824,8 +39839,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="494"/>
-      <c r="P81" s="508"/>
+      <c r="O81" s="513"/>
+      <c r="P81" s="515"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39857,8 +39872,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="509"/>
+      <c r="O82" s="514"/>
+      <c r="P82" s="516"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -40016,8 +40031,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40049,8 +40064,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40253,8 +40268,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40286,8 +40301,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45679,11 +45694,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491156.35000000003</v>
@@ -46257,18 +46272,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
     <mergeCell ref="F259:H259"/>
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="P81:P82"/>
     <mergeCell ref="L87:M88"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="P94:P95"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46283,10 +46298,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46315,18 +46330,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="512" t="s">
+      <c r="A1" s="488" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46342,22 +46357,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="513" t="s">
+      <c r="W1" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="514"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="512"/>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
-      <c r="E2" s="512"/>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
-      <c r="H2" s="512"/>
-      <c r="I2" s="512"/>
-      <c r="J2" s="512"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46411,10 +46426,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="515" t="s">
+      <c r="O3" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="516"/>
+      <c r="P3" s="492"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -47702,7 +47717,7 @@
     </row>
     <row r="24" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>32</v>
@@ -47762,28 +47777,40 @@
       <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>463</v>
+      </c>
       <c r="C25" s="59"/>
       <c r="D25" s="60"/>
       <c r="E25" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
+      <c r="F25" s="61">
+        <v>21430</v>
+      </c>
+      <c r="G25" s="62">
+        <v>44703</v>
+      </c>
       <c r="H25" s="410"/>
-      <c r="I25" s="411"/>
+      <c r="I25" s="411">
+        <v>22170</v>
+      </c>
       <c r="J25" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="76"/>
+        <v>740</v>
+      </c>
+      <c r="K25" s="76">
+        <v>37</v>
+      </c>
       <c r="L25" s="65"/>
       <c r="M25" s="65"/>
       <c r="N25" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>820290</v>
       </c>
       <c r="O25" s="89"/>
       <c r="P25" s="90"/>
@@ -47797,28 +47824,40 @@
       <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="59"/>
       <c r="D26" s="60"/>
       <c r="E26" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
+      <c r="F26" s="61">
+        <v>0</v>
+      </c>
+      <c r="G26" s="62">
+        <v>44703</v>
+      </c>
       <c r="H26" s="410"/>
-      <c r="I26" s="411"/>
+      <c r="I26" s="411">
+        <v>5385</v>
+      </c>
       <c r="J26" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="76"/>
+        <v>5385</v>
+      </c>
+      <c r="K26" s="76">
+        <v>37</v>
+      </c>
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
       <c r="N26" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>199245</v>
       </c>
       <c r="O26" s="89"/>
       <c r="P26" s="90"/>
@@ -47832,28 +47871,40 @@
       <c r="X26" s="70"/>
     </row>
     <row r="27" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="82" t="s">
+        <v>464</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>465</v>
+      </c>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
       <c r="E27" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="61">
+        <v>20950</v>
+      </c>
+      <c r="G27" s="62">
+        <v>44705</v>
+      </c>
       <c r="H27" s="410"/>
-      <c r="I27" s="411"/>
+      <c r="I27" s="411">
+        <v>21470</v>
+      </c>
       <c r="J27" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="76"/>
+        <v>520</v>
+      </c>
+      <c r="K27" s="76">
+        <v>37</v>
+      </c>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>794390</v>
       </c>
       <c r="O27" s="89"/>
       <c r="P27" s="90"/>
@@ -47867,28 +47918,40 @@
       <c r="X27" s="70"/>
     </row>
     <row r="28" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
       <c r="E28" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="F28" s="61">
+        <v>0</v>
+      </c>
+      <c r="G28" s="62">
+        <v>44705</v>
+      </c>
       <c r="H28" s="410"/>
-      <c r="I28" s="411"/>
+      <c r="I28" s="411">
+        <v>5535</v>
+      </c>
       <c r="J28" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="76"/>
+        <v>5535</v>
+      </c>
+      <c r="K28" s="76">
+        <v>37</v>
+      </c>
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
       <c r="N28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>204795</v>
       </c>
       <c r="O28" s="89"/>
       <c r="P28" s="90"/>
@@ -47902,28 +47965,40 @@
       <c r="X28" s="70"/>
     </row>
     <row r="29" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>290</v>
+      </c>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
       <c r="E29" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="61">
+        <v>22190</v>
+      </c>
+      <c r="G29" s="62">
+        <v>44707</v>
+      </c>
       <c r="H29" s="410"/>
-      <c r="I29" s="411"/>
+      <c r="I29" s="411">
+        <v>22070</v>
+      </c>
       <c r="J29" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="76"/>
+        <v>-120</v>
+      </c>
+      <c r="K29" s="76">
+        <v>37.5</v>
+      </c>
       <c r="L29" s="65"/>
       <c r="M29" s="65"/>
       <c r="N29" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>827625</v>
       </c>
       <c r="O29" s="89"/>
       <c r="P29" s="90"/>
@@ -47937,28 +48012,40 @@
       <c r="X29" s="70"/>
     </row>
     <row r="30" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C30" s="59"/>
       <c r="D30" s="60"/>
       <c r="E30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
+      <c r="F30" s="61">
+        <v>0</v>
+      </c>
+      <c r="G30" s="62">
+        <v>44707</v>
+      </c>
       <c r="H30" s="410"/>
-      <c r="I30" s="411"/>
+      <c r="I30" s="411">
+        <v>5870</v>
+      </c>
       <c r="J30" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="76"/>
+        <v>5870</v>
+      </c>
+      <c r="K30" s="76">
+        <v>37.5</v>
+      </c>
       <c r="L30" s="65"/>
       <c r="M30" s="65"/>
       <c r="N30" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>220125</v>
       </c>
       <c r="O30" s="89"/>
       <c r="P30" s="90"/>
@@ -47971,29 +48058,41 @@
       <c r="W30" s="53"/>
       <c r="X30" s="70"/>
     </row>
-    <row r="31" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
-      <c r="B31" s="93"/>
+    <row r="31" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="59"/>
       <c r="D31" s="60"/>
       <c r="E31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="F31" s="61">
+        <v>22690</v>
+      </c>
+      <c r="G31" s="62">
+        <v>44708</v>
+      </c>
       <c r="H31" s="410"/>
-      <c r="I31" s="411"/>
+      <c r="I31" s="411">
+        <v>22530</v>
+      </c>
       <c r="J31" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="76"/>
+        <v>-160</v>
+      </c>
+      <c r="K31" s="76">
+        <v>38</v>
+      </c>
       <c r="L31" s="65"/>
       <c r="M31" s="65"/>
       <c r="N31" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>856140</v>
       </c>
       <c r="O31" s="89"/>
       <c r="P31" s="90"/>
@@ -48006,29 +48105,41 @@
       <c r="W31" s="53"/>
       <c r="X31" s="70"/>
     </row>
-    <row r="32" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
-      <c r="B32" s="93"/>
+    <row r="32" spans="1:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" s="59"/>
       <c r="D32" s="60"/>
       <c r="E32" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
+      <c r="F32" s="61">
+        <v>0</v>
+      </c>
+      <c r="G32" s="62">
+        <v>44708</v>
+      </c>
       <c r="H32" s="410"/>
-      <c r="I32" s="411"/>
+      <c r="I32" s="411">
+        <v>5930</v>
+      </c>
       <c r="J32" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="76"/>
+        <v>5930</v>
+      </c>
+      <c r="K32" s="76">
+        <v>38</v>
+      </c>
       <c r="L32" s="65"/>
       <c r="M32" s="65"/>
       <c r="N32" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>225340</v>
       </c>
       <c r="O32" s="98"/>
       <c r="P32" s="90"/>
@@ -48042,28 +48153,40 @@
       <c r="X32" s="70"/>
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="83"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>290</v>
+      </c>
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
       <c r="E33" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
+      <c r="F33" s="61">
+        <v>21001</v>
+      </c>
+      <c r="G33" s="62">
+        <v>44710</v>
+      </c>
       <c r="H33" s="410"/>
-      <c r="I33" s="411"/>
+      <c r="I33" s="411">
+        <v>21360</v>
+      </c>
       <c r="J33" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="76"/>
+        <v>359</v>
+      </c>
+      <c r="K33" s="76">
+        <v>38.5</v>
+      </c>
       <c r="L33" s="99"/>
       <c r="M33" s="99"/>
       <c r="N33" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>822360</v>
       </c>
       <c r="O33" s="98"/>
       <c r="P33" s="90"/>
@@ -48076,29 +48199,41 @@
       <c r="W33" s="53"/>
       <c r="X33" s="70"/>
     </row>
-    <row r="34" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="82"/>
-      <c r="B34" s="93"/>
+    <row r="34" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C34" s="59"/>
       <c r="D34" s="60"/>
       <c r="E34" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
+      <c r="F34" s="61">
+        <v>0</v>
+      </c>
+      <c r="G34" s="62">
+        <v>44710</v>
+      </c>
       <c r="H34" s="410"/>
-      <c r="I34" s="411"/>
+      <c r="I34" s="411">
+        <v>5355</v>
+      </c>
       <c r="J34" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="76"/>
+        <v>5355</v>
+      </c>
+      <c r="K34" s="76">
+        <v>50</v>
+      </c>
       <c r="L34" s="99"/>
       <c r="M34" s="99"/>
       <c r="N34" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>267750</v>
       </c>
       <c r="O34" s="98"/>
       <c r="P34" s="90"/>
@@ -49811,8 +49946,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="510"/>
-      <c r="M87" s="511"/>
+      <c r="L87" s="517"/>
+      <c r="M87" s="518"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49844,8 +49979,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="510"/>
-      <c r="M88" s="511"/>
+      <c r="L88" s="517"/>
+      <c r="M88" s="518"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50048,8 +50183,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="494"/>
-      <c r="P94" s="504"/>
+      <c r="O94" s="513"/>
+      <c r="P94" s="509"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -50081,8 +50216,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="495"/>
-      <c r="P95" s="505"/>
+      <c r="O95" s="514"/>
+      <c r="P95" s="510"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -55474,14 +55609,14 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="506" t="s">
+      <c r="F259" s="511" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="506"/>
-      <c r="H259" s="507"/>
+      <c r="G259" s="511"/>
+      <c r="H259" s="512"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>316015</v>
+        <v>453690</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -55580,7 +55715,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>11272772.5</v>
+        <v>16510832.5</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -55640,7 +55775,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>11624208.5</v>
+        <v>16862268.5</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="482">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1485,6 +1485,9 @@
   </si>
   <si>
     <t>A-928</t>
+  </si>
+  <si>
+    <t>D-4271</t>
   </si>
 </sst>
 </file>
@@ -4220,78 +4223,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4325,11 +4256,83 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4359,12 +4362,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4400,6 +4397,12 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4427,8 +4430,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFCCFF33"/>
@@ -4747,18 +4750,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4772,22 +4775,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4841,10 +4844,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5388,7 +5391,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="538" t="s">
+      <c r="C12" s="514" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5452,7 +5455,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="539"/>
+      <c r="C13" s="515"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7454,13 +7457,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="517" t="s">
+      <c r="A56" s="526" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="519" t="s">
+      <c r="C56" s="528" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7471,7 +7474,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="521">
+      <c r="H56" s="520">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7500,11 +7503,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="518"/>
+      <c r="A57" s="527"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="520"/>
+      <c r="C57" s="529"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7513,7 +7516,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="522"/>
+      <c r="H57" s="521"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7540,13 +7543,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="517" t="s">
+      <c r="A58" s="526" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="519" t="s">
+      <c r="C58" s="528" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7557,7 +7560,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="521">
+      <c r="H58" s="520">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7576,10 +7579,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="523" t="s">
+      <c r="O58" s="522" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="544">
+      <c r="P58" s="524">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7590,11 +7593,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="518"/>
+      <c r="A59" s="527"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="520"/>
+      <c r="C59" s="529"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7603,7 +7606,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="522"/>
+      <c r="H59" s="521"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7620,8 +7623,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="524"/>
-      <c r="P59" s="545"/>
+      <c r="O59" s="523"/>
+      <c r="P59" s="525"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7630,13 +7633,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="542" t="s">
+      <c r="A60" s="518" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="540" t="s">
+      <c r="C60" s="516" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7650,7 +7653,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="521">
+      <c r="H60" s="520">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7669,10 +7672,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="523" t="s">
+      <c r="O60" s="522" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="544">
+      <c r="P60" s="524">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7685,11 +7688,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="543"/>
+      <c r="A61" s="519"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="541"/>
+      <c r="C61" s="517"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7701,7 +7704,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="522"/>
+      <c r="H61" s="521"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7718,8 +7721,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="524"/>
-      <c r="P61" s="545"/>
+      <c r="O61" s="523"/>
+      <c r="P61" s="525"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7785,7 +7788,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="511"/>
+      <c r="C63" s="542"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7793,7 +7796,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="513"/>
+      <c r="H63" s="544"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7822,7 +7825,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="512"/>
+      <c r="C64" s="543"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7830,7 +7833,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="514"/>
+      <c r="H64" s="545"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -8008,8 +8011,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="515"/>
-      <c r="P68" s="509"/>
+      <c r="O68" s="534"/>
+      <c r="P68" s="540"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -8043,8 +8046,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="516"/>
-      <c r="P69" s="510"/>
+      <c r="O69" s="535"/>
+      <c r="P69" s="541"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8534,8 +8537,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="515"/>
-      <c r="P82" s="529"/>
+      <c r="O82" s="534"/>
+      <c r="P82" s="536"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8567,8 +8570,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="516"/>
-      <c r="P83" s="530"/>
+      <c r="O83" s="535"/>
+      <c r="P83" s="537"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8600,8 +8603,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="515"/>
-      <c r="P84" s="529"/>
+      <c r="O84" s="534"/>
+      <c r="P84" s="536"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8633,8 +8636,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="516"/>
-      <c r="P85" s="530"/>
+      <c r="O85" s="535"/>
+      <c r="P85" s="537"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8792,8 +8795,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="531"/>
-      <c r="M90" s="532"/>
+      <c r="L90" s="538"/>
+      <c r="M90" s="539"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8825,8 +8828,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="531"/>
-      <c r="M91" s="532"/>
+      <c r="L91" s="538"/>
+      <c r="M91" s="539"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9029,8 +9032,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="515"/>
-      <c r="P97" s="525"/>
+      <c r="O97" s="534"/>
+      <c r="P97" s="530"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -9062,8 +9065,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="516"/>
-      <c r="P98" s="526"/>
+      <c r="O98" s="535"/>
+      <c r="P98" s="531"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14455,11 +14458,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="527" t="s">
+      <c r="F262" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="527"/>
-      <c r="H262" s="528"/>
+      <c r="G262" s="532"/>
+      <c r="H262" s="533"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -15033,6 +15036,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -15046,22 +15065,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15105,18 +15108,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -15132,22 +15135,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -15201,10 +15204,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17846,7 +17849,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="519" t="s">
+      <c r="C55" s="528" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17857,7 +17860,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="513" t="s">
+      <c r="H55" s="544" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17890,7 +17893,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="520"/>
+      <c r="C56" s="529"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17899,7 +17902,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="514"/>
+      <c r="H56" s="545"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17945,7 +17948,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="513" t="s">
+      <c r="H57" s="544" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17964,10 +17967,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="515" t="s">
+      <c r="O57" s="534" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="509">
+      <c r="P57" s="540">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17991,7 +17994,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="514"/>
+      <c r="H58" s="545"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -18035,7 +18038,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="513" t="s">
+      <c r="H59" s="544" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -18079,7 +18082,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="514"/>
+      <c r="H60" s="545"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18742,8 +18745,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="515"/>
-      <c r="P79" s="529"/>
+      <c r="O79" s="534"/>
+      <c r="P79" s="536"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18772,8 +18775,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="516"/>
-      <c r="P80" s="530"/>
+      <c r="O80" s="535"/>
+      <c r="P80" s="537"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18802,8 +18805,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="515"/>
-      <c r="P81" s="529"/>
+      <c r="O81" s="534"/>
+      <c r="P81" s="536"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18835,8 +18838,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="516"/>
-      <c r="P82" s="530"/>
+      <c r="O82" s="535"/>
+      <c r="P82" s="537"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18994,8 +18997,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="531"/>
-      <c r="M87" s="532"/>
+      <c r="L87" s="538"/>
+      <c r="M87" s="539"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19027,8 +19030,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="531"/>
-      <c r="M88" s="532"/>
+      <c r="L88" s="538"/>
+      <c r="M88" s="539"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19231,8 +19234,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="515"/>
-      <c r="P94" s="525"/>
+      <c r="O94" s="534"/>
+      <c r="P94" s="530"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19264,8 +19267,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="516"/>
-      <c r="P95" s="526"/>
+      <c r="O95" s="535"/>
+      <c r="P95" s="531"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24657,11 +24660,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="527" t="s">
+      <c r="F259" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="527"/>
-      <c r="H259" s="528"/>
+      <c r="G259" s="532"/>
+      <c r="H259" s="533"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25235,12 +25238,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25256,6 +25253,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25302,18 +25305,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25329,22 +25332,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25398,10 +25401,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28615,7 +28618,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="519" t="s">
+      <c r="C55" s="528" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28626,7 +28629,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="559" t="s">
+      <c r="H55" s="557" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28645,10 +28648,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="515" t="s">
+      <c r="O55" s="534" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="509">
+      <c r="P55" s="540">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28659,11 +28662,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="558"/>
+      <c r="A56" s="556"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="520"/>
+      <c r="C56" s="529"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28672,7 +28675,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="560"/>
+      <c r="H56" s="558"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28689,8 +28692,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="516"/>
-      <c r="P56" s="510"/>
+      <c r="O56" s="535"/>
+      <c r="P56" s="541"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28751,13 +28754,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="542" t="s">
+      <c r="A58" s="518" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="556" t="s">
+      <c r="C58" s="567" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28768,7 +28771,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="567" t="s">
+      <c r="H58" s="565" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28787,10 +28790,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="523" t="s">
+      <c r="O58" s="522" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="544">
+      <c r="P58" s="524">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28801,11 +28804,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="543"/>
+      <c r="A59" s="519"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="557"/>
+      <c r="C59" s="568"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28814,7 +28817,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="568"/>
+      <c r="H59" s="566"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28831,8 +28834,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="524"/>
-      <c r="P59" s="545"/>
+      <c r="O59" s="523"/>
+      <c r="P59" s="525"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28905,13 +28908,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="561" t="s">
+      <c r="A62" s="559" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="563" t="s">
+      <c r="C62" s="561" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28922,7 +28925,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="565">
+      <c r="H62" s="563">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28941,10 +28944,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="515" t="s">
+      <c r="O62" s="534" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="509">
+      <c r="P62" s="540">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28955,11 +28958,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="562"/>
+      <c r="A63" s="560"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="564"/>
+      <c r="C63" s="562"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28968,7 +28971,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="566"/>
+      <c r="H63" s="564"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28985,8 +28988,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="516"/>
-      <c r="P63" s="510"/>
+      <c r="O63" s="535"/>
+      <c r="P63" s="541"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29465,8 +29468,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="515"/>
-      <c r="P79" s="529"/>
+      <c r="O79" s="534"/>
+      <c r="P79" s="536"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29495,8 +29498,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="516"/>
-      <c r="P80" s="530"/>
+      <c r="O80" s="535"/>
+      <c r="P80" s="537"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29525,8 +29528,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="515"/>
-      <c r="P81" s="529"/>
+      <c r="O81" s="534"/>
+      <c r="P81" s="536"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29558,8 +29561,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="516"/>
-      <c r="P82" s="530"/>
+      <c r="O82" s="535"/>
+      <c r="P82" s="537"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29717,8 +29720,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="531"/>
-      <c r="M87" s="532"/>
+      <c r="L87" s="538"/>
+      <c r="M87" s="539"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29750,8 +29753,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="531"/>
-      <c r="M88" s="532"/>
+      <c r="L88" s="538"/>
+      <c r="M88" s="539"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29954,8 +29957,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="515"/>
-      <c r="P94" s="525"/>
+      <c r="O94" s="534"/>
+      <c r="P94" s="530"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29987,8 +29990,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="516"/>
-      <c r="P95" s="526"/>
+      <c r="O95" s="535"/>
+      <c r="P95" s="531"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35380,11 +35383,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="527" t="s">
+      <c r="F259" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="527"/>
-      <c r="H259" s="528"/>
+      <c r="G259" s="532"/>
+      <c r="H259" s="533"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35958,6 +35961,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35974,17 +35988,6 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35998,11 +36001,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="O55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="U18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
+      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -36031,18 +36034,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -36058,22 +36061,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -36127,10 +36130,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -37574,8 +37577,12 @@
       <c r="T23" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="U23" s="53"/>
-      <c r="V23" s="54"/>
+      <c r="U23" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V23" s="479">
+        <v>4640</v>
+      </c>
       <c r="W23" s="53" t="s">
         <v>414</v>
       </c>
@@ -37644,8 +37651,12 @@
       <c r="T24" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="U24" s="53"/>
-      <c r="V24" s="54"/>
+      <c r="U24" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V24" s="479">
+        <v>0</v>
+      </c>
       <c r="W24" s="53" t="s">
         <v>414</v>
       </c>
@@ -37653,7 +37664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71" t="s">
         <v>341</v>
       </c>
@@ -37713,8 +37724,12 @@
       <c r="T25" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="U25" s="53"/>
-      <c r="V25" s="54"/>
+      <c r="U25" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V25" s="479">
+        <v>4640</v>
+      </c>
       <c r="W25" s="53" t="s">
         <v>414</v>
       </c>
@@ -37783,8 +37798,12 @@
       <c r="T26" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="U26" s="53"/>
-      <c r="V26" s="54"/>
+      <c r="U26" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V26" s="479">
+        <v>0</v>
+      </c>
       <c r="W26" s="53" t="s">
         <v>414</v>
       </c>
@@ -37853,8 +37872,12 @@
       <c r="T27" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="U27" s="53"/>
-      <c r="V27" s="54"/>
+      <c r="U27" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V27" s="479">
+        <v>4640</v>
+      </c>
       <c r="W27" s="53" t="s">
         <v>414</v>
       </c>
@@ -37862,7 +37885,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="82" t="s">
         <v>223</v>
       </c>
@@ -37922,8 +37945,12 @@
       <c r="T28" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="U28" s="53"/>
-      <c r="V28" s="54"/>
+      <c r="U28" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V28" s="479">
+        <v>0</v>
+      </c>
       <c r="W28" s="53" t="s">
         <v>414</v>
       </c>
@@ -37991,8 +38018,12 @@
       <c r="T29" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="U29" s="53"/>
-      <c r="V29" s="54"/>
+      <c r="U29" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V29" s="479">
+        <v>4640</v>
+      </c>
       <c r="W29" s="53" t="s">
         <v>414</v>
       </c>
@@ -38060,8 +38091,12 @@
       <c r="T30" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="U30" s="53"/>
-      <c r="V30" s="54"/>
+      <c r="U30" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V30" s="479">
+        <v>0</v>
+      </c>
       <c r="W30" s="53" t="s">
         <v>414</v>
       </c>
@@ -38125,8 +38160,12 @@
       </c>
       <c r="S31" s="91"/>
       <c r="T31" s="92"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="54"/>
+      <c r="U31" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V31" s="479">
+        <v>4640</v>
+      </c>
       <c r="W31" s="53" t="s">
         <v>414</v>
       </c>
@@ -38190,8 +38229,12 @@
       </c>
       <c r="S32" s="91"/>
       <c r="T32" s="92"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="54"/>
+      <c r="U32" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V32" s="479">
+        <v>0</v>
+      </c>
       <c r="W32" s="53" t="s">
         <v>414</v>
       </c>
@@ -38199,7 +38242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="83" t="s">
         <v>20</v>
       </c>
@@ -38259,8 +38302,12 @@
       <c r="T33" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="U33" s="53"/>
-      <c r="V33" s="54"/>
+      <c r="U33" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V33" s="479">
+        <v>4640</v>
+      </c>
       <c r="W33" s="53" t="s">
         <v>414</v>
       </c>
@@ -38328,8 +38375,12 @@
       <c r="T34" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="U34" s="53"/>
-      <c r="V34" s="54"/>
+      <c r="U34" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V34" s="479">
+        <v>0</v>
+      </c>
       <c r="W34" s="53" t="s">
         <v>414</v>
       </c>
@@ -38397,8 +38448,12 @@
       <c r="T35" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="U35" s="53"/>
-      <c r="V35" s="54"/>
+      <c r="U35" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V35" s="479">
+        <v>4640</v>
+      </c>
       <c r="W35" s="53" t="s">
         <v>414</v>
       </c>
@@ -38406,7 +38461,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="57" t="s">
         <v>223</v>
       </c>
@@ -38464,8 +38519,12 @@
       <c r="T36" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="U36" s="53"/>
-      <c r="V36" s="54"/>
+      <c r="U36" s="478" t="s">
+        <v>481</v>
+      </c>
+      <c r="V36" s="479">
+        <v>0</v>
+      </c>
       <c r="W36" s="53" t="s">
         <v>414</v>
       </c>
@@ -39462,7 +39521,7 @@
       <c r="B64" s="178" t="s">
         <v>466</v>
       </c>
-      <c r="C64" s="563" t="s">
+      <c r="C64" s="561" t="s">
         <v>467</v>
       </c>
       <c r="D64" s="171"/>
@@ -39506,11 +39565,11 @@
       <c r="V64" s="54"/>
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="558"/>
+      <c r="A65" s="556"/>
       <c r="B65" s="178" t="s">
         <v>240</v>
       </c>
-      <c r="C65" s="564"/>
+      <c r="C65" s="562"/>
       <c r="D65" s="171"/>
       <c r="E65" s="60"/>
       <c r="F65" s="151">
@@ -39956,8 +40015,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="515"/>
-      <c r="P79" s="529"/>
+      <c r="O79" s="534"/>
+      <c r="P79" s="536"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39986,8 +40045,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="516"/>
-      <c r="P80" s="530"/>
+      <c r="O80" s="535"/>
+      <c r="P80" s="537"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -40016,8 +40075,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="515"/>
-      <c r="P81" s="529"/>
+      <c r="O81" s="534"/>
+      <c r="P81" s="536"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -40049,8 +40108,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="516"/>
-      <c r="P82" s="530"/>
+      <c r="O82" s="535"/>
+      <c r="P82" s="537"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -40208,8 +40267,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="531"/>
-      <c r="M87" s="532"/>
+      <c r="L87" s="538"/>
+      <c r="M87" s="539"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40241,8 +40300,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="531"/>
-      <c r="M88" s="532"/>
+      <c r="L88" s="538"/>
+      <c r="M88" s="539"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40445,8 +40504,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="515"/>
-      <c r="P94" s="525"/>
+      <c r="O94" s="534"/>
+      <c r="P94" s="530"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40478,8 +40537,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="516"/>
-      <c r="P95" s="526"/>
+      <c r="O95" s="535"/>
+      <c r="P95" s="531"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45871,11 +45930,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="527" t="s">
+      <c r="F259" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="527"/>
-      <c r="H259" s="528"/>
+      <c r="G259" s="532"/>
+      <c r="H259" s="533"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491966.85000000003</v>
@@ -46449,12 +46508,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O79:O80"/>
@@ -46466,6 +46519,12 @@
     <mergeCell ref="H64:H65"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46479,11 +46538,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="M52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46512,18 +46571,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46539,22 +46598,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46608,10 +46667,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -50247,8 +50306,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="531"/>
-      <c r="M87" s="532"/>
+      <c r="L87" s="538"/>
+      <c r="M87" s="539"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50280,8 +50339,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="531"/>
-      <c r="M88" s="532"/>
+      <c r="L88" s="538"/>
+      <c r="M88" s="539"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50484,8 +50543,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="515"/>
-      <c r="P94" s="525"/>
+      <c r="O94" s="534"/>
+      <c r="P94" s="530"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -50517,8 +50576,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="516"/>
-      <c r="P95" s="526"/>
+      <c r="O95" s="535"/>
+      <c r="P95" s="531"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -55910,11 +55969,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="527" t="s">
+      <c r="F259" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="527"/>
-      <c r="H259" s="528"/>
+      <c r="G259" s="532"/>
+      <c r="H259" s="533"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>454344.37</v>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="484">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1488,6 +1488,12 @@
   </si>
   <si>
     <t>D-4271</t>
+  </si>
+  <si>
+    <t>CANALES  250</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA PEPE FILETE PUEBLA</t>
   </si>
 </sst>
 </file>
@@ -4223,6 +4229,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4256,83 +4334,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4362,6 +4368,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4395,12 +4407,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4750,18 +4756,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="509" t="s">
+      <c r="A1" s="533" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="509"/>
-      <c r="C1" s="509"/>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="533"/>
+      <c r="F1" s="533"/>
+      <c r="G1" s="533"/>
+      <c r="H1" s="533"/>
+      <c r="I1" s="533"/>
+      <c r="J1" s="533"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4775,22 +4781,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="510" t="s">
+      <c r="W1" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="511"/>
+      <c r="X1" s="535"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="509"/>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
+      <c r="A2" s="533"/>
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
+      <c r="E2" s="533"/>
+      <c r="F2" s="533"/>
+      <c r="G2" s="533"/>
+      <c r="H2" s="533"/>
+      <c r="I2" s="533"/>
+      <c r="J2" s="533"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4844,10 +4850,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="512" t="s">
+      <c r="O3" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="513"/>
+      <c r="P3" s="537"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5391,7 +5397,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="514" t="s">
+      <c r="C12" s="538" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5455,7 +5461,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="515"/>
+      <c r="C13" s="539"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7457,13 +7463,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="526" t="s">
+      <c r="A56" s="517" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="528" t="s">
+      <c r="C56" s="519" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7474,7 +7480,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="520">
+      <c r="H56" s="521">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7503,11 +7509,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="527"/>
+      <c r="A57" s="518"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="529"/>
+      <c r="C57" s="520"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7516,7 +7522,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="521"/>
+      <c r="H57" s="522"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7543,13 +7549,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="526" t="s">
+      <c r="A58" s="517" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="528" t="s">
+      <c r="C58" s="519" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7560,7 +7566,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="520">
+      <c r="H58" s="521">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7579,10 +7585,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="522" t="s">
+      <c r="O58" s="523" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="524">
+      <c r="P58" s="544">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7593,11 +7599,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="527"/>
+      <c r="A59" s="518"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="529"/>
+      <c r="C59" s="520"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7606,7 +7612,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="521"/>
+      <c r="H59" s="522"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7623,8 +7629,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="523"/>
-      <c r="P59" s="525"/>
+      <c r="O59" s="524"/>
+      <c r="P59" s="545"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7633,13 +7639,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="518" t="s">
+      <c r="A60" s="542" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="516" t="s">
+      <c r="C60" s="540" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7653,7 +7659,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="520">
+      <c r="H60" s="521">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7672,10 +7678,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="522" t="s">
+      <c r="O60" s="523" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="524">
+      <c r="P60" s="544">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7688,11 +7694,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="519"/>
+      <c r="A61" s="543"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="517"/>
+      <c r="C61" s="541"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7704,7 +7710,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="521"/>
+      <c r="H61" s="522"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7721,8 +7727,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="523"/>
-      <c r="P61" s="525"/>
+      <c r="O61" s="524"/>
+      <c r="P61" s="545"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7788,7 +7794,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="542"/>
+      <c r="C63" s="511"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7796,7 +7802,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="544"/>
+      <c r="H63" s="513"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7825,7 +7831,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="543"/>
+      <c r="C64" s="512"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7833,7 +7839,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="545"/>
+      <c r="H64" s="514"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -8011,8 +8017,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="534"/>
-      <c r="P68" s="540"/>
+      <c r="O68" s="515"/>
+      <c r="P68" s="509"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -8046,8 +8052,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="535"/>
-      <c r="P69" s="541"/>
+      <c r="O69" s="516"/>
+      <c r="P69" s="510"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8537,8 +8543,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="534"/>
-      <c r="P82" s="536"/>
+      <c r="O82" s="515"/>
+      <c r="P82" s="529"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8570,8 +8576,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="535"/>
-      <c r="P83" s="537"/>
+      <c r="O83" s="516"/>
+      <c r="P83" s="530"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8603,8 +8609,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="534"/>
-      <c r="P84" s="536"/>
+      <c r="O84" s="515"/>
+      <c r="P84" s="529"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8636,8 +8642,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="535"/>
-      <c r="P85" s="537"/>
+      <c r="O85" s="516"/>
+      <c r="P85" s="530"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8795,8 +8801,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="538"/>
-      <c r="M90" s="539"/>
+      <c r="L90" s="531"/>
+      <c r="M90" s="532"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8828,8 +8834,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="538"/>
-      <c r="M91" s="539"/>
+      <c r="L91" s="531"/>
+      <c r="M91" s="532"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9032,8 +9038,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="534"/>
-      <c r="P97" s="530"/>
+      <c r="O97" s="515"/>
+      <c r="P97" s="525"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -9065,8 +9071,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="535"/>
-      <c r="P98" s="531"/>
+      <c r="O98" s="516"/>
+      <c r="P98" s="526"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14458,11 +14464,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="532" t="s">
+      <c r="F262" s="527" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="532"/>
-      <c r="H262" s="533"/>
+      <c r="G262" s="527"/>
+      <c r="H262" s="528"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -15036,22 +15042,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -15065,6 +15055,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15108,18 +15114,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="509" t="s">
+      <c r="A1" s="533" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="509"/>
-      <c r="C1" s="509"/>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="533"/>
+      <c r="F1" s="533"/>
+      <c r="G1" s="533"/>
+      <c r="H1" s="533"/>
+      <c r="I1" s="533"/>
+      <c r="J1" s="533"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -15135,22 +15141,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="510" t="s">
+      <c r="W1" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="511"/>
+      <c r="X1" s="535"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="509"/>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
+      <c r="A2" s="533"/>
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
+      <c r="E2" s="533"/>
+      <c r="F2" s="533"/>
+      <c r="G2" s="533"/>
+      <c r="H2" s="533"/>
+      <c r="I2" s="533"/>
+      <c r="J2" s="533"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -15204,10 +15210,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="512" t="s">
+      <c r="O3" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="513"/>
+      <c r="P3" s="537"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17849,7 +17855,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="528" t="s">
+      <c r="C55" s="519" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17860,7 +17866,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="544" t="s">
+      <c r="H55" s="513" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17893,7 +17899,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="529"/>
+      <c r="C56" s="520"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17902,7 +17908,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="545"/>
+      <c r="H56" s="514"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17948,7 +17954,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="544" t="s">
+      <c r="H57" s="513" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17967,10 +17973,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="534" t="s">
+      <c r="O57" s="515" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="540">
+      <c r="P57" s="509">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17994,7 +18000,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="545"/>
+      <c r="H58" s="514"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -18038,7 +18044,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="544" t="s">
+      <c r="H59" s="513" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -18082,7 +18088,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="545"/>
+      <c r="H60" s="514"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18745,8 +18751,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="534"/>
-      <c r="P79" s="536"/>
+      <c r="O79" s="515"/>
+      <c r="P79" s="529"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18775,8 +18781,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="535"/>
-      <c r="P80" s="537"/>
+      <c r="O80" s="516"/>
+      <c r="P80" s="530"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18805,8 +18811,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="534"/>
-      <c r="P81" s="536"/>
+      <c r="O81" s="515"/>
+      <c r="P81" s="529"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18838,8 +18844,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="535"/>
-      <c r="P82" s="537"/>
+      <c r="O82" s="516"/>
+      <c r="P82" s="530"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18997,8 +19003,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="538"/>
-      <c r="M87" s="539"/>
+      <c r="L87" s="531"/>
+      <c r="M87" s="532"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19030,8 +19036,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="538"/>
-      <c r="M88" s="539"/>
+      <c r="L88" s="531"/>
+      <c r="M88" s="532"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19234,8 +19240,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="534"/>
-      <c r="P94" s="530"/>
+      <c r="O94" s="515"/>
+      <c r="P94" s="525"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19267,8 +19273,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="535"/>
-      <c r="P95" s="531"/>
+      <c r="O95" s="516"/>
+      <c r="P95" s="526"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24660,11 +24666,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="532" t="s">
+      <c r="F259" s="527" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="532"/>
-      <c r="H259" s="533"/>
+      <c r="G259" s="527"/>
+      <c r="H259" s="528"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25238,6 +25244,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25253,12 +25265,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25305,18 +25311,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="509" t="s">
+      <c r="A1" s="533" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="509"/>
-      <c r="C1" s="509"/>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="533"/>
+      <c r="F1" s="533"/>
+      <c r="G1" s="533"/>
+      <c r="H1" s="533"/>
+      <c r="I1" s="533"/>
+      <c r="J1" s="533"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25332,22 +25338,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="510" t="s">
+      <c r="W1" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="511"/>
+      <c r="X1" s="535"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="509"/>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
+      <c r="A2" s="533"/>
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
+      <c r="E2" s="533"/>
+      <c r="F2" s="533"/>
+      <c r="G2" s="533"/>
+      <c r="H2" s="533"/>
+      <c r="I2" s="533"/>
+      <c r="J2" s="533"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25401,10 +25407,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="512" t="s">
+      <c r="O3" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="513"/>
+      <c r="P3" s="537"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28618,7 +28624,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="528" t="s">
+      <c r="C55" s="519" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28629,7 +28635,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="557" t="s">
+      <c r="H55" s="559" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28648,10 +28654,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="534" t="s">
+      <c r="O55" s="515" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="540">
+      <c r="P55" s="509">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28662,11 +28668,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="556"/>
+      <c r="A56" s="558"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="529"/>
+      <c r="C56" s="520"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28675,7 +28681,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="558"/>
+      <c r="H56" s="560"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28692,8 +28698,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="535"/>
-      <c r="P56" s="541"/>
+      <c r="O56" s="516"/>
+      <c r="P56" s="510"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28754,13 +28760,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="518" t="s">
+      <c r="A58" s="542" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="567" t="s">
+      <c r="C58" s="556" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28771,7 +28777,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="565" t="s">
+      <c r="H58" s="567" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28790,10 +28796,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="522" t="s">
+      <c r="O58" s="523" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="524">
+      <c r="P58" s="544">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28804,11 +28810,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="519"/>
+      <c r="A59" s="543"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="568"/>
+      <c r="C59" s="557"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28817,7 +28823,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="566"/>
+      <c r="H59" s="568"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28834,8 +28840,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="523"/>
-      <c r="P59" s="525"/>
+      <c r="O59" s="524"/>
+      <c r="P59" s="545"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28908,13 +28914,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="559" t="s">
+      <c r="A62" s="561" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="561" t="s">
+      <c r="C62" s="563" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28925,7 +28931,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="563">
+      <c r="H62" s="565">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28944,10 +28950,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="534" t="s">
+      <c r="O62" s="515" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="540">
+      <c r="P62" s="509">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28958,11 +28964,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="560"/>
+      <c r="A63" s="562"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="562"/>
+      <c r="C63" s="564"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28971,7 +28977,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="564"/>
+      <c r="H63" s="566"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28988,8 +28994,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="535"/>
-      <c r="P63" s="541"/>
+      <c r="O63" s="516"/>
+      <c r="P63" s="510"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29468,8 +29474,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="534"/>
-      <c r="P79" s="536"/>
+      <c r="O79" s="515"/>
+      <c r="P79" s="529"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29498,8 +29504,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="535"/>
-      <c r="P80" s="537"/>
+      <c r="O80" s="516"/>
+      <c r="P80" s="530"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29528,8 +29534,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="534"/>
-      <c r="P81" s="536"/>
+      <c r="O81" s="515"/>
+      <c r="P81" s="529"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29561,8 +29567,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="535"/>
-      <c r="P82" s="537"/>
+      <c r="O82" s="516"/>
+      <c r="P82" s="530"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29720,8 +29726,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="538"/>
-      <c r="M87" s="539"/>
+      <c r="L87" s="531"/>
+      <c r="M87" s="532"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29753,8 +29759,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="538"/>
-      <c r="M88" s="539"/>
+      <c r="L88" s="531"/>
+      <c r="M88" s="532"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29957,8 +29963,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="534"/>
-      <c r="P94" s="530"/>
+      <c r="O94" s="515"/>
+      <c r="P94" s="525"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29990,8 +29996,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="535"/>
-      <c r="P95" s="531"/>
+      <c r="O95" s="516"/>
+      <c r="P95" s="526"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35383,11 +35389,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="532" t="s">
+      <c r="F259" s="527" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="532"/>
-      <c r="H259" s="533"/>
+      <c r="G259" s="527"/>
+      <c r="H259" s="528"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35961,17 +35967,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35988,6 +35983,17 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36001,11 +36007,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="U18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -36034,18 +36040,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="509" t="s">
+      <c r="A1" s="533" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="509"/>
-      <c r="C1" s="509"/>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="533"/>
+      <c r="F1" s="533"/>
+      <c r="G1" s="533"/>
+      <c r="H1" s="533"/>
+      <c r="I1" s="533"/>
+      <c r="J1" s="533"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -36061,22 +36067,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="510" t="s">
+      <c r="W1" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="511"/>
+      <c r="X1" s="535"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="509"/>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
+      <c r="A2" s="533"/>
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
+      <c r="E2" s="533"/>
+      <c r="F2" s="533"/>
+      <c r="G2" s="533"/>
+      <c r="H2" s="533"/>
+      <c r="I2" s="533"/>
+      <c r="J2" s="533"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -36130,10 +36136,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="512" t="s">
+      <c r="O3" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="513"/>
+      <c r="P3" s="537"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -39521,7 +39527,7 @@
       <c r="B64" s="178" t="s">
         <v>466</v>
       </c>
-      <c r="C64" s="561" t="s">
+      <c r="C64" s="563" t="s">
         <v>467</v>
       </c>
       <c r="D64" s="171"/>
@@ -39565,11 +39571,11 @@
       <c r="V64" s="54"/>
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="556"/>
+      <c r="A65" s="558"/>
       <c r="B65" s="178" t="s">
         <v>240</v>
       </c>
-      <c r="C65" s="562"/>
+      <c r="C65" s="564"/>
       <c r="D65" s="171"/>
       <c r="E65" s="60"/>
       <c r="F65" s="151">
@@ -40015,8 +40021,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="534"/>
-      <c r="P79" s="536"/>
+      <c r="O79" s="515"/>
+      <c r="P79" s="529"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -40045,8 +40051,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="535"/>
-      <c r="P80" s="537"/>
+      <c r="O80" s="516"/>
+      <c r="P80" s="530"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -40075,8 +40081,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="534"/>
-      <c r="P81" s="536"/>
+      <c r="O81" s="515"/>
+      <c r="P81" s="529"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -40108,8 +40114,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="535"/>
-      <c r="P82" s="537"/>
+      <c r="O82" s="516"/>
+      <c r="P82" s="530"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -40267,8 +40273,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="538"/>
-      <c r="M87" s="539"/>
+      <c r="L87" s="531"/>
+      <c r="M87" s="532"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40300,8 +40306,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="538"/>
-      <c r="M88" s="539"/>
+      <c r="L88" s="531"/>
+      <c r="M88" s="532"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40504,8 +40510,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="534"/>
-      <c r="P94" s="530"/>
+      <c r="O94" s="515"/>
+      <c r="P94" s="525"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40537,8 +40543,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="535"/>
-      <c r="P95" s="531"/>
+      <c r="O95" s="516"/>
+      <c r="P95" s="526"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45930,11 +45936,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="532" t="s">
+      <c r="F259" s="527" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="532"/>
-      <c r="H259" s="533"/>
+      <c r="G259" s="527"/>
+      <c r="H259" s="528"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491966.85000000003</v>
@@ -46508,6 +46514,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O79:O80"/>
@@ -46519,12 +46531,6 @@
     <mergeCell ref="H64:H65"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46538,11 +46544,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="M52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="O22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46571,18 +46577,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="509" t="s">
+      <c r="A1" s="533" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="509"/>
-      <c r="C1" s="509"/>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="533"/>
+      <c r="F1" s="533"/>
+      <c r="G1" s="533"/>
+      <c r="H1" s="533"/>
+      <c r="I1" s="533"/>
+      <c r="J1" s="533"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46598,22 +46604,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="510" t="s">
+      <c r="W1" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="511"/>
+      <c r="X1" s="535"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="509"/>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
+      <c r="A2" s="533"/>
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
+      <c r="E2" s="533"/>
+      <c r="F2" s="533"/>
+      <c r="G2" s="533"/>
+      <c r="H2" s="533"/>
+      <c r="I2" s="533"/>
+      <c r="J2" s="533"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46667,10 +46673,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="512" t="s">
+      <c r="O3" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="513"/>
+      <c r="P3" s="537"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -47821,7 +47827,7 @@
       <c r="G21" s="62">
         <v>44700</v>
       </c>
-      <c r="H21" s="410" t="s">
+      <c r="H21" s="446" t="s">
         <v>439</v>
       </c>
       <c r="I21" s="411">
@@ -47882,7 +47888,7 @@
       <c r="G22" s="62">
         <v>44700</v>
       </c>
-      <c r="H22" s="410" t="s">
+      <c r="H22" s="446" t="s">
         <v>439</v>
       </c>
       <c r="I22" s="411">
@@ -47943,7 +47949,7 @@
       <c r="G23" s="62">
         <v>44701</v>
       </c>
-      <c r="H23" s="410" t="s">
+      <c r="H23" s="446" t="s">
         <v>440</v>
       </c>
       <c r="I23" s="411">
@@ -48004,7 +48010,7 @@
       <c r="G24" s="62">
         <v>44701</v>
       </c>
-      <c r="H24" s="410" t="s">
+      <c r="H24" s="446" t="s">
         <v>440</v>
       </c>
       <c r="I24" s="411">
@@ -48061,7 +48067,7 @@
       <c r="G25" s="62">
         <v>44703</v>
       </c>
-      <c r="H25" s="410" t="s">
+      <c r="H25" s="446" t="s">
         <v>468</v>
       </c>
       <c r="I25" s="411">
@@ -48118,7 +48124,7 @@
       <c r="G26" s="62">
         <v>44703</v>
       </c>
-      <c r="H26" s="410" t="s">
+      <c r="H26" s="446" t="s">
         <v>468</v>
       </c>
       <c r="I26" s="411">
@@ -48175,7 +48181,7 @@
       <c r="G27" s="62">
         <v>44705</v>
       </c>
-      <c r="H27" s="410" t="s">
+      <c r="H27" s="446" t="s">
         <v>469</v>
       </c>
       <c r="I27" s="411">
@@ -48232,7 +48238,7 @@
       <c r="G28" s="62">
         <v>44705</v>
       </c>
-      <c r="H28" s="410" t="s">
+      <c r="H28" s="446" t="s">
         <v>469</v>
       </c>
       <c r="I28" s="411">
@@ -48289,7 +48295,7 @@
       <c r="G29" s="62">
         <v>44707</v>
       </c>
-      <c r="H29" s="410" t="s">
+      <c r="H29" s="446" t="s">
         <v>470</v>
       </c>
       <c r="I29" s="411">
@@ -48346,7 +48352,7 @@
       <c r="G30" s="62">
         <v>44707</v>
       </c>
-      <c r="H30" s="410" t="s">
+      <c r="H30" s="446" t="s">
         <v>470</v>
       </c>
       <c r="I30" s="411">
@@ -48403,7 +48409,7 @@
       <c r="G31" s="62">
         <v>44708</v>
       </c>
-      <c r="H31" s="410" t="s">
+      <c r="H31" s="446" t="s">
         <v>471</v>
       </c>
       <c r="I31" s="411">
@@ -48460,7 +48466,7 @@
       <c r="G32" s="62">
         <v>44708</v>
       </c>
-      <c r="H32" s="410" t="s">
+      <c r="H32" s="446" t="s">
         <v>471</v>
       </c>
       <c r="I32" s="411">
@@ -48517,7 +48523,7 @@
       <c r="G33" s="62">
         <v>44710</v>
       </c>
-      <c r="H33" s="410"/>
+      <c r="H33" s="446"/>
       <c r="I33" s="411">
         <v>21360</v>
       </c>
@@ -48564,7 +48570,7 @@
       <c r="G34" s="62">
         <v>44710</v>
       </c>
-      <c r="H34" s="410"/>
+      <c r="H34" s="446"/>
       <c r="I34" s="411">
         <v>5355</v>
       </c>
@@ -48592,29 +48598,41 @@
       <c r="W34" s="53"/>
       <c r="X34" s="70"/>
     </row>
-    <row r="35" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="82"/>
-      <c r="B35" s="93"/>
+    <row r="35" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>482</v>
+      </c>
       <c r="C35" s="59"/>
       <c r="D35" s="60"/>
       <c r="E35" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="410"/>
-      <c r="I35" s="411"/>
+      <c r="F35" s="61">
+        <v>23032</v>
+      </c>
+      <c r="G35" s="62">
+        <v>44712</v>
+      </c>
+      <c r="H35" s="446"/>
+      <c r="I35" s="411">
+        <v>23032</v>
+      </c>
       <c r="J35" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K35" s="100"/>
+      <c r="K35" s="100">
+        <v>52.7</v>
+      </c>
       <c r="L35" s="99"/>
       <c r="M35" s="99"/>
       <c r="N35" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1213786.4000000001</v>
       </c>
       <c r="O35" s="98"/>
       <c r="P35" s="90"/>
@@ -50306,8 +50324,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="538"/>
-      <c r="M87" s="539"/>
+      <c r="L87" s="531"/>
+      <c r="M87" s="532"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50339,8 +50357,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="538"/>
-      <c r="M88" s="539"/>
+      <c r="L88" s="531"/>
+      <c r="M88" s="532"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50543,8 +50561,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="534"/>
-      <c r="P94" s="530"/>
+      <c r="O94" s="515"/>
+      <c r="P94" s="525"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -50576,8 +50594,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="535"/>
-      <c r="P95" s="531"/>
+      <c r="O95" s="516"/>
+      <c r="P95" s="526"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -55969,14 +55987,14 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="532" t="s">
+      <c r="F259" s="527" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="532"/>
-      <c r="H259" s="533"/>
+      <c r="G259" s="527"/>
+      <c r="H259" s="528"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>454344.37</v>
+        <v>477376.37</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -56075,7 +56093,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>16592493.535</v>
+        <v>17806279.934999999</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -56135,7 +56153,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>17162887.535</v>
+        <v>18376673.934999999</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="485">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1494,6 +1494,9 @@
   </si>
   <si>
     <t>DISTRIBUIDORA PEPE FILETE PUEBLA</t>
+  </si>
+  <si>
+    <t>0008 A1</t>
   </si>
 </sst>
 </file>
@@ -4229,78 +4232,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4334,11 +4265,83 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4368,12 +4371,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4407,6 +4404,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4756,18 +4759,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4781,22 +4784,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4850,10 +4853,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5397,7 +5400,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="538" t="s">
+      <c r="C12" s="514" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5461,7 +5464,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="539"/>
+      <c r="C13" s="515"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7463,13 +7466,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="517" t="s">
+      <c r="A56" s="526" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="519" t="s">
+      <c r="C56" s="528" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7480,7 +7483,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="521">
+      <c r="H56" s="520">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7509,11 +7512,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="518"/>
+      <c r="A57" s="527"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="520"/>
+      <c r="C57" s="529"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7522,7 +7525,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="522"/>
+      <c r="H57" s="521"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7549,13 +7552,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="517" t="s">
+      <c r="A58" s="526" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="519" t="s">
+      <c r="C58" s="528" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7566,7 +7569,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="521">
+      <c r="H58" s="520">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7585,10 +7588,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="523" t="s">
+      <c r="O58" s="522" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="544">
+      <c r="P58" s="524">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7599,11 +7602,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="518"/>
+      <c r="A59" s="527"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="520"/>
+      <c r="C59" s="529"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7612,7 +7615,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="522"/>
+      <c r="H59" s="521"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7629,8 +7632,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="524"/>
-      <c r="P59" s="545"/>
+      <c r="O59" s="523"/>
+      <c r="P59" s="525"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7639,13 +7642,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="542" t="s">
+      <c r="A60" s="518" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="540" t="s">
+      <c r="C60" s="516" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7659,7 +7662,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="521">
+      <c r="H60" s="520">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7678,10 +7681,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="523" t="s">
+      <c r="O60" s="522" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="544">
+      <c r="P60" s="524">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7694,11 +7697,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="543"/>
+      <c r="A61" s="519"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="541"/>
+      <c r="C61" s="517"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7710,7 +7713,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="522"/>
+      <c r="H61" s="521"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7727,8 +7730,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="524"/>
-      <c r="P61" s="545"/>
+      <c r="O61" s="523"/>
+      <c r="P61" s="525"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7794,7 +7797,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="511"/>
+      <c r="C63" s="542"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7802,7 +7805,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="513"/>
+      <c r="H63" s="544"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7831,7 +7834,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="512"/>
+      <c r="C64" s="543"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7839,7 +7842,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="514"/>
+      <c r="H64" s="545"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -8017,8 +8020,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="515"/>
-      <c r="P68" s="509"/>
+      <c r="O68" s="534"/>
+      <c r="P68" s="540"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -8052,8 +8055,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="516"/>
-      <c r="P69" s="510"/>
+      <c r="O69" s="535"/>
+      <c r="P69" s="541"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8543,8 +8546,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="515"/>
-      <c r="P82" s="529"/>
+      <c r="O82" s="534"/>
+      <c r="P82" s="536"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8576,8 +8579,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="516"/>
-      <c r="P83" s="530"/>
+      <c r="O83" s="535"/>
+      <c r="P83" s="537"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8609,8 +8612,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="515"/>
-      <c r="P84" s="529"/>
+      <c r="O84" s="534"/>
+      <c r="P84" s="536"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8642,8 +8645,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="516"/>
-      <c r="P85" s="530"/>
+      <c r="O85" s="535"/>
+      <c r="P85" s="537"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8801,8 +8804,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="531"/>
-      <c r="M90" s="532"/>
+      <c r="L90" s="538"/>
+      <c r="M90" s="539"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8834,8 +8837,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="531"/>
-      <c r="M91" s="532"/>
+      <c r="L91" s="538"/>
+      <c r="M91" s="539"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9038,8 +9041,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="515"/>
-      <c r="P97" s="525"/>
+      <c r="O97" s="534"/>
+      <c r="P97" s="530"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -9071,8 +9074,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="516"/>
-      <c r="P98" s="526"/>
+      <c r="O98" s="535"/>
+      <c r="P98" s="531"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14464,11 +14467,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="527" t="s">
+      <c r="F262" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="527"/>
-      <c r="H262" s="528"/>
+      <c r="G262" s="532"/>
+      <c r="H262" s="533"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -15042,6 +15045,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -15055,22 +15074,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15114,18 +15117,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -15141,22 +15144,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -15210,10 +15213,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17855,7 +17858,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="519" t="s">
+      <c r="C55" s="528" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17866,7 +17869,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="513" t="s">
+      <c r="H55" s="544" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17899,7 +17902,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="520"/>
+      <c r="C56" s="529"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17908,7 +17911,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="514"/>
+      <c r="H56" s="545"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17954,7 +17957,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="513" t="s">
+      <c r="H57" s="544" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17973,10 +17976,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="515" t="s">
+      <c r="O57" s="534" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="509">
+      <c r="P57" s="540">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -18000,7 +18003,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="514"/>
+      <c r="H58" s="545"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -18044,7 +18047,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="513" t="s">
+      <c r="H59" s="544" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -18088,7 +18091,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="514"/>
+      <c r="H60" s="545"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18751,8 +18754,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="515"/>
-      <c r="P79" s="529"/>
+      <c r="O79" s="534"/>
+      <c r="P79" s="536"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18781,8 +18784,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="516"/>
-      <c r="P80" s="530"/>
+      <c r="O80" s="535"/>
+      <c r="P80" s="537"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18811,8 +18814,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="515"/>
-      <c r="P81" s="529"/>
+      <c r="O81" s="534"/>
+      <c r="P81" s="536"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18844,8 +18847,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="516"/>
-      <c r="P82" s="530"/>
+      <c r="O82" s="535"/>
+      <c r="P82" s="537"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -19003,8 +19006,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="531"/>
-      <c r="M87" s="532"/>
+      <c r="L87" s="538"/>
+      <c r="M87" s="539"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19036,8 +19039,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="531"/>
-      <c r="M88" s="532"/>
+      <c r="L88" s="538"/>
+      <c r="M88" s="539"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19240,8 +19243,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="515"/>
-      <c r="P94" s="525"/>
+      <c r="O94" s="534"/>
+      <c r="P94" s="530"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -19273,8 +19276,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="516"/>
-      <c r="P95" s="526"/>
+      <c r="O95" s="535"/>
+      <c r="P95" s="531"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24666,11 +24669,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="527" t="s">
+      <c r="F259" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="527"/>
-      <c r="H259" s="528"/>
+      <c r="G259" s="532"/>
+      <c r="H259" s="533"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -25244,12 +25247,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -25265,6 +25262,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25311,18 +25314,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -25338,22 +25341,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25407,10 +25410,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28624,7 +28627,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="519" t="s">
+      <c r="C55" s="528" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28635,7 +28638,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="559" t="s">
+      <c r="H55" s="557" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28654,10 +28657,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="515" t="s">
+      <c r="O55" s="534" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="509">
+      <c r="P55" s="540">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28668,11 +28671,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="558"/>
+      <c r="A56" s="556"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="520"/>
+      <c r="C56" s="529"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28681,7 +28684,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="560"/>
+      <c r="H56" s="558"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28698,8 +28701,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="516"/>
-      <c r="P56" s="510"/>
+      <c r="O56" s="535"/>
+      <c r="P56" s="541"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28760,13 +28763,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="542" t="s">
+      <c r="A58" s="518" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="556" t="s">
+      <c r="C58" s="567" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28777,7 +28780,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="567" t="s">
+      <c r="H58" s="565" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28796,10 +28799,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="523" t="s">
+      <c r="O58" s="522" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="544">
+      <c r="P58" s="524">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28810,11 +28813,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="543"/>
+      <c r="A59" s="519"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="557"/>
+      <c r="C59" s="568"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28823,7 +28826,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="568"/>
+      <c r="H59" s="566"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28840,8 +28843,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="524"/>
-      <c r="P59" s="545"/>
+      <c r="O59" s="523"/>
+      <c r="P59" s="525"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28914,13 +28917,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="561" t="s">
+      <c r="A62" s="559" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="563" t="s">
+      <c r="C62" s="561" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28931,7 +28934,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="565">
+      <c r="H62" s="563">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28950,10 +28953,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="515" t="s">
+      <c r="O62" s="534" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="509">
+      <c r="P62" s="540">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28964,11 +28967,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="562"/>
+      <c r="A63" s="560"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="564"/>
+      <c r="C63" s="562"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28977,7 +28980,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="566"/>
+      <c r="H63" s="564"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28994,8 +28997,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="516"/>
-      <c r="P63" s="510"/>
+      <c r="O63" s="535"/>
+      <c r="P63" s="541"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29474,8 +29477,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="515"/>
-      <c r="P79" s="529"/>
+      <c r="O79" s="534"/>
+      <c r="P79" s="536"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29504,8 +29507,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="516"/>
-      <c r="P80" s="530"/>
+      <c r="O80" s="535"/>
+      <c r="P80" s="537"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29534,8 +29537,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="515"/>
-      <c r="P81" s="529"/>
+      <c r="O81" s="534"/>
+      <c r="P81" s="536"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29567,8 +29570,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="516"/>
-      <c r="P82" s="530"/>
+      <c r="O82" s="535"/>
+      <c r="P82" s="537"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29726,8 +29729,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="531"/>
-      <c r="M87" s="532"/>
+      <c r="L87" s="538"/>
+      <c r="M87" s="539"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29759,8 +29762,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="531"/>
-      <c r="M88" s="532"/>
+      <c r="L88" s="538"/>
+      <c r="M88" s="539"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29963,8 +29966,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="515"/>
-      <c r="P94" s="525"/>
+      <c r="O94" s="534"/>
+      <c r="P94" s="530"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29996,8 +29999,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="516"/>
-      <c r="P95" s="526"/>
+      <c r="O95" s="535"/>
+      <c r="P95" s="531"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35389,11 +35392,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="527" t="s">
+      <c r="F259" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="527"/>
-      <c r="H259" s="528"/>
+      <c r="G259" s="532"/>
+      <c r="H259" s="533"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35967,6 +35970,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35983,17 +35997,6 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36040,18 +36043,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -36067,22 +36070,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -36136,10 +36139,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -39527,7 +39530,7 @@
       <c r="B64" s="178" t="s">
         <v>466</v>
       </c>
-      <c r="C64" s="563" t="s">
+      <c r="C64" s="561" t="s">
         <v>467</v>
       </c>
       <c r="D64" s="171"/>
@@ -39571,11 +39574,11 @@
       <c r="V64" s="54"/>
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="558"/>
+      <c r="A65" s="556"/>
       <c r="B65" s="178" t="s">
         <v>240</v>
       </c>
-      <c r="C65" s="564"/>
+      <c r="C65" s="562"/>
       <c r="D65" s="171"/>
       <c r="E65" s="60"/>
       <c r="F65" s="151">
@@ -40021,8 +40024,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="515"/>
-      <c r="P79" s="529"/>
+      <c r="O79" s="534"/>
+      <c r="P79" s="536"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -40051,8 +40054,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="516"/>
-      <c r="P80" s="530"/>
+      <c r="O80" s="535"/>
+      <c r="P80" s="537"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -40081,8 +40084,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="515"/>
-      <c r="P81" s="529"/>
+      <c r="O81" s="534"/>
+      <c r="P81" s="536"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -40114,8 +40117,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="516"/>
-      <c r="P82" s="530"/>
+      <c r="O82" s="535"/>
+      <c r="P82" s="537"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -40273,8 +40276,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="531"/>
-      <c r="M87" s="532"/>
+      <c r="L87" s="538"/>
+      <c r="M87" s="539"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40306,8 +40309,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="531"/>
-      <c r="M88" s="532"/>
+      <c r="L88" s="538"/>
+      <c r="M88" s="539"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -40510,8 +40513,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="515"/>
-      <c r="P94" s="525"/>
+      <c r="O94" s="534"/>
+      <c r="P94" s="530"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -40543,8 +40546,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="516"/>
-      <c r="P95" s="526"/>
+      <c r="O95" s="535"/>
+      <c r="P95" s="531"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45936,11 +45939,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="527" t="s">
+      <c r="F259" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="527"/>
-      <c r="H259" s="528"/>
+      <c r="G259" s="532"/>
+      <c r="H259" s="533"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491966.85000000003</v>
@@ -46514,12 +46517,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O79:O80"/>
@@ -46531,6 +46528,12 @@
     <mergeCell ref="H64:H65"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46548,7 +46551,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="O22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46556,8 +46559,8 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -46577,18 +46580,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="533" t="s">
+      <c r="A1" s="509" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -46604,22 +46607,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="534" t="s">
+      <c r="W1" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="535"/>
+      <c r="X1" s="511"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533"/>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
+      <c r="A2" s="509"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -46673,10 +46676,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="536" t="s">
+      <c r="O3" s="512" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="537"/>
+      <c r="P3" s="513"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -48055,11 +48058,15 @@
       <c r="B25" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+      <c r="C25" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" s="60">
+        <v>51</v>
+      </c>
       <c r="E25" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1092930</v>
       </c>
       <c r="F25" s="61">
         <v>21430</v>
@@ -48112,8 +48119,12 @@
       <c r="B26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="C26" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" s="60">
+        <v>0</v>
+      </c>
       <c r="E26" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -50324,8 +50335,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="531"/>
-      <c r="M87" s="532"/>
+      <c r="L87" s="538"/>
+      <c r="M87" s="539"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50357,8 +50368,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="531"/>
-      <c r="M88" s="532"/>
+      <c r="L88" s="538"/>
+      <c r="M88" s="539"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50561,8 +50572,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="515"/>
-      <c r="P94" s="525"/>
+      <c r="O94" s="534"/>
+      <c r="P94" s="530"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -50594,8 +50605,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="516"/>
-      <c r="P95" s="526"/>
+      <c r="O95" s="535"/>
+      <c r="P95" s="531"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -55987,11 +55998,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="527" t="s">
+      <c r="F259" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="527"/>
-      <c r="H259" s="528"/>
+      <c r="G259" s="532"/>
+      <c r="H259" s="533"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>477376.37</v>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/ENTRADAS OBRADOR     M A Y O        2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="488">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1497,6 +1497,15 @@
   </si>
   <si>
     <t>0008 A1</t>
+  </si>
+  <si>
+    <t>0022 A1</t>
+  </si>
+  <si>
+    <t>0050 A1</t>
+  </si>
+  <si>
+    <t>0067 A1</t>
   </si>
 </sst>
 </file>
@@ -46551,7 +46560,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="O22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -48180,11 +48189,15 @@
       <c r="B27" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
+      <c r="C27" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="D27" s="60">
+        <v>51</v>
+      </c>
       <c r="E27" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1068450</v>
       </c>
       <c r="F27" s="61">
         <v>20950</v>
@@ -48237,8 +48250,12 @@
       <c r="B28" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="D28" s="60">
+        <v>0</v>
+      </c>
       <c r="E28" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -48294,11 +48311,15 @@
       <c r="B29" s="93" t="s">
         <v>290</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
+      <c r="C29" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="D29" s="60">
+        <v>53</v>
+      </c>
       <c r="E29" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1176070</v>
       </c>
       <c r="F29" s="61">
         <v>22190</v>
@@ -48351,8 +48372,12 @@
       <c r="B30" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="D30" s="60">
+        <v>53</v>
+      </c>
       <c r="E30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -48408,11 +48433,15 @@
       <c r="B31" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
+      <c r="C31" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="D31" s="60">
+        <v>54</v>
+      </c>
       <c r="E31" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1225260</v>
       </c>
       <c r="F31" s="61">
         <v>22690</v>
@@ -48465,8 +48494,12 @@
       <c r="B32" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="D32" s="60">
+        <v>54</v>
+      </c>
       <c r="E32" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
